--- a/project/sounds/קובץ אקסל ליצירת טבלת סינוס.xlsx
+++ b/project/sounds/קובץ אקסל ליצירת טבלת סינוס.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC321BB-83B8-4205-A9A1-8B5644E9E542}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CC5DC2-14C9-42D3-8348-5B3BFE8D6F1E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="2" r:id="rId1"/>
@@ -169,769 +169,769 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>98</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>196</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>392</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>489</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>586</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>683</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>780</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>876</c:v>
+                  <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>971</c:v>
+                  <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1066</c:v>
+                  <c:v>533</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1161</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1254</c:v>
+                  <c:v>627</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1347</c:v>
+                  <c:v>673</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1439</c:v>
+                  <c:v>719</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1530</c:v>
+                  <c:v>765</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1620</c:v>
+                  <c:v>810</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1710</c:v>
+                  <c:v>855</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1798</c:v>
+                  <c:v>899</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1885</c:v>
+                  <c:v>942</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1971</c:v>
+                  <c:v>985</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2056</c:v>
+                  <c:v>1028</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2139</c:v>
+                  <c:v>1069</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2222</c:v>
+                  <c:v>1111</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2303</c:v>
+                  <c:v>1151</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2382</c:v>
+                  <c:v>1191</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2460</c:v>
+                  <c:v>1230</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2537</c:v>
+                  <c:v>1268</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2612</c:v>
+                  <c:v>1306</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2686</c:v>
+                  <c:v>1343</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2758</c:v>
+                  <c:v>1379</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2828</c:v>
+                  <c:v>1414</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2896</c:v>
+                  <c:v>1448</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2963</c:v>
+                  <c:v>1481</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3028</c:v>
+                  <c:v>1514</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3092</c:v>
+                  <c:v>1546</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3153</c:v>
+                  <c:v>1576</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3212</c:v>
+                  <c:v>1606</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3270</c:v>
+                  <c:v>1635</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3325</c:v>
+                  <c:v>1662</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3379</c:v>
+                  <c:v>1689</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3430</c:v>
+                  <c:v>1715</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3480</c:v>
+                  <c:v>1740</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3527</c:v>
+                  <c:v>1763</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3572</c:v>
+                  <c:v>1786</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3615</c:v>
+                  <c:v>1807</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3656</c:v>
+                  <c:v>1828</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3695</c:v>
+                  <c:v>1847</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3731</c:v>
+                  <c:v>1865</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3766</c:v>
+                  <c:v>1883</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3798</c:v>
+                  <c:v>1899</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3827</c:v>
+                  <c:v>1913</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>3855</c:v>
+                  <c:v>1927</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3880</c:v>
+                  <c:v>1940</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3902</c:v>
+                  <c:v>1951</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3923</c:v>
+                  <c:v>1961</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3941</c:v>
+                  <c:v>1970</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3956</c:v>
+                  <c:v>1978</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>3969</c:v>
+                  <c:v>1984</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3980</c:v>
+                  <c:v>1990</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>3989</c:v>
+                  <c:v>1994</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>3995</c:v>
+                  <c:v>1997</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>3998</c:v>
+                  <c:v>1999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>3998</c:v>
+                  <c:v>1999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>3995</c:v>
+                  <c:v>1997</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3989</c:v>
+                  <c:v>1994</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3980</c:v>
+                  <c:v>1990</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3969</c:v>
+                  <c:v>1984</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3956</c:v>
+                  <c:v>1978</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3941</c:v>
+                  <c:v>1970</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3923</c:v>
+                  <c:v>1961</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>3902</c:v>
+                  <c:v>1951</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3880</c:v>
+                  <c:v>1940</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>3855</c:v>
+                  <c:v>1927</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>3827</c:v>
+                  <c:v>1913</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>3798</c:v>
+                  <c:v>1899</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>3766</c:v>
+                  <c:v>1883</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3731</c:v>
+                  <c:v>1865</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3695</c:v>
+                  <c:v>1847</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3656</c:v>
+                  <c:v>1828</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3615</c:v>
+                  <c:v>1807</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3572</c:v>
+                  <c:v>1786</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3527</c:v>
+                  <c:v>1763</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3480</c:v>
+                  <c:v>1740</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3430</c:v>
+                  <c:v>1715</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>3379</c:v>
+                  <c:v>1689</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3325</c:v>
+                  <c:v>1662</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>3270</c:v>
+                  <c:v>1635</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>3212</c:v>
+                  <c:v>1606</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3153</c:v>
+                  <c:v>1576</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>3092</c:v>
+                  <c:v>1546</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>3028</c:v>
+                  <c:v>1514</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2963</c:v>
+                  <c:v>1481</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2896</c:v>
+                  <c:v>1448</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>2828</c:v>
+                  <c:v>1414</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>2758</c:v>
+                  <c:v>1379</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2686</c:v>
+                  <c:v>1343</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>2612</c:v>
+                  <c:v>1306</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2537</c:v>
+                  <c:v>1268</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2460</c:v>
+                  <c:v>1230</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2382</c:v>
+                  <c:v>1191</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2303</c:v>
+                  <c:v>1151</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2222</c:v>
+                  <c:v>1111</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2139</c:v>
+                  <c:v>1069</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2056</c:v>
+                  <c:v>1028</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1971</c:v>
+                  <c:v>985</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1885</c:v>
+                  <c:v>942</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1798</c:v>
+                  <c:v>899</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1710</c:v>
+                  <c:v>855</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1620</c:v>
+                  <c:v>810</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>1530</c:v>
+                  <c:v>765</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1439</c:v>
+                  <c:v>719</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1347</c:v>
+                  <c:v>673</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>1254</c:v>
+                  <c:v>627</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>1161</c:v>
+                  <c:v>580</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1066</c:v>
+                  <c:v>533</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>971</c:v>
+                  <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>876</c:v>
+                  <c:v>438</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>780</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>683</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>586</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>489</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>392</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>294</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>196</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>98</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="129">
+                  <c:v>-49</c:v>
+                </c:pt>
+                <c:pt idx="130">
                   <c:v>-98</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="131">
+                  <c:v>-147</c:v>
+                </c:pt>
+                <c:pt idx="132">
                   <c:v>-196</c:v>
                 </c:pt>
-                <c:pt idx="131">
-                  <c:v>-294</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-392</c:v>
-                </c:pt>
                 <c:pt idx="133">
-                  <c:v>-489</c:v>
+                  <c:v>-244</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-586</c:v>
+                  <c:v>-293</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-683</c:v>
+                  <c:v>-341</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-780</c:v>
+                  <c:v>-390</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-876</c:v>
+                  <c:v>-438</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-971</c:v>
+                  <c:v>-485</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-1066</c:v>
+                  <c:v>-533</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-1161</c:v>
+                  <c:v>-580</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-1254</c:v>
+                  <c:v>-627</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-1347</c:v>
+                  <c:v>-673</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-1439</c:v>
+                  <c:v>-719</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-1530</c:v>
+                  <c:v>-765</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-1620</c:v>
+                  <c:v>-810</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-1710</c:v>
+                  <c:v>-855</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-1798</c:v>
+                  <c:v>-899</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-1885</c:v>
+                  <c:v>-942</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>-1971</c:v>
+                  <c:v>-985</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>-2056</c:v>
+                  <c:v>-1028</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>-2139</c:v>
+                  <c:v>-1069</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>-2222</c:v>
+                  <c:v>-1111</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>-2303</c:v>
+                  <c:v>-1151</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>-2382</c:v>
+                  <c:v>-1191</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>-2460</c:v>
+                  <c:v>-1230</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>-2537</c:v>
+                  <c:v>-1268</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>-2612</c:v>
+                  <c:v>-1306</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>-2686</c:v>
+                  <c:v>-1343</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>-2758</c:v>
+                  <c:v>-1379</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>-2828</c:v>
+                  <c:v>-1414</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>-2896</c:v>
+                  <c:v>-1448</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>-2963</c:v>
+                  <c:v>-1481</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>-3028</c:v>
+                  <c:v>-1514</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>-3092</c:v>
+                  <c:v>-1546</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>-3153</c:v>
+                  <c:v>-1576</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>-3212</c:v>
+                  <c:v>-1606</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>-3270</c:v>
+                  <c:v>-1635</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>-3325</c:v>
+                  <c:v>-1662</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>-3379</c:v>
+                  <c:v>-1689</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>-3430</c:v>
+                  <c:v>-1715</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>-3480</c:v>
+                  <c:v>-1740</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>-3527</c:v>
+                  <c:v>-1763</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>-3572</c:v>
+                  <c:v>-1786</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>-3615</c:v>
+                  <c:v>-1807</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>-3656</c:v>
+                  <c:v>-1828</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>-3695</c:v>
+                  <c:v>-1847</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>-3731</c:v>
+                  <c:v>-1865</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>-3766</c:v>
+                  <c:v>-1883</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>-3798</c:v>
+                  <c:v>-1899</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>-3827</c:v>
+                  <c:v>-1913</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>-3855</c:v>
+                  <c:v>-1927</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>-3880</c:v>
+                  <c:v>-1940</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>-3902</c:v>
+                  <c:v>-1951</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-3923</c:v>
+                  <c:v>-1961</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-3941</c:v>
+                  <c:v>-1970</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-3956</c:v>
+                  <c:v>-1978</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-3969</c:v>
+                  <c:v>-1984</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-3980</c:v>
+                  <c:v>-1990</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-3989</c:v>
+                  <c:v>-1994</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-3995</c:v>
+                  <c:v>-1997</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-3998</c:v>
+                  <c:v>-1999</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-4000</c:v>
+                  <c:v>-2000</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-3998</c:v>
+                  <c:v>-1999</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-3995</c:v>
+                  <c:v>-1997</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-3989</c:v>
+                  <c:v>-1994</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-3980</c:v>
+                  <c:v>-1990</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-3969</c:v>
+                  <c:v>-1984</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-3956</c:v>
+                  <c:v>-1978</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-3941</c:v>
+                  <c:v>-1970</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-3923</c:v>
+                  <c:v>-1961</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-3902</c:v>
+                  <c:v>-1951</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-3880</c:v>
+                  <c:v>-1940</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-3855</c:v>
+                  <c:v>-1927</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-3827</c:v>
+                  <c:v>-1913</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-3798</c:v>
+                  <c:v>-1899</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-3766</c:v>
+                  <c:v>-1883</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-3731</c:v>
+                  <c:v>-1865</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-3695</c:v>
+                  <c:v>-1847</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-3656</c:v>
+                  <c:v>-1828</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-3615</c:v>
+                  <c:v>-1807</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-3572</c:v>
+                  <c:v>-1786</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-3527</c:v>
+                  <c:v>-1763</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-3480</c:v>
+                  <c:v>-1740</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-3430</c:v>
+                  <c:v>-1715</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-3379</c:v>
+                  <c:v>-1689</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-3325</c:v>
+                  <c:v>-1662</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-3270</c:v>
+                  <c:v>-1635</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-3212</c:v>
+                  <c:v>-1606</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-3153</c:v>
+                  <c:v>-1576</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-3092</c:v>
+                  <c:v>-1546</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>-3028</c:v>
+                  <c:v>-1514</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>-2963</c:v>
+                  <c:v>-1481</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-2896</c:v>
+                  <c:v>-1448</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-2828</c:v>
+                  <c:v>-1414</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>-2758</c:v>
+                  <c:v>-1379</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-2686</c:v>
+                  <c:v>-1343</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-2612</c:v>
+                  <c:v>-1306</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-2537</c:v>
+                  <c:v>-1268</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-2460</c:v>
+                  <c:v>-1230</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-2382</c:v>
+                  <c:v>-1191</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-2303</c:v>
+                  <c:v>-1151</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-2222</c:v>
+                  <c:v>-1111</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-2139</c:v>
+                  <c:v>-1069</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-2056</c:v>
+                  <c:v>-1028</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>-1971</c:v>
+                  <c:v>-985</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-1885</c:v>
+                  <c:v>-942</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>-1798</c:v>
+                  <c:v>-899</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>-1710</c:v>
+                  <c:v>-855</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>-1620</c:v>
+                  <c:v>-810</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>-1530</c:v>
+                  <c:v>-765</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>-1439</c:v>
+                  <c:v>-719</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>-1347</c:v>
+                  <c:v>-673</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>-1254</c:v>
+                  <c:v>-627</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>-1161</c:v>
+                  <c:v>-580</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>-1066</c:v>
+                  <c:v>-533</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>-971</c:v>
+                  <c:v>-485</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>-876</c:v>
+                  <c:v>-438</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>-780</c:v>
+                  <c:v>-390</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>-683</c:v>
+                  <c:v>-341</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>-586</c:v>
+                  <c:v>-293</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>-489</c:v>
+                  <c:v>-244</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>-392</c:v>
+                  <c:v>-196</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>-294</c:v>
+                  <c:v>-147</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>-196</c:v>
+                  <c:v>-98</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>-98</c:v>
+                  <c:v>-49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="str">
-        <f>DEC2HEX(C2*4000,4)</f>
+        <f>DEC2HEX(C2*2000,4)</f>
         <v>0000</v>
       </c>
       <c r="E2">
@@ -2096,16 +2096,16 @@
         <v>2.4541228522912288E-2</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="2">DEC2HEX(C3*4000,4)</f>
-        <v>0062</v>
+        <f t="shared" ref="D3:D66" si="2">DEC2HEX(C3*2000,4)</f>
+        <v>0031</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="3">HEX2DEC(D3)</f>
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="H3" s="1" t="str">
         <f t="shared" ref="H3:H66" si="4">CONCATENATE("X""",RIGHT(D3,4),""",")</f>
-        <v>X"0062",</v>
+        <v>X"0031",</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2122,15 +2122,15 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" si="2"/>
-        <v>00C4</v>
+        <v>0062</v>
       </c>
       <c r="E4">
         <f t="shared" si="3"/>
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="H4" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"00C4",</v>
+        <v>X"0062",</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2147,15 +2147,15 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v>0126</v>
+        <v>0093</v>
       </c>
       <c r="E5">
         <f t="shared" si="3"/>
-        <v>294</v>
+        <v>147</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0126",</v>
+        <v>X"0093",</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2172,15 +2172,15 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v>0188</v>
+        <v>00C4</v>
       </c>
       <c r="E6">
         <f t="shared" si="3"/>
-        <v>392</v>
+        <v>196</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0188",</v>
+        <v>X"00C4",</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2197,15 +2197,15 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
-        <v>01E9</v>
+        <v>00F4</v>
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>489</v>
+        <v>244</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"01E9",</v>
+        <v>X"00F4",</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2222,15 +2222,15 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
-        <v>024A</v>
+        <v>0125</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>586</v>
+        <v>293</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"024A",</v>
+        <v>X"0125",</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2247,15 +2247,15 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
-        <v>02AB</v>
+        <v>0155</v>
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>683</v>
+        <v>341</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"02AB",</v>
+        <v>X"0155",</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2272,15 +2272,15 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
-        <v>030C</v>
+        <v>0186</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>780</v>
+        <v>390</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"030C",</v>
+        <v>X"0186",</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2297,15 +2297,15 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="2"/>
-        <v>036C</v>
+        <v>01B6</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>876</v>
+        <v>438</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"036C",</v>
+        <v>X"01B6",</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2322,15 +2322,15 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
-        <v>03CB</v>
+        <v>01E5</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>971</v>
+        <v>485</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"03CB",</v>
+        <v>X"01E5",</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2347,15 +2347,15 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
-        <v>042A</v>
+        <v>0215</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>1066</v>
+        <v>533</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"042A",</v>
+        <v>X"0215",</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2372,15 +2372,15 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
-        <v>0489</v>
+        <v>0244</v>
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
-        <v>1161</v>
+        <v>580</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0489",</v>
+        <v>X"0244",</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2397,15 +2397,15 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
-        <v>04E6</v>
+        <v>0273</v>
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
-        <v>1254</v>
+        <v>627</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"04E6",</v>
+        <v>X"0273",</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2422,15 +2422,15 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="2"/>
-        <v>0543</v>
+        <v>02A1</v>
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
-        <v>1347</v>
+        <v>673</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0543",</v>
+        <v>X"02A1",</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2447,15 +2447,15 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="2"/>
-        <v>059F</v>
+        <v>02CF</v>
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>1439</v>
+        <v>719</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"059F",</v>
+        <v>X"02CF",</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2472,15 +2472,15 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="2"/>
-        <v>05FA</v>
+        <v>02FD</v>
       </c>
       <c r="E18">
         <f t="shared" si="3"/>
-        <v>1530</v>
+        <v>765</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"05FA",</v>
+        <v>X"02FD",</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2497,15 +2497,15 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="2"/>
-        <v>0654</v>
+        <v>032A</v>
       </c>
       <c r="E19">
         <f t="shared" si="3"/>
-        <v>1620</v>
+        <v>810</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0654",</v>
+        <v>X"032A",</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2522,15 +2522,15 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="2"/>
-        <v>06AE</v>
+        <v>0357</v>
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
-        <v>1710</v>
+        <v>855</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"06AE",</v>
+        <v>X"0357",</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2547,15 +2547,15 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" si="2"/>
-        <v>0706</v>
+        <v>0383</v>
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
-        <v>1798</v>
+        <v>899</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0706",</v>
+        <v>X"0383",</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2572,15 +2572,15 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="2"/>
-        <v>075D</v>
+        <v>03AE</v>
       </c>
       <c r="E22">
         <f t="shared" si="3"/>
-        <v>1885</v>
+        <v>942</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"075D",</v>
+        <v>X"03AE",</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2597,15 +2597,15 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" si="2"/>
-        <v>07B3</v>
+        <v>03D9</v>
       </c>
       <c r="E23">
         <f t="shared" si="3"/>
-        <v>1971</v>
+        <v>985</v>
       </c>
       <c r="H23" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"07B3",</v>
+        <v>X"03D9",</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2622,15 +2622,15 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="2"/>
-        <v>0808</v>
+        <v>0404</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
-        <v>2056</v>
+        <v>1028</v>
       </c>
       <c r="H24" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0808",</v>
+        <v>X"0404",</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" si="2"/>
-        <v>085B</v>
+        <v>042D</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>2139</v>
+        <v>1069</v>
       </c>
       <c r="H25" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"085B",</v>
+        <v>X"042D",</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2672,15 +2672,15 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" si="2"/>
-        <v>08AE</v>
+        <v>0457</v>
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="H26" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"08AE",</v>
+        <v>X"0457",</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2697,15 +2697,15 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" si="2"/>
-        <v>08FF</v>
+        <v>047F</v>
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>2303</v>
+        <v>1151</v>
       </c>
       <c r="H27" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"08FF",</v>
+        <v>X"047F",</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2722,15 +2722,15 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" si="2"/>
-        <v>094E</v>
+        <v>04A7</v>
       </c>
       <c r="E28">
         <f t="shared" si="3"/>
-        <v>2382</v>
+        <v>1191</v>
       </c>
       <c r="H28" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"094E",</v>
+        <v>X"04A7",</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2747,15 +2747,15 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
-        <v>099C</v>
+        <v>04CE</v>
       </c>
       <c r="E29">
         <f t="shared" si="3"/>
-        <v>2460</v>
+        <v>1230</v>
       </c>
       <c r="H29" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"099C",</v>
+        <v>X"04CE",</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2772,15 +2772,15 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
-        <v>09E9</v>
+        <v>04F4</v>
       </c>
       <c r="E30">
         <f t="shared" si="3"/>
-        <v>2537</v>
+        <v>1268</v>
       </c>
       <c r="H30" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"09E9",</v>
+        <v>X"04F4",</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2797,15 +2797,15 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
-        <v>0A34</v>
+        <v>051A</v>
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>2612</v>
+        <v>1306</v>
       </c>
       <c r="H31" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0A34",</v>
+        <v>X"051A",</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2822,15 +2822,15 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
-        <v>0A7E</v>
+        <v>053F</v>
       </c>
       <c r="E32">
         <f t="shared" si="3"/>
-        <v>2686</v>
+        <v>1343</v>
       </c>
       <c r="H32" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0A7E",</v>
+        <v>X"053F",</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2847,15 +2847,15 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" si="2"/>
-        <v>0AC6</v>
+        <v>0563</v>
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
-        <v>2758</v>
+        <v>1379</v>
       </c>
       <c r="H33" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0AC6",</v>
+        <v>X"0563",</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2872,15 +2872,15 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
-        <v>0B0C</v>
+        <v>0586</v>
       </c>
       <c r="E34">
         <f t="shared" si="3"/>
-        <v>2828</v>
+        <v>1414</v>
       </c>
       <c r="H34" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0B0C",</v>
+        <v>X"0586",</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2897,15 +2897,15 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" si="2"/>
-        <v>0B50</v>
+        <v>05A8</v>
       </c>
       <c r="E35">
         <f t="shared" si="3"/>
-        <v>2896</v>
+        <v>1448</v>
       </c>
       <c r="H35" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0B50",</v>
+        <v>X"05A8",</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2922,15 +2922,15 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" si="2"/>
-        <v>0B93</v>
+        <v>05C9</v>
       </c>
       <c r="E36">
         <f t="shared" si="3"/>
-        <v>2963</v>
+        <v>1481</v>
       </c>
       <c r="H36" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0B93",</v>
+        <v>X"05C9",</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2947,15 +2947,15 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" si="2"/>
-        <v>0BD4</v>
+        <v>05EA</v>
       </c>
       <c r="E37">
         <f t="shared" si="3"/>
-        <v>3028</v>
+        <v>1514</v>
       </c>
       <c r="H37" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0BD4",</v>
+        <v>X"05EA",</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2972,15 +2972,15 @@
       </c>
       <c r="D38" t="str">
         <f t="shared" si="2"/>
-        <v>0C14</v>
+        <v>060A</v>
       </c>
       <c r="E38">
         <f t="shared" si="3"/>
-        <v>3092</v>
+        <v>1546</v>
       </c>
       <c r="H38" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0C14",</v>
+        <v>X"060A",</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2997,15 +2997,15 @@
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
-        <v>0C51</v>
+        <v>0628</v>
       </c>
       <c r="E39">
         <f t="shared" si="3"/>
-        <v>3153</v>
+        <v>1576</v>
       </c>
       <c r="H39" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0C51",</v>
+        <v>X"0628",</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3022,15 +3022,15 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
-        <v>0C8C</v>
+        <v>0646</v>
       </c>
       <c r="E40">
         <f t="shared" si="3"/>
-        <v>3212</v>
+        <v>1606</v>
       </c>
       <c r="H40" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0C8C",</v>
+        <v>X"0646",</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3047,15 +3047,15 @@
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
-        <v>0CC6</v>
+        <v>0663</v>
       </c>
       <c r="E41">
         <f t="shared" si="3"/>
-        <v>3270</v>
+        <v>1635</v>
       </c>
       <c r="H41" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0CC6",</v>
+        <v>X"0663",</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -3072,15 +3072,15 @@
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
-        <v>0CFD</v>
+        <v>067E</v>
       </c>
       <c r="E42">
         <f t="shared" si="3"/>
-        <v>3325</v>
+        <v>1662</v>
       </c>
       <c r="H42" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0CFD",</v>
+        <v>X"067E",</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3097,15 +3097,15 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
-        <v>0D33</v>
+        <v>0699</v>
       </c>
       <c r="E43">
         <f t="shared" si="3"/>
-        <v>3379</v>
+        <v>1689</v>
       </c>
       <c r="H43" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0D33",</v>
+        <v>X"0699",</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3122,15 +3122,15 @@
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
-        <v>0D66</v>
+        <v>06B3</v>
       </c>
       <c r="E44">
         <f t="shared" si="3"/>
-        <v>3430</v>
+        <v>1715</v>
       </c>
       <c r="H44" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0D66",</v>
+        <v>X"06B3",</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3147,15 +3147,15 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
-        <v>0D98</v>
+        <v>06CC</v>
       </c>
       <c r="E45">
         <f t="shared" si="3"/>
-        <v>3480</v>
+        <v>1740</v>
       </c>
       <c r="H45" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0D98",</v>
+        <v>X"06CC",</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3172,15 +3172,15 @@
       </c>
       <c r="D46" t="str">
         <f t="shared" si="2"/>
-        <v>0DC7</v>
+        <v>06E3</v>
       </c>
       <c r="E46">
         <f t="shared" si="3"/>
-        <v>3527</v>
+        <v>1763</v>
       </c>
       <c r="H46" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0DC7",</v>
+        <v>X"06E3",</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3197,15 +3197,15 @@
       </c>
       <c r="D47" t="str">
         <f t="shared" si="2"/>
-        <v>0DF4</v>
+        <v>06FA</v>
       </c>
       <c r="E47">
         <f t="shared" si="3"/>
-        <v>3572</v>
+        <v>1786</v>
       </c>
       <c r="H47" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0DF4",</v>
+        <v>X"06FA",</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3222,15 +3222,15 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" si="2"/>
-        <v>0E1F</v>
+        <v>070F</v>
       </c>
       <c r="E48">
         <f t="shared" si="3"/>
-        <v>3615</v>
+        <v>1807</v>
       </c>
       <c r="H48" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0E1F",</v>
+        <v>X"070F",</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3247,15 +3247,15 @@
       </c>
       <c r="D49" t="str">
         <f t="shared" si="2"/>
-        <v>0E48</v>
+        <v>0724</v>
       </c>
       <c r="E49">
         <f t="shared" si="3"/>
-        <v>3656</v>
+        <v>1828</v>
       </c>
       <c r="H49" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0E48",</v>
+        <v>X"0724",</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3272,15 +3272,15 @@
       </c>
       <c r="D50" t="str">
         <f t="shared" si="2"/>
-        <v>0E6F</v>
+        <v>0737</v>
       </c>
       <c r="E50">
         <f t="shared" si="3"/>
-        <v>3695</v>
+        <v>1847</v>
       </c>
       <c r="H50" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0E6F",</v>
+        <v>X"0737",</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3297,15 +3297,15 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" si="2"/>
-        <v>0E93</v>
+        <v>0749</v>
       </c>
       <c r="E51">
         <f t="shared" si="3"/>
-        <v>3731</v>
+        <v>1865</v>
       </c>
       <c r="H51" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0E93",</v>
+        <v>X"0749",</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3322,15 +3322,15 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" si="2"/>
-        <v>0EB6</v>
+        <v>075B</v>
       </c>
       <c r="E52">
         <f t="shared" si="3"/>
-        <v>3766</v>
+        <v>1883</v>
       </c>
       <c r="H52" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0EB6",</v>
+        <v>X"075B",</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3347,15 +3347,15 @@
       </c>
       <c r="D53" t="str">
         <f t="shared" si="2"/>
-        <v>0ED6</v>
+        <v>076B</v>
       </c>
       <c r="E53">
         <f t="shared" si="3"/>
-        <v>3798</v>
+        <v>1899</v>
       </c>
       <c r="H53" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0ED6",</v>
+        <v>X"076B",</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3372,15 +3372,15 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" si="2"/>
-        <v>0EF3</v>
+        <v>0779</v>
       </c>
       <c r="E54">
         <f t="shared" si="3"/>
-        <v>3827</v>
+        <v>1913</v>
       </c>
       <c r="H54" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0EF3",</v>
+        <v>X"0779",</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3397,15 +3397,15 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" si="2"/>
-        <v>0F0F</v>
+        <v>0787</v>
       </c>
       <c r="E55">
         <f t="shared" si="3"/>
-        <v>3855</v>
+        <v>1927</v>
       </c>
       <c r="H55" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0F0F",</v>
+        <v>X"0787",</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3422,15 +3422,15 @@
       </c>
       <c r="D56" t="str">
         <f t="shared" si="2"/>
-        <v>0F28</v>
+        <v>0794</v>
       </c>
       <c r="E56">
         <f t="shared" si="3"/>
-        <v>3880</v>
+        <v>1940</v>
       </c>
       <c r="H56" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0F28",</v>
+        <v>X"0794",</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3447,15 +3447,15 @@
       </c>
       <c r="D57" t="str">
         <f t="shared" si="2"/>
-        <v>0F3E</v>
+        <v>079F</v>
       </c>
       <c r="E57">
         <f t="shared" si="3"/>
-        <v>3902</v>
+        <v>1951</v>
       </c>
       <c r="H57" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0F3E",</v>
+        <v>X"079F",</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3472,15 +3472,15 @@
       </c>
       <c r="D58" t="str">
         <f t="shared" si="2"/>
-        <v>0F53</v>
+        <v>07A9</v>
       </c>
       <c r="E58">
         <f t="shared" si="3"/>
-        <v>3923</v>
+        <v>1961</v>
       </c>
       <c r="H58" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0F53",</v>
+        <v>X"07A9",</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3497,15 +3497,15 @@
       </c>
       <c r="D59" t="str">
         <f t="shared" si="2"/>
-        <v>0F65</v>
+        <v>07B2</v>
       </c>
       <c r="E59">
         <f t="shared" si="3"/>
-        <v>3941</v>
+        <v>1970</v>
       </c>
       <c r="H59" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0F65",</v>
+        <v>X"07B2",</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3522,15 +3522,15 @@
       </c>
       <c r="D60" t="str">
         <f t="shared" si="2"/>
-        <v>0F74</v>
+        <v>07BA</v>
       </c>
       <c r="E60">
         <f t="shared" si="3"/>
-        <v>3956</v>
+        <v>1978</v>
       </c>
       <c r="H60" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0F74",</v>
+        <v>X"07BA",</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3547,15 +3547,15 @@
       </c>
       <c r="D61" t="str">
         <f t="shared" si="2"/>
-        <v>0F81</v>
+        <v>07C0</v>
       </c>
       <c r="E61">
         <f t="shared" si="3"/>
-        <v>3969</v>
+        <v>1984</v>
       </c>
       <c r="H61" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0F81",</v>
+        <v>X"07C0",</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3572,15 +3572,15 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" si="2"/>
-        <v>0F8C</v>
+        <v>07C6</v>
       </c>
       <c r="E62">
         <f t="shared" si="3"/>
-        <v>3980</v>
+        <v>1990</v>
       </c>
       <c r="H62" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0F8C",</v>
+        <v>X"07C6",</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3597,15 +3597,15 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" si="2"/>
-        <v>0F95</v>
+        <v>07CA</v>
       </c>
       <c r="E63">
         <f t="shared" si="3"/>
-        <v>3989</v>
+        <v>1994</v>
       </c>
       <c r="H63" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0F95",</v>
+        <v>X"07CA",</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3622,15 +3622,15 @@
       </c>
       <c r="D64" t="str">
         <f t="shared" si="2"/>
-        <v>0F9B</v>
+        <v>07CD</v>
       </c>
       <c r="E64">
         <f t="shared" si="3"/>
-        <v>3995</v>
+        <v>1997</v>
       </c>
       <c r="H64" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0F9B",</v>
+        <v>X"07CD",</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3647,15 +3647,15 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" si="2"/>
-        <v>0F9E</v>
+        <v>07CF</v>
       </c>
       <c r="E65">
         <f t="shared" si="3"/>
-        <v>3998</v>
+        <v>1999</v>
       </c>
       <c r="H65" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0F9E",</v>
+        <v>X"07CF",</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3672,15 +3672,15 @@
       </c>
       <c r="D66" t="str">
         <f t="shared" si="2"/>
-        <v>0FA0</v>
+        <v>07D0</v>
       </c>
       <c r="E66">
         <f t="shared" si="3"/>
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="H66" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0FA0",</v>
+        <v>X"07D0",</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3696,16 +3696,16 @@
         <v>0.99969881869620425</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D130" si="7">DEC2HEX(C67*4000,4)</f>
-        <v>0F9E</v>
+        <f t="shared" ref="D67:D130" si="7">DEC2HEX(C67*2000,4)</f>
+        <v>07CF</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" si="8">HEX2DEC(D67)</f>
-        <v>3998</v>
+        <v>1999</v>
       </c>
       <c r="H67" s="1" t="str">
         <f t="shared" ref="H67:H130" si="9">CONCATENATE("X""",RIGHT(D67,4),""",")</f>
-        <v>X"0F9E",</v>
+        <v>X"07CF",</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3722,15 +3722,15 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" si="7"/>
-        <v>0F9B</v>
+        <v>07CD</v>
       </c>
       <c r="E68">
         <f t="shared" si="8"/>
-        <v>3995</v>
+        <v>1997</v>
       </c>
       <c r="H68" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0F9B",</v>
+        <v>X"07CD",</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3747,15 +3747,15 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" si="7"/>
-        <v>0F95</v>
+        <v>07CA</v>
       </c>
       <c r="E69">
         <f t="shared" si="8"/>
-        <v>3989</v>
+        <v>1994</v>
       </c>
       <c r="H69" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0F95",</v>
+        <v>X"07CA",</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3772,15 +3772,15 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" si="7"/>
-        <v>0F8C</v>
+        <v>07C6</v>
       </c>
       <c r="E70">
         <f t="shared" si="8"/>
-        <v>3980</v>
+        <v>1990</v>
       </c>
       <c r="H70" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0F8C",</v>
+        <v>X"07C6",</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3797,15 +3797,15 @@
       </c>
       <c r="D71" t="str">
         <f t="shared" si="7"/>
-        <v>0F81</v>
+        <v>07C0</v>
       </c>
       <c r="E71">
         <f t="shared" si="8"/>
-        <v>3969</v>
+        <v>1984</v>
       </c>
       <c r="H71" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0F81",</v>
+        <v>X"07C0",</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3822,15 +3822,15 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" si="7"/>
-        <v>0F74</v>
+        <v>07BA</v>
       </c>
       <c r="E72">
         <f t="shared" si="8"/>
-        <v>3956</v>
+        <v>1978</v>
       </c>
       <c r="H72" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0F74",</v>
+        <v>X"07BA",</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="D73" t="str">
         <f t="shared" si="7"/>
-        <v>0F65</v>
+        <v>07B2</v>
       </c>
       <c r="E73">
         <f t="shared" si="8"/>
-        <v>3941</v>
+        <v>1970</v>
       </c>
       <c r="H73" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0F65",</v>
+        <v>X"07B2",</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3872,15 +3872,15 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" si="7"/>
-        <v>0F53</v>
+        <v>07A9</v>
       </c>
       <c r="E74">
         <f t="shared" si="8"/>
-        <v>3923</v>
+        <v>1961</v>
       </c>
       <c r="H74" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0F53",</v>
+        <v>X"07A9",</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3897,15 +3897,15 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" si="7"/>
-        <v>0F3E</v>
+        <v>079F</v>
       </c>
       <c r="E75">
         <f t="shared" si="8"/>
-        <v>3902</v>
+        <v>1951</v>
       </c>
       <c r="H75" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0F3E",</v>
+        <v>X"079F",</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3922,15 +3922,15 @@
       </c>
       <c r="D76" t="str">
         <f t="shared" si="7"/>
-        <v>0F28</v>
+        <v>0794</v>
       </c>
       <c r="E76">
         <f t="shared" si="8"/>
-        <v>3880</v>
+        <v>1940</v>
       </c>
       <c r="H76" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0F28",</v>
+        <v>X"0794",</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3947,15 +3947,15 @@
       </c>
       <c r="D77" t="str">
         <f t="shared" si="7"/>
-        <v>0F0F</v>
+        <v>0787</v>
       </c>
       <c r="E77">
         <f t="shared" si="8"/>
-        <v>3855</v>
+        <v>1927</v>
       </c>
       <c r="H77" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0F0F",</v>
+        <v>X"0787",</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3972,15 +3972,15 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" si="7"/>
-        <v>0EF3</v>
+        <v>0779</v>
       </c>
       <c r="E78">
         <f t="shared" si="8"/>
-        <v>3827</v>
+        <v>1913</v>
       </c>
       <c r="H78" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0EF3",</v>
+        <v>X"0779",</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3997,15 +3997,15 @@
       </c>
       <c r="D79" t="str">
         <f t="shared" si="7"/>
-        <v>0ED6</v>
+        <v>076B</v>
       </c>
       <c r="E79">
         <f t="shared" si="8"/>
-        <v>3798</v>
+        <v>1899</v>
       </c>
       <c r="H79" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0ED6",</v>
+        <v>X"076B",</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -4022,15 +4022,15 @@
       </c>
       <c r="D80" t="str">
         <f t="shared" si="7"/>
-        <v>0EB6</v>
+        <v>075B</v>
       </c>
       <c r="E80">
         <f t="shared" si="8"/>
-        <v>3766</v>
+        <v>1883</v>
       </c>
       <c r="H80" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0EB6",</v>
+        <v>X"075B",</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -4047,15 +4047,15 @@
       </c>
       <c r="D81" t="str">
         <f t="shared" si="7"/>
-        <v>0E93</v>
+        <v>0749</v>
       </c>
       <c r="E81">
         <f t="shared" si="8"/>
-        <v>3731</v>
+        <v>1865</v>
       </c>
       <c r="H81" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0E93",</v>
+        <v>X"0749",</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4072,15 +4072,15 @@
       </c>
       <c r="D82" t="str">
         <f t="shared" si="7"/>
-        <v>0E6F</v>
+        <v>0737</v>
       </c>
       <c r="E82">
         <f t="shared" si="8"/>
-        <v>3695</v>
+        <v>1847</v>
       </c>
       <c r="H82" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0E6F",</v>
+        <v>X"0737",</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4097,15 +4097,15 @@
       </c>
       <c r="D83" t="str">
         <f t="shared" si="7"/>
-        <v>0E48</v>
+        <v>0724</v>
       </c>
       <c r="E83">
         <f t="shared" si="8"/>
-        <v>3656</v>
+        <v>1828</v>
       </c>
       <c r="H83" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0E48",</v>
+        <v>X"0724",</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4122,15 +4122,15 @@
       </c>
       <c r="D84" t="str">
         <f t="shared" si="7"/>
-        <v>0E1F</v>
+        <v>070F</v>
       </c>
       <c r="E84">
         <f t="shared" si="8"/>
-        <v>3615</v>
+        <v>1807</v>
       </c>
       <c r="H84" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0E1F",</v>
+        <v>X"070F",</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4147,15 +4147,15 @@
       </c>
       <c r="D85" t="str">
         <f t="shared" si="7"/>
-        <v>0DF4</v>
+        <v>06FA</v>
       </c>
       <c r="E85">
         <f t="shared" si="8"/>
-        <v>3572</v>
+        <v>1786</v>
       </c>
       <c r="H85" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0DF4",</v>
+        <v>X"06FA",</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4172,15 +4172,15 @@
       </c>
       <c r="D86" t="str">
         <f t="shared" si="7"/>
-        <v>0DC7</v>
+        <v>06E3</v>
       </c>
       <c r="E86">
         <f t="shared" si="8"/>
-        <v>3527</v>
+        <v>1763</v>
       </c>
       <c r="H86" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0DC7",</v>
+        <v>X"06E3",</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -4197,15 +4197,15 @@
       </c>
       <c r="D87" t="str">
         <f t="shared" si="7"/>
-        <v>0D98</v>
+        <v>06CC</v>
       </c>
       <c r="E87">
         <f t="shared" si="8"/>
-        <v>3480</v>
+        <v>1740</v>
       </c>
       <c r="H87" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0D98",</v>
+        <v>X"06CC",</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4222,15 +4222,15 @@
       </c>
       <c r="D88" t="str">
         <f t="shared" si="7"/>
-        <v>0D66</v>
+        <v>06B3</v>
       </c>
       <c r="E88">
         <f t="shared" si="8"/>
-        <v>3430</v>
+        <v>1715</v>
       </c>
       <c r="H88" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0D66",</v>
+        <v>X"06B3",</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -4247,15 +4247,15 @@
       </c>
       <c r="D89" t="str">
         <f t="shared" si="7"/>
-        <v>0D33</v>
+        <v>0699</v>
       </c>
       <c r="E89">
         <f t="shared" si="8"/>
-        <v>3379</v>
+        <v>1689</v>
       </c>
       <c r="H89" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0D33",</v>
+        <v>X"0699",</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -4272,15 +4272,15 @@
       </c>
       <c r="D90" t="str">
         <f t="shared" si="7"/>
-        <v>0CFD</v>
+        <v>067E</v>
       </c>
       <c r="E90">
         <f t="shared" si="8"/>
-        <v>3325</v>
+        <v>1662</v>
       </c>
       <c r="H90" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0CFD",</v>
+        <v>X"067E",</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4297,15 +4297,15 @@
       </c>
       <c r="D91" t="str">
         <f t="shared" si="7"/>
-        <v>0CC6</v>
+        <v>0663</v>
       </c>
       <c r="E91">
         <f t="shared" si="8"/>
-        <v>3270</v>
+        <v>1635</v>
       </c>
       <c r="H91" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0CC6",</v>
+        <v>X"0663",</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -4322,15 +4322,15 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" si="7"/>
-        <v>0C8C</v>
+        <v>0646</v>
       </c>
       <c r="E92">
         <f t="shared" si="8"/>
-        <v>3212</v>
+        <v>1606</v>
       </c>
       <c r="H92" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0C8C",</v>
+        <v>X"0646",</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -4347,15 +4347,15 @@
       </c>
       <c r="D93" t="str">
         <f t="shared" si="7"/>
-        <v>0C51</v>
+        <v>0628</v>
       </c>
       <c r="E93">
         <f t="shared" si="8"/>
-        <v>3153</v>
+        <v>1576</v>
       </c>
       <c r="H93" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0C51",</v>
+        <v>X"0628",</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4372,15 +4372,15 @@
       </c>
       <c r="D94" t="str">
         <f t="shared" si="7"/>
-        <v>0C14</v>
+        <v>060A</v>
       </c>
       <c r="E94">
         <f t="shared" si="8"/>
-        <v>3092</v>
+        <v>1546</v>
       </c>
       <c r="H94" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0C14",</v>
+        <v>X"060A",</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -4397,15 +4397,15 @@
       </c>
       <c r="D95" t="str">
         <f t="shared" si="7"/>
-        <v>0BD4</v>
+        <v>05EA</v>
       </c>
       <c r="E95">
         <f t="shared" si="8"/>
-        <v>3028</v>
+        <v>1514</v>
       </c>
       <c r="H95" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0BD4",</v>
+        <v>X"05EA",</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -4422,15 +4422,15 @@
       </c>
       <c r="D96" t="str">
         <f t="shared" si="7"/>
-        <v>0B93</v>
+        <v>05C9</v>
       </c>
       <c r="E96">
         <f t="shared" si="8"/>
-        <v>2963</v>
+        <v>1481</v>
       </c>
       <c r="H96" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0B93",</v>
+        <v>X"05C9",</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -4447,15 +4447,15 @@
       </c>
       <c r="D97" t="str">
         <f t="shared" si="7"/>
-        <v>0B50</v>
+        <v>05A8</v>
       </c>
       <c r="E97">
         <f t="shared" si="8"/>
-        <v>2896</v>
+        <v>1448</v>
       </c>
       <c r="H97" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0B50",</v>
+        <v>X"05A8",</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -4472,15 +4472,15 @@
       </c>
       <c r="D98" t="str">
         <f t="shared" si="7"/>
-        <v>0B0C</v>
+        <v>0586</v>
       </c>
       <c r="E98">
         <f t="shared" si="8"/>
-        <v>2828</v>
+        <v>1414</v>
       </c>
       <c r="H98" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0B0C",</v>
+        <v>X"0586",</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -4497,15 +4497,15 @@
       </c>
       <c r="D99" t="str">
         <f t="shared" si="7"/>
-        <v>0AC6</v>
+        <v>0563</v>
       </c>
       <c r="E99">
         <f t="shared" si="8"/>
-        <v>2758</v>
+        <v>1379</v>
       </c>
       <c r="H99" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0AC6",</v>
+        <v>X"0563",</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -4522,15 +4522,15 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" si="7"/>
-        <v>0A7E</v>
+        <v>053F</v>
       </c>
       <c r="E100">
         <f t="shared" si="8"/>
-        <v>2686</v>
+        <v>1343</v>
       </c>
       <c r="H100" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0A7E",</v>
+        <v>X"053F",</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4547,15 +4547,15 @@
       </c>
       <c r="D101" t="str">
         <f t="shared" si="7"/>
-        <v>0A34</v>
+        <v>051A</v>
       </c>
       <c r="E101">
         <f t="shared" si="8"/>
-        <v>2612</v>
+        <v>1306</v>
       </c>
       <c r="H101" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0A34",</v>
+        <v>X"051A",</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -4572,15 +4572,15 @@
       </c>
       <c r="D102" t="str">
         <f t="shared" si="7"/>
-        <v>09E9</v>
+        <v>04F4</v>
       </c>
       <c r="E102">
         <f t="shared" si="8"/>
-        <v>2537</v>
+        <v>1268</v>
       </c>
       <c r="H102" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"09E9",</v>
+        <v>X"04F4",</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -4597,15 +4597,15 @@
       </c>
       <c r="D103" t="str">
         <f t="shared" si="7"/>
-        <v>099C</v>
+        <v>04CE</v>
       </c>
       <c r="E103">
         <f t="shared" si="8"/>
-        <v>2460</v>
+        <v>1230</v>
       </c>
       <c r="H103" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"099C",</v>
+        <v>X"04CE",</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4622,15 +4622,15 @@
       </c>
       <c r="D104" t="str">
         <f t="shared" si="7"/>
-        <v>094E</v>
+        <v>04A7</v>
       </c>
       <c r="E104">
         <f t="shared" si="8"/>
-        <v>2382</v>
+        <v>1191</v>
       </c>
       <c r="H104" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"094E",</v>
+        <v>X"04A7",</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4647,15 +4647,15 @@
       </c>
       <c r="D105" t="str">
         <f t="shared" si="7"/>
-        <v>08FF</v>
+        <v>047F</v>
       </c>
       <c r="E105">
         <f t="shared" si="8"/>
-        <v>2303</v>
+        <v>1151</v>
       </c>
       <c r="H105" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"08FF",</v>
+        <v>X"047F",</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4672,15 +4672,15 @@
       </c>
       <c r="D106" t="str">
         <f t="shared" si="7"/>
-        <v>08AE</v>
+        <v>0457</v>
       </c>
       <c r="E106">
         <f t="shared" si="8"/>
-        <v>2222</v>
+        <v>1111</v>
       </c>
       <c r="H106" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"08AE",</v>
+        <v>X"0457",</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -4697,15 +4697,15 @@
       </c>
       <c r="D107" t="str">
         <f t="shared" si="7"/>
-        <v>085B</v>
+        <v>042D</v>
       </c>
       <c r="E107">
         <f t="shared" si="8"/>
-        <v>2139</v>
+        <v>1069</v>
       </c>
       <c r="H107" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"085B",</v>
+        <v>X"042D",</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -4722,15 +4722,15 @@
       </c>
       <c r="D108" t="str">
         <f t="shared" si="7"/>
-        <v>0808</v>
+        <v>0404</v>
       </c>
       <c r="E108">
         <f t="shared" si="8"/>
-        <v>2056</v>
+        <v>1028</v>
       </c>
       <c r="H108" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0808",</v>
+        <v>X"0404",</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -4747,15 +4747,15 @@
       </c>
       <c r="D109" t="str">
         <f t="shared" si="7"/>
-        <v>07B3</v>
+        <v>03D9</v>
       </c>
       <c r="E109">
         <f t="shared" si="8"/>
-        <v>1971</v>
+        <v>985</v>
       </c>
       <c r="H109" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"07B3",</v>
+        <v>X"03D9",</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4772,15 +4772,15 @@
       </c>
       <c r="D110" t="str">
         <f t="shared" si="7"/>
-        <v>075D</v>
+        <v>03AE</v>
       </c>
       <c r="E110">
         <f t="shared" si="8"/>
-        <v>1885</v>
+        <v>942</v>
       </c>
       <c r="H110" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"075D",</v>
+        <v>X"03AE",</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -4797,15 +4797,15 @@
       </c>
       <c r="D111" t="str">
         <f t="shared" si="7"/>
-        <v>0706</v>
+        <v>0383</v>
       </c>
       <c r="E111">
         <f t="shared" si="8"/>
-        <v>1798</v>
+        <v>899</v>
       </c>
       <c r="H111" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0706",</v>
+        <v>X"0383",</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -4822,15 +4822,15 @@
       </c>
       <c r="D112" t="str">
         <f t="shared" si="7"/>
-        <v>06AE</v>
+        <v>0357</v>
       </c>
       <c r="E112">
         <f t="shared" si="8"/>
-        <v>1710</v>
+        <v>855</v>
       </c>
       <c r="H112" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"06AE",</v>
+        <v>X"0357",</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -4847,15 +4847,15 @@
       </c>
       <c r="D113" t="str">
         <f t="shared" si="7"/>
-        <v>0654</v>
+        <v>032A</v>
       </c>
       <c r="E113">
         <f t="shared" si="8"/>
-        <v>1620</v>
+        <v>810</v>
       </c>
       <c r="H113" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0654",</v>
+        <v>X"032A",</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -4872,15 +4872,15 @@
       </c>
       <c r="D114" t="str">
         <f t="shared" si="7"/>
-        <v>05FA</v>
+        <v>02FD</v>
       </c>
       <c r="E114">
         <f t="shared" si="8"/>
-        <v>1530</v>
+        <v>765</v>
       </c>
       <c r="H114" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"05FA",</v>
+        <v>X"02FD",</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4897,15 +4897,15 @@
       </c>
       <c r="D115" t="str">
         <f t="shared" si="7"/>
-        <v>059F</v>
+        <v>02CF</v>
       </c>
       <c r="E115">
         <f t="shared" si="8"/>
-        <v>1439</v>
+        <v>719</v>
       </c>
       <c r="H115" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"059F",</v>
+        <v>X"02CF",</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4922,15 +4922,15 @@
       </c>
       <c r="D116" t="str">
         <f t="shared" si="7"/>
-        <v>0543</v>
+        <v>02A1</v>
       </c>
       <c r="E116">
         <f t="shared" si="8"/>
-        <v>1347</v>
+        <v>673</v>
       </c>
       <c r="H116" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0543",</v>
+        <v>X"02A1",</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -4947,15 +4947,15 @@
       </c>
       <c r="D117" t="str">
         <f t="shared" si="7"/>
-        <v>04E6</v>
+        <v>0273</v>
       </c>
       <c r="E117">
         <f t="shared" si="8"/>
-        <v>1254</v>
+        <v>627</v>
       </c>
       <c r="H117" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"04E6",</v>
+        <v>X"0273",</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -4972,15 +4972,15 @@
       </c>
       <c r="D118" t="str">
         <f t="shared" si="7"/>
-        <v>0489</v>
+        <v>0244</v>
       </c>
       <c r="E118">
         <f t="shared" si="8"/>
-        <v>1161</v>
+        <v>580</v>
       </c>
       <c r="H118" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0489",</v>
+        <v>X"0244",</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4997,15 +4997,15 @@
       </c>
       <c r="D119" t="str">
         <f t="shared" si="7"/>
-        <v>042A</v>
+        <v>0215</v>
       </c>
       <c r="E119">
         <f t="shared" si="8"/>
-        <v>1066</v>
+        <v>533</v>
       </c>
       <c r="H119" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"042A",</v>
+        <v>X"0215",</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -5022,15 +5022,15 @@
       </c>
       <c r="D120" t="str">
         <f t="shared" si="7"/>
-        <v>03CB</v>
+        <v>01E5</v>
       </c>
       <c r="E120">
         <f t="shared" si="8"/>
-        <v>971</v>
+        <v>485</v>
       </c>
       <c r="H120" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"03CB",</v>
+        <v>X"01E5",</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="D121" t="str">
         <f t="shared" si="7"/>
-        <v>036C</v>
+        <v>01B6</v>
       </c>
       <c r="E121">
         <f t="shared" si="8"/>
-        <v>876</v>
+        <v>438</v>
       </c>
       <c r="H121" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"036C",</v>
+        <v>X"01B6",</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -5072,15 +5072,15 @@
       </c>
       <c r="D122" t="str">
         <f t="shared" si="7"/>
-        <v>030C</v>
+        <v>0186</v>
       </c>
       <c r="E122">
         <f t="shared" si="8"/>
-        <v>780</v>
+        <v>390</v>
       </c>
       <c r="H122" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"030C",</v>
+        <v>X"0186",</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -5097,15 +5097,15 @@
       </c>
       <c r="D123" t="str">
         <f t="shared" si="7"/>
-        <v>02AB</v>
+        <v>0155</v>
       </c>
       <c r="E123">
         <f t="shared" si="8"/>
-        <v>683</v>
+        <v>341</v>
       </c>
       <c r="H123" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"02AB",</v>
+        <v>X"0155",</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -5122,15 +5122,15 @@
       </c>
       <c r="D124" t="str">
         <f t="shared" si="7"/>
-        <v>024A</v>
+        <v>0125</v>
       </c>
       <c r="E124">
         <f t="shared" si="8"/>
-        <v>586</v>
+        <v>293</v>
       </c>
       <c r="H124" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"024A",</v>
+        <v>X"0125",</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -5147,15 +5147,15 @@
       </c>
       <c r="D125" t="str">
         <f t="shared" si="7"/>
-        <v>01E9</v>
+        <v>00F4</v>
       </c>
       <c r="E125">
         <f t="shared" si="8"/>
-        <v>489</v>
+        <v>244</v>
       </c>
       <c r="H125" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"01E9",</v>
+        <v>X"00F4",</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -5172,15 +5172,15 @@
       </c>
       <c r="D126" t="str">
         <f t="shared" si="7"/>
-        <v>0188</v>
+        <v>00C4</v>
       </c>
       <c r="E126">
         <f t="shared" si="8"/>
-        <v>392</v>
+        <v>196</v>
       </c>
       <c r="H126" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0188",</v>
+        <v>X"00C4",</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -5197,15 +5197,15 @@
       </c>
       <c r="D127" t="str">
         <f t="shared" si="7"/>
-        <v>0126</v>
+        <v>0093</v>
       </c>
       <c r="E127">
         <f t="shared" si="8"/>
-        <v>294</v>
+        <v>147</v>
       </c>
       <c r="H127" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0126",</v>
+        <v>X"0093",</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -5222,15 +5222,15 @@
       </c>
       <c r="D128" t="str">
         <f t="shared" si="7"/>
-        <v>00C4</v>
+        <v>0062</v>
       </c>
       <c r="E128">
         <f t="shared" si="8"/>
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="H128" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"00C4",</v>
+        <v>X"0062",</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -5247,15 +5247,15 @@
       </c>
       <c r="D129" t="str">
         <f t="shared" si="7"/>
-        <v>0062</v>
+        <v>0031</v>
       </c>
       <c r="E129">
         <f t="shared" si="8"/>
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="H129" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0062",</v>
+        <v>X"0031",</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -5296,16 +5296,16 @@
         <v>-2.454122852291208E-2</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D194" si="12">DEC2HEX(C131*4000,4)</f>
-        <v>FFFFFFFF9E</v>
+        <f t="shared" ref="D131:D194" si="12">DEC2HEX(C131*2000,4)</f>
+        <v>FFFFFFFFCF</v>
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E194" si="13">HEX2DEC(D131)</f>
-        <v>-98</v>
+        <v>-49</v>
       </c>
       <c r="H131" s="1" t="str">
         <f t="shared" ref="H131:H194" si="14">CONCATENATE("X""",RIGHT(D131,4),""",")</f>
-        <v>X"FF9E",</v>
+        <v>X"FFCF",</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -5322,15 +5322,15 @@
       </c>
       <c r="D132" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFF3C</v>
+        <v>FFFFFFFF9E</v>
       </c>
       <c r="E132">
         <f t="shared" si="13"/>
-        <v>-196</v>
+        <v>-98</v>
       </c>
       <c r="H132" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FF3C",</v>
+        <v>X"FF9E",</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -5347,15 +5347,15 @@
       </c>
       <c r="D133" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFEDA</v>
+        <v>FFFFFFFF6D</v>
       </c>
       <c r="E133">
         <f t="shared" si="13"/>
-        <v>-294</v>
+        <v>-147</v>
       </c>
       <c r="H133" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FEDA",</v>
+        <v>X"FF6D",</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -5372,15 +5372,15 @@
       </c>
       <c r="D134" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFE78</v>
+        <v>FFFFFFFF3C</v>
       </c>
       <c r="E134">
         <f t="shared" si="13"/>
-        <v>-392</v>
+        <v>-196</v>
       </c>
       <c r="H134" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FE78",</v>
+        <v>X"FF3C",</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -5397,15 +5397,15 @@
       </c>
       <c r="D135" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFE17</v>
+        <v>FFFFFFFF0C</v>
       </c>
       <c r="E135">
         <f t="shared" si="13"/>
-        <v>-489</v>
+        <v>-244</v>
       </c>
       <c r="H135" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FE17",</v>
+        <v>X"FF0C",</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -5422,15 +5422,15 @@
       </c>
       <c r="D136" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFDB6</v>
+        <v>FFFFFFFEDB</v>
       </c>
       <c r="E136">
         <f t="shared" si="13"/>
-        <v>-586</v>
+        <v>-293</v>
       </c>
       <c r="H136" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FDB6",</v>
+        <v>X"FEDB",</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -5447,15 +5447,15 @@
       </c>
       <c r="D137" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFD55</v>
+        <v>FFFFFFFEAB</v>
       </c>
       <c r="E137">
         <f t="shared" si="13"/>
-        <v>-683</v>
+        <v>-341</v>
       </c>
       <c r="H137" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FD55",</v>
+        <v>X"FEAB",</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -5472,15 +5472,15 @@
       </c>
       <c r="D138" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFCF4</v>
+        <v>FFFFFFFE7A</v>
       </c>
       <c r="E138">
         <f t="shared" si="13"/>
-        <v>-780</v>
+        <v>-390</v>
       </c>
       <c r="H138" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FCF4",</v>
+        <v>X"FE7A",</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -5497,15 +5497,15 @@
       </c>
       <c r="D139" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC94</v>
+        <v>FFFFFFFE4A</v>
       </c>
       <c r="E139">
         <f t="shared" si="13"/>
-        <v>-876</v>
+        <v>-438</v>
       </c>
       <c r="H139" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC94",</v>
+        <v>X"FE4A",</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -5522,15 +5522,15 @@
       </c>
       <c r="D140" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC35</v>
+        <v>FFFFFFFE1B</v>
       </c>
       <c r="E140">
         <f t="shared" si="13"/>
-        <v>-971</v>
+        <v>-485</v>
       </c>
       <c r="H140" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC35",</v>
+        <v>X"FE1B",</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -5547,15 +5547,15 @@
       </c>
       <c r="D141" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFBD6</v>
+        <v>FFFFFFFDEB</v>
       </c>
       <c r="E141">
         <f t="shared" si="13"/>
-        <v>-1066</v>
+        <v>-533</v>
       </c>
       <c r="H141" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FBD6",</v>
+        <v>X"FDEB",</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -5572,15 +5572,15 @@
       </c>
       <c r="D142" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFB77</v>
+        <v>FFFFFFFDBC</v>
       </c>
       <c r="E142">
         <f t="shared" si="13"/>
-        <v>-1161</v>
+        <v>-580</v>
       </c>
       <c r="H142" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FB77",</v>
+        <v>X"FDBC",</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -5597,15 +5597,15 @@
       </c>
       <c r="D143" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFB1A</v>
+        <v>FFFFFFFD8D</v>
       </c>
       <c r="E143">
         <f t="shared" si="13"/>
-        <v>-1254</v>
+        <v>-627</v>
       </c>
       <c r="H143" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FB1A",</v>
+        <v>X"FD8D",</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -5622,15 +5622,15 @@
       </c>
       <c r="D144" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFABD</v>
+        <v>FFFFFFFD5F</v>
       </c>
       <c r="E144">
         <f t="shared" si="13"/>
-        <v>-1347</v>
+        <v>-673</v>
       </c>
       <c r="H144" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FABD",</v>
+        <v>X"FD5F",</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5647,15 +5647,15 @@
       </c>
       <c r="D145" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFA61</v>
+        <v>FFFFFFFD31</v>
       </c>
       <c r="E145">
         <f t="shared" si="13"/>
-        <v>-1439</v>
+        <v>-719</v>
       </c>
       <c r="H145" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FA61",</v>
+        <v>X"FD31",</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5672,15 +5672,15 @@
       </c>
       <c r="D146" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFA06</v>
+        <v>FFFFFFFD03</v>
       </c>
       <c r="E146">
         <f t="shared" si="13"/>
-        <v>-1530</v>
+        <v>-765</v>
       </c>
       <c r="H146" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FA06",</v>
+        <v>X"FD03",</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5697,15 +5697,15 @@
       </c>
       <c r="D147" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF9AC</v>
+        <v>FFFFFFFCD6</v>
       </c>
       <c r="E147">
         <f t="shared" si="13"/>
-        <v>-1620</v>
+        <v>-810</v>
       </c>
       <c r="H147" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F9AC",</v>
+        <v>X"FCD6",</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5722,15 +5722,15 @@
       </c>
       <c r="D148" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF952</v>
+        <v>FFFFFFFCA9</v>
       </c>
       <c r="E148">
         <f t="shared" si="13"/>
-        <v>-1710</v>
+        <v>-855</v>
       </c>
       <c r="H148" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F952",</v>
+        <v>X"FCA9",</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5747,15 +5747,15 @@
       </c>
       <c r="D149" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF8FA</v>
+        <v>FFFFFFFC7D</v>
       </c>
       <c r="E149">
         <f t="shared" si="13"/>
-        <v>-1798</v>
+        <v>-899</v>
       </c>
       <c r="H149" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F8FA",</v>
+        <v>X"FC7D",</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5772,15 +5772,15 @@
       </c>
       <c r="D150" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF8A3</v>
+        <v>FFFFFFFC52</v>
       </c>
       <c r="E150">
         <f t="shared" si="13"/>
-        <v>-1885</v>
+        <v>-942</v>
       </c>
       <c r="H150" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F8A3",</v>
+        <v>X"FC52",</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5797,15 +5797,15 @@
       </c>
       <c r="D151" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF84D</v>
+        <v>FFFFFFFC27</v>
       </c>
       <c r="E151">
         <f t="shared" si="13"/>
-        <v>-1971</v>
+        <v>-985</v>
       </c>
       <c r="H151" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F84D",</v>
+        <v>X"FC27",</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5822,15 +5822,15 @@
       </c>
       <c r="D152" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF7F8</v>
+        <v>FFFFFFFBFC</v>
       </c>
       <c r="E152">
         <f t="shared" si="13"/>
-        <v>-2056</v>
+        <v>-1028</v>
       </c>
       <c r="H152" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F7F8",</v>
+        <v>X"FBFC",</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5847,15 +5847,15 @@
       </c>
       <c r="D153" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF7A5</v>
+        <v>FFFFFFFBD3</v>
       </c>
       <c r="E153">
         <f t="shared" si="13"/>
-        <v>-2139</v>
+        <v>-1069</v>
       </c>
       <c r="H153" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F7A5",</v>
+        <v>X"FBD3",</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5872,15 +5872,15 @@
       </c>
       <c r="D154" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF752</v>
+        <v>FFFFFFFBA9</v>
       </c>
       <c r="E154">
         <f t="shared" si="13"/>
-        <v>-2222</v>
+        <v>-1111</v>
       </c>
       <c r="H154" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F752",</v>
+        <v>X"FBA9",</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5897,15 +5897,15 @@
       </c>
       <c r="D155" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF701</v>
+        <v>FFFFFFFB81</v>
       </c>
       <c r="E155">
         <f t="shared" si="13"/>
-        <v>-2303</v>
+        <v>-1151</v>
       </c>
       <c r="H155" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F701",</v>
+        <v>X"FB81",</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5922,15 +5922,15 @@
       </c>
       <c r="D156" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF6B2</v>
+        <v>FFFFFFFB59</v>
       </c>
       <c r="E156">
         <f t="shared" si="13"/>
-        <v>-2382</v>
+        <v>-1191</v>
       </c>
       <c r="H156" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F6B2",</v>
+        <v>X"FB59",</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5947,15 +5947,15 @@
       </c>
       <c r="D157" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF664</v>
+        <v>FFFFFFFB32</v>
       </c>
       <c r="E157">
         <f t="shared" si="13"/>
-        <v>-2460</v>
+        <v>-1230</v>
       </c>
       <c r="H157" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F664",</v>
+        <v>X"FB32",</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5972,15 +5972,15 @@
       </c>
       <c r="D158" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF617</v>
+        <v>FFFFFFFB0C</v>
       </c>
       <c r="E158">
         <f t="shared" si="13"/>
-        <v>-2537</v>
+        <v>-1268</v>
       </c>
       <c r="H158" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F617",</v>
+        <v>X"FB0C",</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5997,15 +5997,15 @@
       </c>
       <c r="D159" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF5CC</v>
+        <v>FFFFFFFAE6</v>
       </c>
       <c r="E159">
         <f t="shared" si="13"/>
-        <v>-2612</v>
+        <v>-1306</v>
       </c>
       <c r="H159" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F5CC",</v>
+        <v>X"FAE6",</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -6022,15 +6022,15 @@
       </c>
       <c r="D160" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF582</v>
+        <v>FFFFFFFAC1</v>
       </c>
       <c r="E160">
         <f t="shared" si="13"/>
-        <v>-2686</v>
+        <v>-1343</v>
       </c>
       <c r="H160" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F582",</v>
+        <v>X"FAC1",</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -6047,15 +6047,15 @@
       </c>
       <c r="D161" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF53A</v>
+        <v>FFFFFFFA9D</v>
       </c>
       <c r="E161">
         <f t="shared" si="13"/>
-        <v>-2758</v>
+        <v>-1379</v>
       </c>
       <c r="H161" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F53A",</v>
+        <v>X"FA9D",</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -6072,15 +6072,15 @@
       </c>
       <c r="D162" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF4F4</v>
+        <v>FFFFFFFA7A</v>
       </c>
       <c r="E162">
         <f t="shared" si="13"/>
-        <v>-2828</v>
+        <v>-1414</v>
       </c>
       <c r="H162" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F4F4",</v>
+        <v>X"FA7A",</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -6097,15 +6097,15 @@
       </c>
       <c r="D163" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF4B0</v>
+        <v>FFFFFFFA58</v>
       </c>
       <c r="E163">
         <f t="shared" si="13"/>
-        <v>-2896</v>
+        <v>-1448</v>
       </c>
       <c r="H163" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F4B0",</v>
+        <v>X"FA58",</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -6122,15 +6122,15 @@
       </c>
       <c r="D164" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF46D</v>
+        <v>FFFFFFFA37</v>
       </c>
       <c r="E164">
         <f t="shared" si="13"/>
-        <v>-2963</v>
+        <v>-1481</v>
       </c>
       <c r="H164" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F46D",</v>
+        <v>X"FA37",</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -6147,15 +6147,15 @@
       </c>
       <c r="D165" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF42C</v>
+        <v>FFFFFFFA16</v>
       </c>
       <c r="E165">
         <f t="shared" si="13"/>
-        <v>-3028</v>
+        <v>-1514</v>
       </c>
       <c r="H165" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F42C",</v>
+        <v>X"FA16",</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -6172,15 +6172,15 @@
       </c>
       <c r="D166" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF3EC</v>
+        <v>FFFFFFF9F6</v>
       </c>
       <c r="E166">
         <f t="shared" si="13"/>
-        <v>-3092</v>
+        <v>-1546</v>
       </c>
       <c r="H166" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F3EC",</v>
+        <v>X"F9F6",</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -6197,15 +6197,15 @@
       </c>
       <c r="D167" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF3AF</v>
+        <v>FFFFFFF9D8</v>
       </c>
       <c r="E167">
         <f t="shared" si="13"/>
-        <v>-3153</v>
+        <v>-1576</v>
       </c>
       <c r="H167" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F3AF",</v>
+        <v>X"F9D8",</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -6222,15 +6222,15 @@
       </c>
       <c r="D168" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF374</v>
+        <v>FFFFFFF9BA</v>
       </c>
       <c r="E168">
         <f t="shared" si="13"/>
-        <v>-3212</v>
+        <v>-1606</v>
       </c>
       <c r="H168" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F374",</v>
+        <v>X"F9BA",</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="D169" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF33A</v>
+        <v>FFFFFFF99D</v>
       </c>
       <c r="E169">
         <f t="shared" si="13"/>
-        <v>-3270</v>
+        <v>-1635</v>
       </c>
       <c r="H169" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F33A",</v>
+        <v>X"F99D",</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -6272,15 +6272,15 @@
       </c>
       <c r="D170" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF303</v>
+        <v>FFFFFFF982</v>
       </c>
       <c r="E170">
         <f t="shared" si="13"/>
-        <v>-3325</v>
+        <v>-1662</v>
       </c>
       <c r="H170" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F303",</v>
+        <v>X"F982",</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -6297,15 +6297,15 @@
       </c>
       <c r="D171" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF2CD</v>
+        <v>FFFFFFF967</v>
       </c>
       <c r="E171">
         <f t="shared" si="13"/>
-        <v>-3379</v>
+        <v>-1689</v>
       </c>
       <c r="H171" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F2CD",</v>
+        <v>X"F967",</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -6322,15 +6322,15 @@
       </c>
       <c r="D172" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF29A</v>
+        <v>FFFFFFF94D</v>
       </c>
       <c r="E172">
         <f t="shared" si="13"/>
-        <v>-3430</v>
+        <v>-1715</v>
       </c>
       <c r="H172" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F29A",</v>
+        <v>X"F94D",</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -6347,15 +6347,15 @@
       </c>
       <c r="D173" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF268</v>
+        <v>FFFFFFF934</v>
       </c>
       <c r="E173">
         <f t="shared" si="13"/>
-        <v>-3480</v>
+        <v>-1740</v>
       </c>
       <c r="H173" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F268",</v>
+        <v>X"F934",</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -6372,15 +6372,15 @@
       </c>
       <c r="D174" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF239</v>
+        <v>FFFFFFF91D</v>
       </c>
       <c r="E174">
         <f t="shared" si="13"/>
-        <v>-3527</v>
+        <v>-1763</v>
       </c>
       <c r="H174" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F239",</v>
+        <v>X"F91D",</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -6397,15 +6397,15 @@
       </c>
       <c r="D175" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF20C</v>
+        <v>FFFFFFF906</v>
       </c>
       <c r="E175">
         <f t="shared" si="13"/>
-        <v>-3572</v>
+        <v>-1786</v>
       </c>
       <c r="H175" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F20C",</v>
+        <v>X"F906",</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -6422,15 +6422,15 @@
       </c>
       <c r="D176" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF1E1</v>
+        <v>FFFFFFF8F1</v>
       </c>
       <c r="E176">
         <f t="shared" si="13"/>
-        <v>-3615</v>
+        <v>-1807</v>
       </c>
       <c r="H176" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F1E1",</v>
+        <v>X"F8F1",</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -6447,15 +6447,15 @@
       </c>
       <c r="D177" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF1B8</v>
+        <v>FFFFFFF8DC</v>
       </c>
       <c r="E177">
         <f t="shared" si="13"/>
-        <v>-3656</v>
+        <v>-1828</v>
       </c>
       <c r="H177" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F1B8",</v>
+        <v>X"F8DC",</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -6472,15 +6472,15 @@
       </c>
       <c r="D178" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF191</v>
+        <v>FFFFFFF8C9</v>
       </c>
       <c r="E178">
         <f t="shared" si="13"/>
-        <v>-3695</v>
+        <v>-1847</v>
       </c>
       <c r="H178" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F191",</v>
+        <v>X"F8C9",</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -6497,15 +6497,15 @@
       </c>
       <c r="D179" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF16D</v>
+        <v>FFFFFFF8B7</v>
       </c>
       <c r="E179">
         <f t="shared" si="13"/>
-        <v>-3731</v>
+        <v>-1865</v>
       </c>
       <c r="H179" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F16D",</v>
+        <v>X"F8B7",</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -6522,15 +6522,15 @@
       </c>
       <c r="D180" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF14A</v>
+        <v>FFFFFFF8A5</v>
       </c>
       <c r="E180">
         <f t="shared" si="13"/>
-        <v>-3766</v>
+        <v>-1883</v>
       </c>
       <c r="H180" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F14A",</v>
+        <v>X"F8A5",</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -6547,15 +6547,15 @@
       </c>
       <c r="D181" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF12A</v>
+        <v>FFFFFFF895</v>
       </c>
       <c r="E181">
         <f t="shared" si="13"/>
-        <v>-3798</v>
+        <v>-1899</v>
       </c>
       <c r="H181" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F12A",</v>
+        <v>X"F895",</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -6572,15 +6572,15 @@
       </c>
       <c r="D182" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF10D</v>
+        <v>FFFFFFF887</v>
       </c>
       <c r="E182">
         <f t="shared" si="13"/>
-        <v>-3827</v>
+        <v>-1913</v>
       </c>
       <c r="H182" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F10D",</v>
+        <v>X"F887",</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -6597,15 +6597,15 @@
       </c>
       <c r="D183" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF0F1</v>
+        <v>FFFFFFF879</v>
       </c>
       <c r="E183">
         <f t="shared" si="13"/>
-        <v>-3855</v>
+        <v>-1927</v>
       </c>
       <c r="H183" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F0F1",</v>
+        <v>X"F879",</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -6622,15 +6622,15 @@
       </c>
       <c r="D184" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF0D8</v>
+        <v>FFFFFFF86C</v>
       </c>
       <c r="E184">
         <f t="shared" si="13"/>
-        <v>-3880</v>
+        <v>-1940</v>
       </c>
       <c r="H184" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F0D8",</v>
+        <v>X"F86C",</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -6647,15 +6647,15 @@
       </c>
       <c r="D185" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF0C2</v>
+        <v>FFFFFFF861</v>
       </c>
       <c r="E185">
         <f t="shared" si="13"/>
-        <v>-3902</v>
+        <v>-1951</v>
       </c>
       <c r="H185" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F0C2",</v>
+        <v>X"F861",</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -6672,15 +6672,15 @@
       </c>
       <c r="D186" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF0AD</v>
+        <v>FFFFFFF857</v>
       </c>
       <c r="E186">
         <f t="shared" si="13"/>
-        <v>-3923</v>
+        <v>-1961</v>
       </c>
       <c r="H186" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F0AD",</v>
+        <v>X"F857",</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -6697,15 +6697,15 @@
       </c>
       <c r="D187" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF09B</v>
+        <v>FFFFFFF84E</v>
       </c>
       <c r="E187">
         <f t="shared" si="13"/>
-        <v>-3941</v>
+        <v>-1970</v>
       </c>
       <c r="H187" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F09B",</v>
+        <v>X"F84E",</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -6722,15 +6722,15 @@
       </c>
       <c r="D188" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF08C</v>
+        <v>FFFFFFF846</v>
       </c>
       <c r="E188">
         <f t="shared" si="13"/>
-        <v>-3956</v>
+        <v>-1978</v>
       </c>
       <c r="H188" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F08C",</v>
+        <v>X"F846",</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -6747,15 +6747,15 @@
       </c>
       <c r="D189" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF07F</v>
+        <v>FFFFFFF840</v>
       </c>
       <c r="E189">
         <f t="shared" si="13"/>
-        <v>-3969</v>
+        <v>-1984</v>
       </c>
       <c r="H189" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F07F",</v>
+        <v>X"F840",</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -6772,15 +6772,15 @@
       </c>
       <c r="D190" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF074</v>
+        <v>FFFFFFF83A</v>
       </c>
       <c r="E190">
         <f t="shared" si="13"/>
-        <v>-3980</v>
+        <v>-1990</v>
       </c>
       <c r="H190" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F074",</v>
+        <v>X"F83A",</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -6797,15 +6797,15 @@
       </c>
       <c r="D191" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF06B</v>
+        <v>FFFFFFF836</v>
       </c>
       <c r="E191">
         <f t="shared" si="13"/>
-        <v>-3989</v>
+        <v>-1994</v>
       </c>
       <c r="H191" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F06B",</v>
+        <v>X"F836",</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -6822,15 +6822,15 @@
       </c>
       <c r="D192" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF065</v>
+        <v>FFFFFFF833</v>
       </c>
       <c r="E192">
         <f t="shared" si="13"/>
-        <v>-3995</v>
+        <v>-1997</v>
       </c>
       <c r="H192" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F065",</v>
+        <v>X"F833",</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -6847,15 +6847,15 @@
       </c>
       <c r="D193" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF062</v>
+        <v>FFFFFFF831</v>
       </c>
       <c r="E193">
         <f t="shared" si="13"/>
-        <v>-3998</v>
+        <v>-1999</v>
       </c>
       <c r="H193" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F062",</v>
+        <v>X"F831",</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -6872,15 +6872,15 @@
       </c>
       <c r="D194" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF060</v>
+        <v>FFFFFFF830</v>
       </c>
       <c r="E194">
         <f t="shared" si="13"/>
-        <v>-4000</v>
+        <v>-2000</v>
       </c>
       <c r="H194" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F060",</v>
+        <v>X"F830",</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -6896,16 +6896,16 @@
         <v>-0.99969881869620425</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" ref="D195:D257" si="17">DEC2HEX(C195*4000,4)</f>
-        <v>FFFFFFF062</v>
+        <f t="shared" ref="D195:D257" si="17">DEC2HEX(C195*2000,4)</f>
+        <v>FFFFFFF831</v>
       </c>
       <c r="E195">
         <f t="shared" ref="E195:E257" si="18">HEX2DEC(D195)</f>
-        <v>-3998</v>
+        <v>-1999</v>
       </c>
       <c r="H195" s="1" t="str">
         <f t="shared" ref="H195:H257" si="19">CONCATENATE("X""",RIGHT(D195,4),""",")</f>
-        <v>X"F062",</v>
+        <v>X"F831",</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -6922,15 +6922,15 @@
       </c>
       <c r="D196" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF065</v>
+        <v>FFFFFFF833</v>
       </c>
       <c r="E196">
         <f t="shared" si="18"/>
-        <v>-3995</v>
+        <v>-1997</v>
       </c>
       <c r="H196" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F065",</v>
+        <v>X"F833",</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -6947,15 +6947,15 @@
       </c>
       <c r="D197" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF06B</v>
+        <v>FFFFFFF836</v>
       </c>
       <c r="E197">
         <f t="shared" si="18"/>
-        <v>-3989</v>
+        <v>-1994</v>
       </c>
       <c r="H197" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F06B",</v>
+        <v>X"F836",</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -6972,15 +6972,15 @@
       </c>
       <c r="D198" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF074</v>
+        <v>FFFFFFF83A</v>
       </c>
       <c r="E198">
         <f t="shared" si="18"/>
-        <v>-3980</v>
+        <v>-1990</v>
       </c>
       <c r="H198" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F074",</v>
+        <v>X"F83A",</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -6997,15 +6997,15 @@
       </c>
       <c r="D199" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF07F</v>
+        <v>FFFFFFF840</v>
       </c>
       <c r="E199">
         <f t="shared" si="18"/>
-        <v>-3969</v>
+        <v>-1984</v>
       </c>
       <c r="H199" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F07F",</v>
+        <v>X"F840",</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -7022,15 +7022,15 @@
       </c>
       <c r="D200" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF08C</v>
+        <v>FFFFFFF846</v>
       </c>
       <c r="E200">
         <f t="shared" si="18"/>
-        <v>-3956</v>
+        <v>-1978</v>
       </c>
       <c r="H200" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F08C",</v>
+        <v>X"F846",</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -7047,15 +7047,15 @@
       </c>
       <c r="D201" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF09B</v>
+        <v>FFFFFFF84E</v>
       </c>
       <c r="E201">
         <f t="shared" si="18"/>
-        <v>-3941</v>
+        <v>-1970</v>
       </c>
       <c r="H201" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F09B",</v>
+        <v>X"F84E",</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -7072,15 +7072,15 @@
       </c>
       <c r="D202" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF0AD</v>
+        <v>FFFFFFF857</v>
       </c>
       <c r="E202">
         <f t="shared" si="18"/>
-        <v>-3923</v>
+        <v>-1961</v>
       </c>
       <c r="H202" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F0AD",</v>
+        <v>X"F857",</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -7097,15 +7097,15 @@
       </c>
       <c r="D203" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF0C2</v>
+        <v>FFFFFFF861</v>
       </c>
       <c r="E203">
         <f t="shared" si="18"/>
-        <v>-3902</v>
+        <v>-1951</v>
       </c>
       <c r="H203" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F0C2",</v>
+        <v>X"F861",</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -7122,15 +7122,15 @@
       </c>
       <c r="D204" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF0D8</v>
+        <v>FFFFFFF86C</v>
       </c>
       <c r="E204">
         <f t="shared" si="18"/>
-        <v>-3880</v>
+        <v>-1940</v>
       </c>
       <c r="H204" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F0D8",</v>
+        <v>X"F86C",</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -7147,15 +7147,15 @@
       </c>
       <c r="D205" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF0F1</v>
+        <v>FFFFFFF879</v>
       </c>
       <c r="E205">
         <f t="shared" si="18"/>
-        <v>-3855</v>
+        <v>-1927</v>
       </c>
       <c r="H205" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F0F1",</v>
+        <v>X"F879",</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -7172,15 +7172,15 @@
       </c>
       <c r="D206" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF10D</v>
+        <v>FFFFFFF887</v>
       </c>
       <c r="E206">
         <f t="shared" si="18"/>
-        <v>-3827</v>
+        <v>-1913</v>
       </c>
       <c r="H206" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F10D",</v>
+        <v>X"F887",</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -7197,15 +7197,15 @@
       </c>
       <c r="D207" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF12A</v>
+        <v>FFFFFFF895</v>
       </c>
       <c r="E207">
         <f t="shared" si="18"/>
-        <v>-3798</v>
+        <v>-1899</v>
       </c>
       <c r="H207" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F12A",</v>
+        <v>X"F895",</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -7222,15 +7222,15 @@
       </c>
       <c r="D208" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF14A</v>
+        <v>FFFFFFF8A5</v>
       </c>
       <c r="E208">
         <f t="shared" si="18"/>
-        <v>-3766</v>
+        <v>-1883</v>
       </c>
       <c r="H208" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F14A",</v>
+        <v>X"F8A5",</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -7247,15 +7247,15 @@
       </c>
       <c r="D209" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF16D</v>
+        <v>FFFFFFF8B7</v>
       </c>
       <c r="E209">
         <f t="shared" si="18"/>
-        <v>-3731</v>
+        <v>-1865</v>
       </c>
       <c r="H209" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F16D",</v>
+        <v>X"F8B7",</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -7272,15 +7272,15 @@
       </c>
       <c r="D210" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF191</v>
+        <v>FFFFFFF8C9</v>
       </c>
       <c r="E210">
         <f t="shared" si="18"/>
-        <v>-3695</v>
+        <v>-1847</v>
       </c>
       <c r="H210" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F191",</v>
+        <v>X"F8C9",</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -7297,15 +7297,15 @@
       </c>
       <c r="D211" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF1B8</v>
+        <v>FFFFFFF8DC</v>
       </c>
       <c r="E211">
         <f t="shared" si="18"/>
-        <v>-3656</v>
+        <v>-1828</v>
       </c>
       <c r="H211" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F1B8",</v>
+        <v>X"F8DC",</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -7322,15 +7322,15 @@
       </c>
       <c r="D212" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF1E1</v>
+        <v>FFFFFFF8F1</v>
       </c>
       <c r="E212">
         <f t="shared" si="18"/>
-        <v>-3615</v>
+        <v>-1807</v>
       </c>
       <c r="H212" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F1E1",</v>
+        <v>X"F8F1",</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -7347,15 +7347,15 @@
       </c>
       <c r="D213" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF20C</v>
+        <v>FFFFFFF906</v>
       </c>
       <c r="E213">
         <f t="shared" si="18"/>
-        <v>-3572</v>
+        <v>-1786</v>
       </c>
       <c r="H213" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F20C",</v>
+        <v>X"F906",</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -7372,15 +7372,15 @@
       </c>
       <c r="D214" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF239</v>
+        <v>FFFFFFF91D</v>
       </c>
       <c r="E214">
         <f t="shared" si="18"/>
-        <v>-3527</v>
+        <v>-1763</v>
       </c>
       <c r="H214" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F239",</v>
+        <v>X"F91D",</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -7397,15 +7397,15 @@
       </c>
       <c r="D215" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF268</v>
+        <v>FFFFFFF934</v>
       </c>
       <c r="E215">
         <f t="shared" si="18"/>
-        <v>-3480</v>
+        <v>-1740</v>
       </c>
       <c r="H215" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F268",</v>
+        <v>X"F934",</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -7422,15 +7422,15 @@
       </c>
       <c r="D216" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF29A</v>
+        <v>FFFFFFF94D</v>
       </c>
       <c r="E216">
         <f t="shared" si="18"/>
-        <v>-3430</v>
+        <v>-1715</v>
       </c>
       <c r="H216" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F29A",</v>
+        <v>X"F94D",</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -7447,15 +7447,15 @@
       </c>
       <c r="D217" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF2CD</v>
+        <v>FFFFFFF967</v>
       </c>
       <c r="E217">
         <f t="shared" si="18"/>
-        <v>-3379</v>
+        <v>-1689</v>
       </c>
       <c r="H217" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F2CD",</v>
+        <v>X"F967",</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -7472,15 +7472,15 @@
       </c>
       <c r="D218" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF303</v>
+        <v>FFFFFFF982</v>
       </c>
       <c r="E218">
         <f t="shared" si="18"/>
-        <v>-3325</v>
+        <v>-1662</v>
       </c>
       <c r="H218" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F303",</v>
+        <v>X"F982",</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -7497,15 +7497,15 @@
       </c>
       <c r="D219" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF33A</v>
+        <v>FFFFFFF99D</v>
       </c>
       <c r="E219">
         <f t="shared" si="18"/>
-        <v>-3270</v>
+        <v>-1635</v>
       </c>
       <c r="H219" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F33A",</v>
+        <v>X"F99D",</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -7522,15 +7522,15 @@
       </c>
       <c r="D220" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF374</v>
+        <v>FFFFFFF9BA</v>
       </c>
       <c r="E220">
         <f t="shared" si="18"/>
-        <v>-3212</v>
+        <v>-1606</v>
       </c>
       <c r="H220" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F374",</v>
+        <v>X"F9BA",</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -7547,15 +7547,15 @@
       </c>
       <c r="D221" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF3AF</v>
+        <v>FFFFFFF9D8</v>
       </c>
       <c r="E221">
         <f t="shared" si="18"/>
-        <v>-3153</v>
+        <v>-1576</v>
       </c>
       <c r="H221" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F3AF",</v>
+        <v>X"F9D8",</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -7572,15 +7572,15 @@
       </c>
       <c r="D222" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF3EC</v>
+        <v>FFFFFFF9F6</v>
       </c>
       <c r="E222">
         <f t="shared" si="18"/>
-        <v>-3092</v>
+        <v>-1546</v>
       </c>
       <c r="H222" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F3EC",</v>
+        <v>X"F9F6",</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -7597,15 +7597,15 @@
       </c>
       <c r="D223" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF42C</v>
+        <v>FFFFFFFA16</v>
       </c>
       <c r="E223">
         <f t="shared" si="18"/>
-        <v>-3028</v>
+        <v>-1514</v>
       </c>
       <c r="H223" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F42C",</v>
+        <v>X"FA16",</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -7622,15 +7622,15 @@
       </c>
       <c r="D224" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF46D</v>
+        <v>FFFFFFFA37</v>
       </c>
       <c r="E224">
         <f t="shared" si="18"/>
-        <v>-2963</v>
+        <v>-1481</v>
       </c>
       <c r="H224" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F46D",</v>
+        <v>X"FA37",</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -7647,15 +7647,15 @@
       </c>
       <c r="D225" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF4B0</v>
+        <v>FFFFFFFA58</v>
       </c>
       <c r="E225">
         <f t="shared" si="18"/>
-        <v>-2896</v>
+        <v>-1448</v>
       </c>
       <c r="H225" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F4B0",</v>
+        <v>X"FA58",</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -7672,15 +7672,15 @@
       </c>
       <c r="D226" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF4F4</v>
+        <v>FFFFFFFA7A</v>
       </c>
       <c r="E226">
         <f t="shared" si="18"/>
-        <v>-2828</v>
+        <v>-1414</v>
       </c>
       <c r="H226" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F4F4",</v>
+        <v>X"FA7A",</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -7697,15 +7697,15 @@
       </c>
       <c r="D227" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF53A</v>
+        <v>FFFFFFFA9D</v>
       </c>
       <c r="E227">
         <f t="shared" si="18"/>
-        <v>-2758</v>
+        <v>-1379</v>
       </c>
       <c r="H227" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F53A",</v>
+        <v>X"FA9D",</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -7722,15 +7722,15 @@
       </c>
       <c r="D228" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF582</v>
+        <v>FFFFFFFAC1</v>
       </c>
       <c r="E228">
         <f t="shared" si="18"/>
-        <v>-2686</v>
+        <v>-1343</v>
       </c>
       <c r="H228" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F582",</v>
+        <v>X"FAC1",</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -7747,15 +7747,15 @@
       </c>
       <c r="D229" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF5CC</v>
+        <v>FFFFFFFAE6</v>
       </c>
       <c r="E229">
         <f t="shared" si="18"/>
-        <v>-2612</v>
+        <v>-1306</v>
       </c>
       <c r="H229" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F5CC",</v>
+        <v>X"FAE6",</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -7772,15 +7772,15 @@
       </c>
       <c r="D230" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF617</v>
+        <v>FFFFFFFB0C</v>
       </c>
       <c r="E230">
         <f t="shared" si="18"/>
-        <v>-2537</v>
+        <v>-1268</v>
       </c>
       <c r="H230" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F617",</v>
+        <v>X"FB0C",</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -7797,15 +7797,15 @@
       </c>
       <c r="D231" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF664</v>
+        <v>FFFFFFFB32</v>
       </c>
       <c r="E231">
         <f t="shared" si="18"/>
-        <v>-2460</v>
+        <v>-1230</v>
       </c>
       <c r="H231" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F664",</v>
+        <v>X"FB32",</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -7822,15 +7822,15 @@
       </c>
       <c r="D232" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF6B2</v>
+        <v>FFFFFFFB59</v>
       </c>
       <c r="E232">
         <f t="shared" si="18"/>
-        <v>-2382</v>
+        <v>-1191</v>
       </c>
       <c r="H232" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F6B2",</v>
+        <v>X"FB59",</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -7847,15 +7847,15 @@
       </c>
       <c r="D233" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF701</v>
+        <v>FFFFFFFB81</v>
       </c>
       <c r="E233">
         <f t="shared" si="18"/>
-        <v>-2303</v>
+        <v>-1151</v>
       </c>
       <c r="H233" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F701",</v>
+        <v>X"FB81",</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -7872,15 +7872,15 @@
       </c>
       <c r="D234" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF752</v>
+        <v>FFFFFFFBA9</v>
       </c>
       <c r="E234">
         <f t="shared" si="18"/>
-        <v>-2222</v>
+        <v>-1111</v>
       </c>
       <c r="H234" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F752",</v>
+        <v>X"FBA9",</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -7897,15 +7897,15 @@
       </c>
       <c r="D235" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF7A5</v>
+        <v>FFFFFFFBD3</v>
       </c>
       <c r="E235">
         <f t="shared" si="18"/>
-        <v>-2139</v>
+        <v>-1069</v>
       </c>
       <c r="H235" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F7A5",</v>
+        <v>X"FBD3",</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -7922,15 +7922,15 @@
       </c>
       <c r="D236" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF7F8</v>
+        <v>FFFFFFFBFC</v>
       </c>
       <c r="E236">
         <f t="shared" si="18"/>
-        <v>-2056</v>
+        <v>-1028</v>
       </c>
       <c r="H236" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F7F8",</v>
+        <v>X"FBFC",</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -7947,15 +7947,15 @@
       </c>
       <c r="D237" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF84D</v>
+        <v>FFFFFFFC27</v>
       </c>
       <c r="E237">
         <f t="shared" si="18"/>
-        <v>-1971</v>
+        <v>-985</v>
       </c>
       <c r="H237" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F84D",</v>
+        <v>X"FC27",</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -7972,15 +7972,15 @@
       </c>
       <c r="D238" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF8A3</v>
+        <v>FFFFFFFC52</v>
       </c>
       <c r="E238">
         <f t="shared" si="18"/>
-        <v>-1885</v>
+        <v>-942</v>
       </c>
       <c r="H238" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F8A3",</v>
+        <v>X"FC52",</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -7997,15 +7997,15 @@
       </c>
       <c r="D239" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF8FA</v>
+        <v>FFFFFFFC7D</v>
       </c>
       <c r="E239">
         <f t="shared" si="18"/>
-        <v>-1798</v>
+        <v>-899</v>
       </c>
       <c r="H239" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F8FA",</v>
+        <v>X"FC7D",</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -8022,15 +8022,15 @@
       </c>
       <c r="D240" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF952</v>
+        <v>FFFFFFFCA9</v>
       </c>
       <c r="E240">
         <f t="shared" si="18"/>
-        <v>-1710</v>
+        <v>-855</v>
       </c>
       <c r="H240" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F952",</v>
+        <v>X"FCA9",</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -8047,15 +8047,15 @@
       </c>
       <c r="D241" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF9AC</v>
+        <v>FFFFFFFCD6</v>
       </c>
       <c r="E241">
         <f t="shared" si="18"/>
-        <v>-1620</v>
+        <v>-810</v>
       </c>
       <c r="H241" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F9AC",</v>
+        <v>X"FCD6",</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -8072,15 +8072,15 @@
       </c>
       <c r="D242" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFA06</v>
+        <v>FFFFFFFD03</v>
       </c>
       <c r="E242">
         <f t="shared" si="18"/>
-        <v>-1530</v>
+        <v>-765</v>
       </c>
       <c r="H242" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FA06",</v>
+        <v>X"FD03",</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -8097,15 +8097,15 @@
       </c>
       <c r="D243" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFA61</v>
+        <v>FFFFFFFD31</v>
       </c>
       <c r="E243">
         <f t="shared" si="18"/>
-        <v>-1439</v>
+        <v>-719</v>
       </c>
       <c r="H243" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FA61",</v>
+        <v>X"FD31",</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -8122,15 +8122,15 @@
       </c>
       <c r="D244" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFABD</v>
+        <v>FFFFFFFD5F</v>
       </c>
       <c r="E244">
         <f t="shared" si="18"/>
-        <v>-1347</v>
+        <v>-673</v>
       </c>
       <c r="H244" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FABD",</v>
+        <v>X"FD5F",</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -8147,15 +8147,15 @@
       </c>
       <c r="D245" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFB1A</v>
+        <v>FFFFFFFD8D</v>
       </c>
       <c r="E245">
         <f t="shared" si="18"/>
-        <v>-1254</v>
+        <v>-627</v>
       </c>
       <c r="H245" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FB1A",</v>
+        <v>X"FD8D",</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -8172,15 +8172,15 @@
       </c>
       <c r="D246" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFB77</v>
+        <v>FFFFFFFDBC</v>
       </c>
       <c r="E246">
         <f t="shared" si="18"/>
-        <v>-1161</v>
+        <v>-580</v>
       </c>
       <c r="H246" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FB77",</v>
+        <v>X"FDBC",</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -8197,15 +8197,15 @@
       </c>
       <c r="D247" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFBD6</v>
+        <v>FFFFFFFDEB</v>
       </c>
       <c r="E247">
         <f t="shared" si="18"/>
-        <v>-1066</v>
+        <v>-533</v>
       </c>
       <c r="H247" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FBD6",</v>
+        <v>X"FDEB",</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -8222,15 +8222,15 @@
       </c>
       <c r="D248" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC35</v>
+        <v>FFFFFFFE1B</v>
       </c>
       <c r="E248">
         <f t="shared" si="18"/>
-        <v>-971</v>
+        <v>-485</v>
       </c>
       <c r="H248" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC35",</v>
+        <v>X"FE1B",</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -8247,15 +8247,15 @@
       </c>
       <c r="D249" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC94</v>
+        <v>FFFFFFFE4A</v>
       </c>
       <c r="E249">
         <f t="shared" si="18"/>
-        <v>-876</v>
+        <v>-438</v>
       </c>
       <c r="H249" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC94",</v>
+        <v>X"FE4A",</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -8272,15 +8272,15 @@
       </c>
       <c r="D250" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFCF4</v>
+        <v>FFFFFFFE7A</v>
       </c>
       <c r="E250">
         <f t="shared" si="18"/>
-        <v>-780</v>
+        <v>-390</v>
       </c>
       <c r="H250" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FCF4",</v>
+        <v>X"FE7A",</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -8297,15 +8297,15 @@
       </c>
       <c r="D251" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFD55</v>
+        <v>FFFFFFFEAB</v>
       </c>
       <c r="E251">
         <f t="shared" si="18"/>
-        <v>-683</v>
+        <v>-341</v>
       </c>
       <c r="H251" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FD55",</v>
+        <v>X"FEAB",</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -8322,15 +8322,15 @@
       </c>
       <c r="D252" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFDB6</v>
+        <v>FFFFFFFEDB</v>
       </c>
       <c r="E252">
         <f t="shared" si="18"/>
-        <v>-586</v>
+        <v>-293</v>
       </c>
       <c r="H252" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FDB6",</v>
+        <v>X"FEDB",</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -8347,15 +8347,15 @@
       </c>
       <c r="D253" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFE17</v>
+        <v>FFFFFFFF0C</v>
       </c>
       <c r="E253">
         <f t="shared" si="18"/>
-        <v>-489</v>
+        <v>-244</v>
       </c>
       <c r="H253" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FE17",</v>
+        <v>X"FF0C",</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -8372,15 +8372,15 @@
       </c>
       <c r="D254" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFE78</v>
+        <v>FFFFFFFF3C</v>
       </c>
       <c r="E254">
         <f t="shared" si="18"/>
-        <v>-392</v>
+        <v>-196</v>
       </c>
       <c r="H254" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FE78",</v>
+        <v>X"FF3C",</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -8397,15 +8397,15 @@
       </c>
       <c r="D255" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFEDA</v>
+        <v>FFFFFFFF6D</v>
       </c>
       <c r="E255">
         <f t="shared" si="18"/>
-        <v>-294</v>
+        <v>-147</v>
       </c>
       <c r="H255" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FEDA",</v>
+        <v>X"FF6D",</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -8422,15 +8422,15 @@
       </c>
       <c r="D256" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFF3C</v>
+        <v>FFFFFFFF9E</v>
       </c>
       <c r="E256">
         <f t="shared" si="18"/>
-        <v>-196</v>
+        <v>-98</v>
       </c>
       <c r="H256" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FF3C",</v>
+        <v>X"FF9E",</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -8447,15 +8447,15 @@
       </c>
       <c r="D257" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFF9E</v>
+        <v>FFFFFFFFCF</v>
       </c>
       <c r="E257">
         <f t="shared" si="18"/>
-        <v>-98</v>
+        <v>-49</v>
       </c>
       <c r="H257" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FF9E",</v>
+        <v>X"FFCF",</v>
       </c>
     </row>
   </sheetData>
@@ -8464,22 +8464,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" rightToLeft="1" xr2:uid="{00000000-0003-0000-0000-000001000000}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>גיליון1!E2:E257</xm:f>
-              <xm:sqref>Q16</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" rightToLeft="1" xr2:uid="{00000000-0003-0000-0000-000000000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -8516,6 +8500,22 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" rightToLeft="1" xr2:uid="{00000000-0003-0000-0000-000001000000}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>גיליון1!E2:E257</xm:f>
+              <xm:sqref>Q16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>

--- a/project/sounds/קובץ אקסל ליצירת טבלת סינוס.xlsx
+++ b/project/sounds/קובץ אקסל ליצירת טבלת סינוס.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CC5DC2-14C9-42D3-8348-5B3BFE8D6F1E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A065DC5D-CEA5-4991-AF94-44C176084A8B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="2" r:id="rId1"/>
@@ -169,769 +169,769 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>98</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>196</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>244</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>293</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>341</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>390</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>438</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>485</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>533</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>580</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>627</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>673</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>719</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>765</c:v>
+                  <c:v>382</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>810</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>855</c:v>
+                  <c:v>427</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>899</c:v>
+                  <c:v>449</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>942</c:v>
+                  <c:v>471</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>492</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>671</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>689</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>707</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>724</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>773</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>803</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>831</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>857</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>893</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>903</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>914</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>923</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>941</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>949</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>956</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>963</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>985</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>1028</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1069</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1111</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1151</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1191</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1230</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1268</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1306</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1343</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1379</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1414</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1448</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1481</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1514</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1546</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1576</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1606</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1635</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1662</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1689</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1715</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1740</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1763</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1786</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1807</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1828</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1847</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1865</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1883</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1899</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1913</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1927</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1940</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1951</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1961</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1970</c:v>
-                </c:pt>
                 <c:pt idx="58">
-                  <c:v>1978</c:v>
+                  <c:v>989</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1984</c:v>
+                  <c:v>992</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1990</c:v>
+                  <c:v>995</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1994</c:v>
+                  <c:v>997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1997</c:v>
+                  <c:v>998</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1999</c:v>
+                  <c:v>999</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1999</c:v>
+                  <c:v>999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1997</c:v>
+                  <c:v>998</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1994</c:v>
+                  <c:v>997</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1990</c:v>
+                  <c:v>995</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1984</c:v>
+                  <c:v>992</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1978</c:v>
+                  <c:v>989</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1970</c:v>
+                  <c:v>985</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1961</c:v>
+                  <c:v>980</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1951</c:v>
+                  <c:v>975</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1940</c:v>
+                  <c:v>970</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1927</c:v>
+                  <c:v>963</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1913</c:v>
+                  <c:v>956</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1899</c:v>
+                  <c:v>949</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1883</c:v>
+                  <c:v>941</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1865</c:v>
+                  <c:v>932</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1847</c:v>
+                  <c:v>923</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1828</c:v>
+                  <c:v>914</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1807</c:v>
+                  <c:v>903</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1786</c:v>
+                  <c:v>893</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1763</c:v>
+                  <c:v>881</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1740</c:v>
+                  <c:v>870</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1715</c:v>
+                  <c:v>857</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1689</c:v>
+                  <c:v>844</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1662</c:v>
+                  <c:v>831</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1635</c:v>
+                  <c:v>817</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1606</c:v>
+                  <c:v>803</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1576</c:v>
+                  <c:v>788</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1546</c:v>
+                  <c:v>773</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1514</c:v>
+                  <c:v>757</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1481</c:v>
+                  <c:v>740</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1448</c:v>
+                  <c:v>724</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1414</c:v>
+                  <c:v>707</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1379</c:v>
+                  <c:v>689</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1343</c:v>
+                  <c:v>671</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1306</c:v>
+                  <c:v>653</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1268</c:v>
+                  <c:v>634</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1230</c:v>
+                  <c:v>615</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1191</c:v>
+                  <c:v>595</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1151</c:v>
+                  <c:v>575</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1111</c:v>
+                  <c:v>555</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1069</c:v>
+                  <c:v>534</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1028</c:v>
+                  <c:v>514</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>985</c:v>
+                  <c:v>492</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>942</c:v>
+                  <c:v>471</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>899</c:v>
+                  <c:v>449</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>855</c:v>
+                  <c:v>427</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>810</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>765</c:v>
+                  <c:v>382</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>719</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>673</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>627</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>580</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>533</c:v>
+                  <c:v>266</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>485</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>438</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>390</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>341</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>293</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>244</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>196</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>147</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>98</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>49</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="129">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="130">
                   <c:v>-49</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="131">
+                  <c:v>-73</c:v>
+                </c:pt>
+                <c:pt idx="132">
                   <c:v>-98</c:v>
                 </c:pt>
-                <c:pt idx="131">
-                  <c:v>-147</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-196</c:v>
-                </c:pt>
                 <c:pt idx="133">
-                  <c:v>-244</c:v>
+                  <c:v>-122</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-293</c:v>
+                  <c:v>-146</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-341</c:v>
+                  <c:v>-170</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-390</c:v>
+                  <c:v>-195</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-438</c:v>
+                  <c:v>-219</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>-485</c:v>
+                  <c:v>-242</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>-533</c:v>
+                  <c:v>-266</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>-580</c:v>
+                  <c:v>-290</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>-627</c:v>
+                  <c:v>-313</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>-673</c:v>
+                  <c:v>-336</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>-719</c:v>
+                  <c:v>-359</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>-765</c:v>
+                  <c:v>-382</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>-810</c:v>
+                  <c:v>-405</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>-855</c:v>
+                  <c:v>-427</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>-899</c:v>
+                  <c:v>-449</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>-942</c:v>
+                  <c:v>-471</c:v>
                 </c:pt>
                 <c:pt idx="149">
+                  <c:v>-492</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-514</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-534</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-555</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-575</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-595</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-615</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-634</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-653</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-671</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-689</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-707</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-724</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-740</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-757</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-773</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-788</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-803</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-817</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-831</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-844</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-857</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-870</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-881</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-893</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-903</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-914</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-923</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-932</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-941</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-949</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-956</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-963</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-970</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-975</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-980</c:v>
+                </c:pt>
+                <c:pt idx="185">
                   <c:v>-985</c:v>
                 </c:pt>
-                <c:pt idx="150">
-                  <c:v>-1028</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>-1069</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>-1111</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>-1151</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>-1191</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>-1230</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>-1268</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>-1306</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>-1343</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>-1379</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>-1414</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>-1448</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>-1481</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>-1514</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>-1546</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>-1576</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>-1606</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>-1635</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>-1662</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>-1689</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>-1715</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>-1740</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>-1763</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>-1786</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>-1807</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>-1828</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>-1847</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>-1865</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>-1883</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>-1899</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>-1913</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>-1927</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>-1940</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>-1951</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>-1961</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>-1970</c:v>
-                </c:pt>
                 <c:pt idx="186">
-                  <c:v>-1978</c:v>
+                  <c:v>-989</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-1984</c:v>
+                  <c:v>-992</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-1990</c:v>
+                  <c:v>-995</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-1994</c:v>
+                  <c:v>-997</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-1997</c:v>
+                  <c:v>-998</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-1999</c:v>
+                  <c:v>-999</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-2000</c:v>
+                  <c:v>-1000</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-1999</c:v>
+                  <c:v>-999</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-1997</c:v>
+                  <c:v>-998</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-1994</c:v>
+                  <c:v>-997</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-1990</c:v>
+                  <c:v>-995</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-1984</c:v>
+                  <c:v>-992</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-1978</c:v>
+                  <c:v>-989</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-1970</c:v>
+                  <c:v>-985</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-1961</c:v>
+                  <c:v>-980</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-1951</c:v>
+                  <c:v>-975</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-1940</c:v>
+                  <c:v>-970</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-1927</c:v>
+                  <c:v>-963</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-1913</c:v>
+                  <c:v>-956</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-1899</c:v>
+                  <c:v>-949</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-1883</c:v>
+                  <c:v>-941</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-1865</c:v>
+                  <c:v>-932</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-1847</c:v>
+                  <c:v>-923</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-1828</c:v>
+                  <c:v>-914</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-1807</c:v>
+                  <c:v>-903</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-1786</c:v>
+                  <c:v>-893</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-1763</c:v>
+                  <c:v>-881</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-1740</c:v>
+                  <c:v>-870</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-1715</c:v>
+                  <c:v>-857</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-1689</c:v>
+                  <c:v>-844</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-1662</c:v>
+                  <c:v>-831</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-1635</c:v>
+                  <c:v>-817</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-1606</c:v>
+                  <c:v>-803</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-1576</c:v>
+                  <c:v>-788</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-1546</c:v>
+                  <c:v>-773</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>-1514</c:v>
+                  <c:v>-757</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>-1481</c:v>
+                  <c:v>-740</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-1448</c:v>
+                  <c:v>-724</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-1414</c:v>
+                  <c:v>-707</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>-1379</c:v>
+                  <c:v>-689</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-1343</c:v>
+                  <c:v>-671</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-1306</c:v>
+                  <c:v>-653</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-1268</c:v>
+                  <c:v>-634</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-1230</c:v>
+                  <c:v>-615</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-1191</c:v>
+                  <c:v>-595</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-1151</c:v>
+                  <c:v>-575</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-1111</c:v>
+                  <c:v>-555</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-1069</c:v>
+                  <c:v>-534</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-1028</c:v>
+                  <c:v>-514</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>-985</c:v>
+                  <c:v>-492</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-942</c:v>
+                  <c:v>-471</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>-899</c:v>
+                  <c:v>-449</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>-855</c:v>
+                  <c:v>-427</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>-810</c:v>
+                  <c:v>-405</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>-765</c:v>
+                  <c:v>-382</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>-719</c:v>
+                  <c:v>-359</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>-673</c:v>
+                  <c:v>-336</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>-627</c:v>
+                  <c:v>-313</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>-580</c:v>
+                  <c:v>-290</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>-533</c:v>
+                  <c:v>-266</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>-485</c:v>
+                  <c:v>-242</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>-438</c:v>
+                  <c:v>-219</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>-390</c:v>
+                  <c:v>-195</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>-341</c:v>
+                  <c:v>-170</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>-293</c:v>
+                  <c:v>-146</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>-244</c:v>
+                  <c:v>-122</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>-196</c:v>
+                  <c:v>-98</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>-147</c:v>
+                  <c:v>-73</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>-98</c:v>
+                  <c:v>-49</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>-49</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2027,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A237" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H257"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="str">
-        <f>DEC2HEX(C2*2000,4)</f>
+        <f>DEC2HEX(C2*500,4)</f>
         <v>0000</v>
       </c>
       <c r="E2">
@@ -2096,16 +2096,16 @@
         <v>2.4541228522912288E-2</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="2">DEC2HEX(C3*2000,4)</f>
-        <v>0031</v>
+        <f t="shared" ref="D3:D66" si="2">DEC2HEX(C3*1000,4)</f>
+        <v>0018</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="3">HEX2DEC(D3)</f>
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="str">
         <f t="shared" ref="H3:H66" si="4">CONCATENATE("X""",RIGHT(D3,4),""",")</f>
-        <v>X"0031",</v>
+        <v>X"0018",</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2122,15 +2122,15 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" si="2"/>
-        <v>0062</v>
+        <v>0031</v>
       </c>
       <c r="E4">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="H4" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0062",</v>
+        <v>X"0031",</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2147,15 +2147,15 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v>0093</v>
+        <v>0049</v>
       </c>
       <c r="E5">
         <f t="shared" si="3"/>
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0093",</v>
+        <v>X"0049",</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2172,15 +2172,15 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v>00C4</v>
+        <v>0062</v>
       </c>
       <c r="E6">
         <f t="shared" si="3"/>
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"00C4",</v>
+        <v>X"0062",</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2197,15 +2197,15 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
-        <v>00F4</v>
+        <v>007A</v>
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"00F4",</v>
+        <v>X"007A",</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2222,15 +2222,15 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
-        <v>0125</v>
+        <v>0092</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>293</v>
+        <v>146</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0125",</v>
+        <v>X"0092",</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2247,15 +2247,15 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
-        <v>0155</v>
+        <v>00AA</v>
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>341</v>
+        <v>170</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0155",</v>
+        <v>X"00AA",</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2272,15 +2272,15 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
-        <v>0186</v>
+        <v>00C3</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>390</v>
+        <v>195</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0186",</v>
+        <v>X"00C3",</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2297,15 +2297,15 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="2"/>
-        <v>01B6</v>
+        <v>00DB</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>438</v>
+        <v>219</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"01B6",</v>
+        <v>X"00DB",</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2322,15 +2322,15 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
-        <v>01E5</v>
+        <v>00F2</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>485</v>
+        <v>242</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"01E5",</v>
+        <v>X"00F2",</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2347,15 +2347,15 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
-        <v>0215</v>
+        <v>010A</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>533</v>
+        <v>266</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0215",</v>
+        <v>X"010A",</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2372,15 +2372,15 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
-        <v>0244</v>
+        <v>0122</v>
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
-        <v>580</v>
+        <v>290</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0244",</v>
+        <v>X"0122",</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2397,15 +2397,15 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
-        <v>0273</v>
+        <v>0139</v>
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
-        <v>627</v>
+        <v>313</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0273",</v>
+        <v>X"0139",</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2422,15 +2422,15 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="2"/>
-        <v>02A1</v>
+        <v>0150</v>
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
-        <v>673</v>
+        <v>336</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"02A1",</v>
+        <v>X"0150",</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2447,15 +2447,15 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="2"/>
-        <v>02CF</v>
+        <v>0167</v>
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>719</v>
+        <v>359</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"02CF",</v>
+        <v>X"0167",</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2472,15 +2472,15 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="2"/>
-        <v>02FD</v>
+        <v>017E</v>
       </c>
       <c r="E18">
         <f t="shared" si="3"/>
-        <v>765</v>
+        <v>382</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"02FD",</v>
+        <v>X"017E",</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2497,15 +2497,15 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="2"/>
-        <v>032A</v>
+        <v>0195</v>
       </c>
       <c r="E19">
         <f t="shared" si="3"/>
-        <v>810</v>
+        <v>405</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"032A",</v>
+        <v>X"0195",</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2522,15 +2522,15 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="2"/>
-        <v>0357</v>
+        <v>01AB</v>
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
-        <v>855</v>
+        <v>427</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0357",</v>
+        <v>X"01AB",</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2547,15 +2547,15 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" si="2"/>
-        <v>0383</v>
+        <v>01C1</v>
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
-        <v>899</v>
+        <v>449</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0383",</v>
+        <v>X"01C1",</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2572,15 +2572,15 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="2"/>
-        <v>03AE</v>
+        <v>01D7</v>
       </c>
       <c r="E22">
         <f t="shared" si="3"/>
-        <v>942</v>
+        <v>471</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"03AE",</v>
+        <v>X"01D7",</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2597,15 +2597,15 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" si="2"/>
-        <v>03D9</v>
+        <v>01EC</v>
       </c>
       <c r="E23">
         <f t="shared" si="3"/>
-        <v>985</v>
+        <v>492</v>
       </c>
       <c r="H23" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"03D9",</v>
+        <v>X"01EC",</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2622,15 +2622,15 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="2"/>
-        <v>0404</v>
+        <v>0202</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
-        <v>1028</v>
+        <v>514</v>
       </c>
       <c r="H24" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0404",</v>
+        <v>X"0202",</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" si="2"/>
-        <v>042D</v>
+        <v>0216</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>1069</v>
+        <v>534</v>
       </c>
       <c r="H25" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"042D",</v>
+        <v>X"0216",</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2672,15 +2672,15 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" si="2"/>
-        <v>0457</v>
+        <v>022B</v>
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
-        <v>1111</v>
+        <v>555</v>
       </c>
       <c r="H26" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0457",</v>
+        <v>X"022B",</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2697,15 +2697,15 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" si="2"/>
-        <v>047F</v>
+        <v>023F</v>
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>1151</v>
+        <v>575</v>
       </c>
       <c r="H27" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"047F",</v>
+        <v>X"023F",</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2722,15 +2722,15 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" si="2"/>
-        <v>04A7</v>
+        <v>0253</v>
       </c>
       <c r="E28">
         <f t="shared" si="3"/>
-        <v>1191</v>
+        <v>595</v>
       </c>
       <c r="H28" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"04A7",</v>
+        <v>X"0253",</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2747,15 +2747,15 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
-        <v>04CE</v>
+        <v>0267</v>
       </c>
       <c r="E29">
         <f t="shared" si="3"/>
-        <v>1230</v>
+        <v>615</v>
       </c>
       <c r="H29" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"04CE",</v>
+        <v>X"0267",</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2772,15 +2772,15 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
-        <v>04F4</v>
+        <v>027A</v>
       </c>
       <c r="E30">
         <f t="shared" si="3"/>
-        <v>1268</v>
+        <v>634</v>
       </c>
       <c r="H30" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"04F4",</v>
+        <v>X"027A",</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2797,15 +2797,15 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
-        <v>051A</v>
+        <v>028D</v>
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>1306</v>
+        <v>653</v>
       </c>
       <c r="H31" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"051A",</v>
+        <v>X"028D",</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2822,15 +2822,15 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
-        <v>053F</v>
+        <v>029F</v>
       </c>
       <c r="E32">
         <f t="shared" si="3"/>
-        <v>1343</v>
+        <v>671</v>
       </c>
       <c r="H32" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"053F",</v>
+        <v>X"029F",</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2847,15 +2847,15 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" si="2"/>
-        <v>0563</v>
+        <v>02B1</v>
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
-        <v>1379</v>
+        <v>689</v>
       </c>
       <c r="H33" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0563",</v>
+        <v>X"02B1",</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2872,15 +2872,15 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
-        <v>0586</v>
+        <v>02C3</v>
       </c>
       <c r="E34">
         <f t="shared" si="3"/>
-        <v>1414</v>
+        <v>707</v>
       </c>
       <c r="H34" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0586",</v>
+        <v>X"02C3",</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2897,15 +2897,15 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" si="2"/>
-        <v>05A8</v>
+        <v>02D4</v>
       </c>
       <c r="E35">
         <f t="shared" si="3"/>
-        <v>1448</v>
+        <v>724</v>
       </c>
       <c r="H35" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"05A8",</v>
+        <v>X"02D4",</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2922,15 +2922,15 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" si="2"/>
-        <v>05C9</v>
+        <v>02E4</v>
       </c>
       <c r="E36">
         <f t="shared" si="3"/>
-        <v>1481</v>
+        <v>740</v>
       </c>
       <c r="H36" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"05C9",</v>
+        <v>X"02E4",</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2947,15 +2947,15 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" si="2"/>
-        <v>05EA</v>
+        <v>02F5</v>
       </c>
       <c r="E37">
         <f t="shared" si="3"/>
-        <v>1514</v>
+        <v>757</v>
       </c>
       <c r="H37" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"05EA",</v>
+        <v>X"02F5",</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2972,15 +2972,15 @@
       </c>
       <c r="D38" t="str">
         <f t="shared" si="2"/>
-        <v>060A</v>
+        <v>0305</v>
       </c>
       <c r="E38">
         <f t="shared" si="3"/>
-        <v>1546</v>
+        <v>773</v>
       </c>
       <c r="H38" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"060A",</v>
+        <v>X"0305",</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2997,15 +2997,15 @@
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
-        <v>0628</v>
+        <v>0314</v>
       </c>
       <c r="E39">
         <f t="shared" si="3"/>
-        <v>1576</v>
+        <v>788</v>
       </c>
       <c r="H39" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0628",</v>
+        <v>X"0314",</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3022,15 +3022,15 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
-        <v>0646</v>
+        <v>0323</v>
       </c>
       <c r="E40">
         <f t="shared" si="3"/>
-        <v>1606</v>
+        <v>803</v>
       </c>
       <c r="H40" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0646",</v>
+        <v>X"0323",</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3047,15 +3047,15 @@
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
-        <v>0663</v>
+        <v>0331</v>
       </c>
       <c r="E41">
         <f t="shared" si="3"/>
-        <v>1635</v>
+        <v>817</v>
       </c>
       <c r="H41" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0663",</v>
+        <v>X"0331",</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -3072,15 +3072,15 @@
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
-        <v>067E</v>
+        <v>033F</v>
       </c>
       <c r="E42">
         <f t="shared" si="3"/>
-        <v>1662</v>
+        <v>831</v>
       </c>
       <c r="H42" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"067E",</v>
+        <v>X"033F",</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3097,15 +3097,15 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
-        <v>0699</v>
+        <v>034C</v>
       </c>
       <c r="E43">
         <f t="shared" si="3"/>
-        <v>1689</v>
+        <v>844</v>
       </c>
       <c r="H43" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0699",</v>
+        <v>X"034C",</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3122,15 +3122,15 @@
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
-        <v>06B3</v>
+        <v>0359</v>
       </c>
       <c r="E44">
         <f t="shared" si="3"/>
-        <v>1715</v>
+        <v>857</v>
       </c>
       <c r="H44" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"06B3",</v>
+        <v>X"0359",</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3147,15 +3147,15 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
-        <v>06CC</v>
+        <v>0366</v>
       </c>
       <c r="E45">
         <f t="shared" si="3"/>
-        <v>1740</v>
+        <v>870</v>
       </c>
       <c r="H45" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"06CC",</v>
+        <v>X"0366",</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3172,15 +3172,15 @@
       </c>
       <c r="D46" t="str">
         <f t="shared" si="2"/>
-        <v>06E3</v>
+        <v>0371</v>
       </c>
       <c r="E46">
         <f t="shared" si="3"/>
-        <v>1763</v>
+        <v>881</v>
       </c>
       <c r="H46" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"06E3",</v>
+        <v>X"0371",</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3197,15 +3197,15 @@
       </c>
       <c r="D47" t="str">
         <f t="shared" si="2"/>
-        <v>06FA</v>
+        <v>037D</v>
       </c>
       <c r="E47">
         <f t="shared" si="3"/>
-        <v>1786</v>
+        <v>893</v>
       </c>
       <c r="H47" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"06FA",</v>
+        <v>X"037D",</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3222,15 +3222,15 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" si="2"/>
-        <v>070F</v>
+        <v>0387</v>
       </c>
       <c r="E48">
         <f t="shared" si="3"/>
-        <v>1807</v>
+        <v>903</v>
       </c>
       <c r="H48" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"070F",</v>
+        <v>X"0387",</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3247,15 +3247,15 @@
       </c>
       <c r="D49" t="str">
         <f t="shared" si="2"/>
-        <v>0724</v>
+        <v>0392</v>
       </c>
       <c r="E49">
         <f t="shared" si="3"/>
-        <v>1828</v>
+        <v>914</v>
       </c>
       <c r="H49" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0724",</v>
+        <v>X"0392",</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3272,15 +3272,15 @@
       </c>
       <c r="D50" t="str">
         <f t="shared" si="2"/>
-        <v>0737</v>
+        <v>039B</v>
       </c>
       <c r="E50">
         <f t="shared" si="3"/>
-        <v>1847</v>
+        <v>923</v>
       </c>
       <c r="H50" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0737",</v>
+        <v>X"039B",</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3297,15 +3297,15 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" si="2"/>
-        <v>0749</v>
+        <v>03A4</v>
       </c>
       <c r="E51">
         <f t="shared" si="3"/>
-        <v>1865</v>
+        <v>932</v>
       </c>
       <c r="H51" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0749",</v>
+        <v>X"03A4",</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3322,15 +3322,15 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" si="2"/>
-        <v>075B</v>
+        <v>03AD</v>
       </c>
       <c r="E52">
         <f t="shared" si="3"/>
-        <v>1883</v>
+        <v>941</v>
       </c>
       <c r="H52" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"075B",</v>
+        <v>X"03AD",</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3347,15 +3347,15 @@
       </c>
       <c r="D53" t="str">
         <f t="shared" si="2"/>
-        <v>076B</v>
+        <v>03B5</v>
       </c>
       <c r="E53">
         <f t="shared" si="3"/>
-        <v>1899</v>
+        <v>949</v>
       </c>
       <c r="H53" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"076B",</v>
+        <v>X"03B5",</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3372,15 +3372,15 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" si="2"/>
-        <v>0779</v>
+        <v>03BC</v>
       </c>
       <c r="E54">
         <f t="shared" si="3"/>
-        <v>1913</v>
+        <v>956</v>
       </c>
       <c r="H54" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0779",</v>
+        <v>X"03BC",</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3397,15 +3397,15 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" si="2"/>
-        <v>0787</v>
+        <v>03C3</v>
       </c>
       <c r="E55">
         <f t="shared" si="3"/>
-        <v>1927</v>
+        <v>963</v>
       </c>
       <c r="H55" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0787",</v>
+        <v>X"03C3",</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3422,15 +3422,15 @@
       </c>
       <c r="D56" t="str">
         <f t="shared" si="2"/>
-        <v>0794</v>
+        <v>03CA</v>
       </c>
       <c r="E56">
         <f t="shared" si="3"/>
-        <v>1940</v>
+        <v>970</v>
       </c>
       <c r="H56" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0794",</v>
+        <v>X"03CA",</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3447,15 +3447,15 @@
       </c>
       <c r="D57" t="str">
         <f t="shared" si="2"/>
-        <v>079F</v>
+        <v>03CF</v>
       </c>
       <c r="E57">
         <f t="shared" si="3"/>
-        <v>1951</v>
+        <v>975</v>
       </c>
       <c r="H57" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"079F",</v>
+        <v>X"03CF",</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3472,15 +3472,15 @@
       </c>
       <c r="D58" t="str">
         <f t="shared" si="2"/>
-        <v>07A9</v>
+        <v>03D4</v>
       </c>
       <c r="E58">
         <f t="shared" si="3"/>
-        <v>1961</v>
+        <v>980</v>
       </c>
       <c r="H58" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"07A9",</v>
+        <v>X"03D4",</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3497,15 +3497,15 @@
       </c>
       <c r="D59" t="str">
         <f t="shared" si="2"/>
-        <v>07B2</v>
+        <v>03D9</v>
       </c>
       <c r="E59">
         <f t="shared" si="3"/>
-        <v>1970</v>
+        <v>985</v>
       </c>
       <c r="H59" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"07B2",</v>
+        <v>X"03D9",</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3522,15 +3522,15 @@
       </c>
       <c r="D60" t="str">
         <f t="shared" si="2"/>
-        <v>07BA</v>
+        <v>03DD</v>
       </c>
       <c r="E60">
         <f t="shared" si="3"/>
-        <v>1978</v>
+        <v>989</v>
       </c>
       <c r="H60" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"07BA",</v>
+        <v>X"03DD",</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3547,15 +3547,15 @@
       </c>
       <c r="D61" t="str">
         <f t="shared" si="2"/>
-        <v>07C0</v>
+        <v>03E0</v>
       </c>
       <c r="E61">
         <f t="shared" si="3"/>
-        <v>1984</v>
+        <v>992</v>
       </c>
       <c r="H61" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"07C0",</v>
+        <v>X"03E0",</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3572,15 +3572,15 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" si="2"/>
-        <v>07C6</v>
+        <v>03E3</v>
       </c>
       <c r="E62">
         <f t="shared" si="3"/>
-        <v>1990</v>
+        <v>995</v>
       </c>
       <c r="H62" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"07C6",</v>
+        <v>X"03E3",</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3597,15 +3597,15 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" si="2"/>
-        <v>07CA</v>
+        <v>03E5</v>
       </c>
       <c r="E63">
         <f t="shared" si="3"/>
-        <v>1994</v>
+        <v>997</v>
       </c>
       <c r="H63" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"07CA",</v>
+        <v>X"03E5",</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3622,15 +3622,15 @@
       </c>
       <c r="D64" t="str">
         <f t="shared" si="2"/>
-        <v>07CD</v>
+        <v>03E6</v>
       </c>
       <c r="E64">
         <f t="shared" si="3"/>
-        <v>1997</v>
+        <v>998</v>
       </c>
       <c r="H64" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"07CD",</v>
+        <v>X"03E6",</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3647,15 +3647,15 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" si="2"/>
-        <v>07CF</v>
+        <v>03E7</v>
       </c>
       <c r="E65">
         <f t="shared" si="3"/>
-        <v>1999</v>
+        <v>999</v>
       </c>
       <c r="H65" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"07CF",</v>
+        <v>X"03E7",</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3672,15 +3672,15 @@
       </c>
       <c r="D66" t="str">
         <f t="shared" si="2"/>
-        <v>07D0</v>
+        <v>03E8</v>
       </c>
       <c r="E66">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="H66" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"07D0",</v>
+        <v>X"03E8",</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3696,16 +3696,16 @@
         <v>0.99969881869620425</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D130" si="7">DEC2HEX(C67*2000,4)</f>
-        <v>07CF</v>
+        <f t="shared" ref="D67:D130" si="7">DEC2HEX(C67*1000,4)</f>
+        <v>03E7</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" si="8">HEX2DEC(D67)</f>
-        <v>1999</v>
+        <v>999</v>
       </c>
       <c r="H67" s="1" t="str">
         <f t="shared" ref="H67:H130" si="9">CONCATENATE("X""",RIGHT(D67,4),""",")</f>
-        <v>X"07CF",</v>
+        <v>X"03E7",</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3722,15 +3722,15 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" si="7"/>
-        <v>07CD</v>
+        <v>03E6</v>
       </c>
       <c r="E68">
         <f t="shared" si="8"/>
-        <v>1997</v>
+        <v>998</v>
       </c>
       <c r="H68" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"07CD",</v>
+        <v>X"03E6",</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3747,15 +3747,15 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" si="7"/>
-        <v>07CA</v>
+        <v>03E5</v>
       </c>
       <c r="E69">
         <f t="shared" si="8"/>
-        <v>1994</v>
+        <v>997</v>
       </c>
       <c r="H69" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"07CA",</v>
+        <v>X"03E5",</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3772,15 +3772,15 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" si="7"/>
-        <v>07C6</v>
+        <v>03E3</v>
       </c>
       <c r="E70">
         <f t="shared" si="8"/>
-        <v>1990</v>
+        <v>995</v>
       </c>
       <c r="H70" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"07C6",</v>
+        <v>X"03E3",</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3797,15 +3797,15 @@
       </c>
       <c r="D71" t="str">
         <f t="shared" si="7"/>
-        <v>07C0</v>
+        <v>03E0</v>
       </c>
       <c r="E71">
         <f t="shared" si="8"/>
-        <v>1984</v>
+        <v>992</v>
       </c>
       <c r="H71" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"07C0",</v>
+        <v>X"03E0",</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3822,15 +3822,15 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" si="7"/>
-        <v>07BA</v>
+        <v>03DD</v>
       </c>
       <c r="E72">
         <f t="shared" si="8"/>
-        <v>1978</v>
+        <v>989</v>
       </c>
       <c r="H72" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"07BA",</v>
+        <v>X"03DD",</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="D73" t="str">
         <f t="shared" si="7"/>
-        <v>07B2</v>
+        <v>03D9</v>
       </c>
       <c r="E73">
         <f t="shared" si="8"/>
-        <v>1970</v>
+        <v>985</v>
       </c>
       <c r="H73" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"07B2",</v>
+        <v>X"03D9",</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3872,15 +3872,15 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" si="7"/>
-        <v>07A9</v>
+        <v>03D4</v>
       </c>
       <c r="E74">
         <f t="shared" si="8"/>
-        <v>1961</v>
+        <v>980</v>
       </c>
       <c r="H74" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"07A9",</v>
+        <v>X"03D4",</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3897,15 +3897,15 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" si="7"/>
-        <v>079F</v>
+        <v>03CF</v>
       </c>
       <c r="E75">
         <f t="shared" si="8"/>
-        <v>1951</v>
+        <v>975</v>
       </c>
       <c r="H75" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"079F",</v>
+        <v>X"03CF",</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3922,15 +3922,15 @@
       </c>
       <c r="D76" t="str">
         <f t="shared" si="7"/>
-        <v>0794</v>
+        <v>03CA</v>
       </c>
       <c r="E76">
         <f t="shared" si="8"/>
-        <v>1940</v>
+        <v>970</v>
       </c>
       <c r="H76" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0794",</v>
+        <v>X"03CA",</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3947,15 +3947,15 @@
       </c>
       <c r="D77" t="str">
         <f t="shared" si="7"/>
-        <v>0787</v>
+        <v>03C3</v>
       </c>
       <c r="E77">
         <f t="shared" si="8"/>
-        <v>1927</v>
+        <v>963</v>
       </c>
       <c r="H77" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0787",</v>
+        <v>X"03C3",</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3972,15 +3972,15 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" si="7"/>
-        <v>0779</v>
+        <v>03BC</v>
       </c>
       <c r="E78">
         <f t="shared" si="8"/>
-        <v>1913</v>
+        <v>956</v>
       </c>
       <c r="H78" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0779",</v>
+        <v>X"03BC",</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3997,15 +3997,15 @@
       </c>
       <c r="D79" t="str">
         <f t="shared" si="7"/>
-        <v>076B</v>
+        <v>03B5</v>
       </c>
       <c r="E79">
         <f t="shared" si="8"/>
-        <v>1899</v>
+        <v>949</v>
       </c>
       <c r="H79" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"076B",</v>
+        <v>X"03B5",</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -4022,15 +4022,15 @@
       </c>
       <c r="D80" t="str">
         <f t="shared" si="7"/>
-        <v>075B</v>
+        <v>03AD</v>
       </c>
       <c r="E80">
         <f t="shared" si="8"/>
-        <v>1883</v>
+        <v>941</v>
       </c>
       <c r="H80" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"075B",</v>
+        <v>X"03AD",</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -4047,15 +4047,15 @@
       </c>
       <c r="D81" t="str">
         <f t="shared" si="7"/>
-        <v>0749</v>
+        <v>03A4</v>
       </c>
       <c r="E81">
         <f t="shared" si="8"/>
-        <v>1865</v>
+        <v>932</v>
       </c>
       <c r="H81" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0749",</v>
+        <v>X"03A4",</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4072,15 +4072,15 @@
       </c>
       <c r="D82" t="str">
         <f t="shared" si="7"/>
-        <v>0737</v>
+        <v>039B</v>
       </c>
       <c r="E82">
         <f t="shared" si="8"/>
-        <v>1847</v>
+        <v>923</v>
       </c>
       <c r="H82" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0737",</v>
+        <v>X"039B",</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4097,15 +4097,15 @@
       </c>
       <c r="D83" t="str">
         <f t="shared" si="7"/>
-        <v>0724</v>
+        <v>0392</v>
       </c>
       <c r="E83">
         <f t="shared" si="8"/>
-        <v>1828</v>
+        <v>914</v>
       </c>
       <c r="H83" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0724",</v>
+        <v>X"0392",</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4122,15 +4122,15 @@
       </c>
       <c r="D84" t="str">
         <f t="shared" si="7"/>
-        <v>070F</v>
+        <v>0387</v>
       </c>
       <c r="E84">
         <f t="shared" si="8"/>
-        <v>1807</v>
+        <v>903</v>
       </c>
       <c r="H84" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"070F",</v>
+        <v>X"0387",</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4147,15 +4147,15 @@
       </c>
       <c r="D85" t="str">
         <f t="shared" si="7"/>
-        <v>06FA</v>
+        <v>037D</v>
       </c>
       <c r="E85">
         <f t="shared" si="8"/>
-        <v>1786</v>
+        <v>893</v>
       </c>
       <c r="H85" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"06FA",</v>
+        <v>X"037D",</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4172,15 +4172,15 @@
       </c>
       <c r="D86" t="str">
         <f t="shared" si="7"/>
-        <v>06E3</v>
+        <v>0371</v>
       </c>
       <c r="E86">
         <f t="shared" si="8"/>
-        <v>1763</v>
+        <v>881</v>
       </c>
       <c r="H86" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"06E3",</v>
+        <v>X"0371",</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -4197,15 +4197,15 @@
       </c>
       <c r="D87" t="str">
         <f t="shared" si="7"/>
-        <v>06CC</v>
+        <v>0366</v>
       </c>
       <c r="E87">
         <f t="shared" si="8"/>
-        <v>1740</v>
+        <v>870</v>
       </c>
       <c r="H87" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"06CC",</v>
+        <v>X"0366",</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4222,15 +4222,15 @@
       </c>
       <c r="D88" t="str">
         <f t="shared" si="7"/>
-        <v>06B3</v>
+        <v>0359</v>
       </c>
       <c r="E88">
         <f t="shared" si="8"/>
-        <v>1715</v>
+        <v>857</v>
       </c>
       <c r="H88" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"06B3",</v>
+        <v>X"0359",</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -4247,15 +4247,15 @@
       </c>
       <c r="D89" t="str">
         <f t="shared" si="7"/>
-        <v>0699</v>
+        <v>034C</v>
       </c>
       <c r="E89">
         <f t="shared" si="8"/>
-        <v>1689</v>
+        <v>844</v>
       </c>
       <c r="H89" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0699",</v>
+        <v>X"034C",</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -4272,15 +4272,15 @@
       </c>
       <c r="D90" t="str">
         <f t="shared" si="7"/>
-        <v>067E</v>
+        <v>033F</v>
       </c>
       <c r="E90">
         <f t="shared" si="8"/>
-        <v>1662</v>
+        <v>831</v>
       </c>
       <c r="H90" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"067E",</v>
+        <v>X"033F",</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4297,15 +4297,15 @@
       </c>
       <c r="D91" t="str">
         <f t="shared" si="7"/>
-        <v>0663</v>
+        <v>0331</v>
       </c>
       <c r="E91">
         <f t="shared" si="8"/>
-        <v>1635</v>
+        <v>817</v>
       </c>
       <c r="H91" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0663",</v>
+        <v>X"0331",</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -4322,15 +4322,15 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" si="7"/>
-        <v>0646</v>
+        <v>0323</v>
       </c>
       <c r="E92">
         <f t="shared" si="8"/>
-        <v>1606</v>
+        <v>803</v>
       </c>
       <c r="H92" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0646",</v>
+        <v>X"0323",</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -4347,15 +4347,15 @@
       </c>
       <c r="D93" t="str">
         <f t="shared" si="7"/>
-        <v>0628</v>
+        <v>0314</v>
       </c>
       <c r="E93">
         <f t="shared" si="8"/>
-        <v>1576</v>
+        <v>788</v>
       </c>
       <c r="H93" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0628",</v>
+        <v>X"0314",</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4372,15 +4372,15 @@
       </c>
       <c r="D94" t="str">
         <f t="shared" si="7"/>
-        <v>060A</v>
+        <v>0305</v>
       </c>
       <c r="E94">
         <f t="shared" si="8"/>
-        <v>1546</v>
+        <v>773</v>
       </c>
       <c r="H94" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"060A",</v>
+        <v>X"0305",</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -4397,15 +4397,15 @@
       </c>
       <c r="D95" t="str">
         <f t="shared" si="7"/>
-        <v>05EA</v>
+        <v>02F5</v>
       </c>
       <c r="E95">
         <f t="shared" si="8"/>
-        <v>1514</v>
+        <v>757</v>
       </c>
       <c r="H95" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"05EA",</v>
+        <v>X"02F5",</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -4422,15 +4422,15 @@
       </c>
       <c r="D96" t="str">
         <f t="shared" si="7"/>
-        <v>05C9</v>
+        <v>02E4</v>
       </c>
       <c r="E96">
         <f t="shared" si="8"/>
-        <v>1481</v>
+        <v>740</v>
       </c>
       <c r="H96" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"05C9",</v>
+        <v>X"02E4",</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -4447,15 +4447,15 @@
       </c>
       <c r="D97" t="str">
         <f t="shared" si="7"/>
-        <v>05A8</v>
+        <v>02D4</v>
       </c>
       <c r="E97">
         <f t="shared" si="8"/>
-        <v>1448</v>
+        <v>724</v>
       </c>
       <c r="H97" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"05A8",</v>
+        <v>X"02D4",</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -4472,15 +4472,15 @@
       </c>
       <c r="D98" t="str">
         <f t="shared" si="7"/>
-        <v>0586</v>
+        <v>02C3</v>
       </c>
       <c r="E98">
         <f t="shared" si="8"/>
-        <v>1414</v>
+        <v>707</v>
       </c>
       <c r="H98" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0586",</v>
+        <v>X"02C3",</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -4497,15 +4497,15 @@
       </c>
       <c r="D99" t="str">
         <f t="shared" si="7"/>
-        <v>0563</v>
+        <v>02B1</v>
       </c>
       <c r="E99">
         <f t="shared" si="8"/>
-        <v>1379</v>
+        <v>689</v>
       </c>
       <c r="H99" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0563",</v>
+        <v>X"02B1",</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -4522,15 +4522,15 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" si="7"/>
-        <v>053F</v>
+        <v>029F</v>
       </c>
       <c r="E100">
         <f t="shared" si="8"/>
-        <v>1343</v>
+        <v>671</v>
       </c>
       <c r="H100" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"053F",</v>
+        <v>X"029F",</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4547,15 +4547,15 @@
       </c>
       <c r="D101" t="str">
         <f t="shared" si="7"/>
-        <v>051A</v>
+        <v>028D</v>
       </c>
       <c r="E101">
         <f t="shared" si="8"/>
-        <v>1306</v>
+        <v>653</v>
       </c>
       <c r="H101" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"051A",</v>
+        <v>X"028D",</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -4572,15 +4572,15 @@
       </c>
       <c r="D102" t="str">
         <f t="shared" si="7"/>
-        <v>04F4</v>
+        <v>027A</v>
       </c>
       <c r="E102">
         <f t="shared" si="8"/>
-        <v>1268</v>
+        <v>634</v>
       </c>
       <c r="H102" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"04F4",</v>
+        <v>X"027A",</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -4597,15 +4597,15 @@
       </c>
       <c r="D103" t="str">
         <f t="shared" si="7"/>
-        <v>04CE</v>
+        <v>0267</v>
       </c>
       <c r="E103">
         <f t="shared" si="8"/>
-        <v>1230</v>
+        <v>615</v>
       </c>
       <c r="H103" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"04CE",</v>
+        <v>X"0267",</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4622,15 +4622,15 @@
       </c>
       <c r="D104" t="str">
         <f t="shared" si="7"/>
-        <v>04A7</v>
+        <v>0253</v>
       </c>
       <c r="E104">
         <f t="shared" si="8"/>
-        <v>1191</v>
+        <v>595</v>
       </c>
       <c r="H104" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"04A7",</v>
+        <v>X"0253",</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4647,15 +4647,15 @@
       </c>
       <c r="D105" t="str">
         <f t="shared" si="7"/>
-        <v>047F</v>
+        <v>023F</v>
       </c>
       <c r="E105">
         <f t="shared" si="8"/>
-        <v>1151</v>
+        <v>575</v>
       </c>
       <c r="H105" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"047F",</v>
+        <v>X"023F",</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4672,15 +4672,15 @@
       </c>
       <c r="D106" t="str">
         <f t="shared" si="7"/>
-        <v>0457</v>
+        <v>022B</v>
       </c>
       <c r="E106">
         <f t="shared" si="8"/>
-        <v>1111</v>
+        <v>555</v>
       </c>
       <c r="H106" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0457",</v>
+        <v>X"022B",</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -4697,15 +4697,15 @@
       </c>
       <c r="D107" t="str">
         <f t="shared" si="7"/>
-        <v>042D</v>
+        <v>0216</v>
       </c>
       <c r="E107">
         <f t="shared" si="8"/>
-        <v>1069</v>
+        <v>534</v>
       </c>
       <c r="H107" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"042D",</v>
+        <v>X"0216",</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -4722,15 +4722,15 @@
       </c>
       <c r="D108" t="str">
         <f t="shared" si="7"/>
-        <v>0404</v>
+        <v>0202</v>
       </c>
       <c r="E108">
         <f t="shared" si="8"/>
-        <v>1028</v>
+        <v>514</v>
       </c>
       <c r="H108" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0404",</v>
+        <v>X"0202",</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -4747,15 +4747,15 @@
       </c>
       <c r="D109" t="str">
         <f t="shared" si="7"/>
-        <v>03D9</v>
+        <v>01EC</v>
       </c>
       <c r="E109">
         <f t="shared" si="8"/>
-        <v>985</v>
+        <v>492</v>
       </c>
       <c r="H109" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"03D9",</v>
+        <v>X"01EC",</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4772,15 +4772,15 @@
       </c>
       <c r="D110" t="str">
         <f t="shared" si="7"/>
-        <v>03AE</v>
+        <v>01D7</v>
       </c>
       <c r="E110">
         <f t="shared" si="8"/>
-        <v>942</v>
+        <v>471</v>
       </c>
       <c r="H110" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"03AE",</v>
+        <v>X"01D7",</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -4797,15 +4797,15 @@
       </c>
       <c r="D111" t="str">
         <f t="shared" si="7"/>
-        <v>0383</v>
+        <v>01C1</v>
       </c>
       <c r="E111">
         <f t="shared" si="8"/>
-        <v>899</v>
+        <v>449</v>
       </c>
       <c r="H111" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0383",</v>
+        <v>X"01C1",</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -4822,15 +4822,15 @@
       </c>
       <c r="D112" t="str">
         <f t="shared" si="7"/>
-        <v>0357</v>
+        <v>01AB</v>
       </c>
       <c r="E112">
         <f t="shared" si="8"/>
-        <v>855</v>
+        <v>427</v>
       </c>
       <c r="H112" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0357",</v>
+        <v>X"01AB",</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -4847,15 +4847,15 @@
       </c>
       <c r="D113" t="str">
         <f t="shared" si="7"/>
-        <v>032A</v>
+        <v>0195</v>
       </c>
       <c r="E113">
         <f t="shared" si="8"/>
-        <v>810</v>
+        <v>405</v>
       </c>
       <c r="H113" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"032A",</v>
+        <v>X"0195",</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -4872,15 +4872,15 @@
       </c>
       <c r="D114" t="str">
         <f t="shared" si="7"/>
-        <v>02FD</v>
+        <v>017E</v>
       </c>
       <c r="E114">
         <f t="shared" si="8"/>
-        <v>765</v>
+        <v>382</v>
       </c>
       <c r="H114" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"02FD",</v>
+        <v>X"017E",</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4897,15 +4897,15 @@
       </c>
       <c r="D115" t="str">
         <f t="shared" si="7"/>
-        <v>02CF</v>
+        <v>0167</v>
       </c>
       <c r="E115">
         <f t="shared" si="8"/>
-        <v>719</v>
+        <v>359</v>
       </c>
       <c r="H115" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"02CF",</v>
+        <v>X"0167",</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4922,15 +4922,15 @@
       </c>
       <c r="D116" t="str">
         <f t="shared" si="7"/>
-        <v>02A1</v>
+        <v>0150</v>
       </c>
       <c r="E116">
         <f t="shared" si="8"/>
-        <v>673</v>
+        <v>336</v>
       </c>
       <c r="H116" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"02A1",</v>
+        <v>X"0150",</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -4947,15 +4947,15 @@
       </c>
       <c r="D117" t="str">
         <f t="shared" si="7"/>
-        <v>0273</v>
+        <v>0139</v>
       </c>
       <c r="E117">
         <f t="shared" si="8"/>
-        <v>627</v>
+        <v>313</v>
       </c>
       <c r="H117" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0273",</v>
+        <v>X"0139",</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -4972,15 +4972,15 @@
       </c>
       <c r="D118" t="str">
         <f t="shared" si="7"/>
-        <v>0244</v>
+        <v>0122</v>
       </c>
       <c r="E118">
         <f t="shared" si="8"/>
-        <v>580</v>
+        <v>290</v>
       </c>
       <c r="H118" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0244",</v>
+        <v>X"0122",</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4997,15 +4997,15 @@
       </c>
       <c r="D119" t="str">
         <f t="shared" si="7"/>
-        <v>0215</v>
+        <v>010A</v>
       </c>
       <c r="E119">
         <f t="shared" si="8"/>
-        <v>533</v>
+        <v>266</v>
       </c>
       <c r="H119" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0215",</v>
+        <v>X"010A",</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -5022,15 +5022,15 @@
       </c>
       <c r="D120" t="str">
         <f t="shared" si="7"/>
-        <v>01E5</v>
+        <v>00F2</v>
       </c>
       <c r="E120">
         <f t="shared" si="8"/>
-        <v>485</v>
+        <v>242</v>
       </c>
       <c r="H120" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"01E5",</v>
+        <v>X"00F2",</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="D121" t="str">
         <f t="shared" si="7"/>
-        <v>01B6</v>
+        <v>00DB</v>
       </c>
       <c r="E121">
         <f t="shared" si="8"/>
-        <v>438</v>
+        <v>219</v>
       </c>
       <c r="H121" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"01B6",</v>
+        <v>X"00DB",</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -5072,15 +5072,15 @@
       </c>
       <c r="D122" t="str">
         <f t="shared" si="7"/>
-        <v>0186</v>
+        <v>00C3</v>
       </c>
       <c r="E122">
         <f t="shared" si="8"/>
-        <v>390</v>
+        <v>195</v>
       </c>
       <c r="H122" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0186",</v>
+        <v>X"00C3",</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -5097,15 +5097,15 @@
       </c>
       <c r="D123" t="str">
         <f t="shared" si="7"/>
-        <v>0155</v>
+        <v>00AA</v>
       </c>
       <c r="E123">
         <f t="shared" si="8"/>
-        <v>341</v>
+        <v>170</v>
       </c>
       <c r="H123" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0155",</v>
+        <v>X"00AA",</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -5122,15 +5122,15 @@
       </c>
       <c r="D124" t="str">
         <f t="shared" si="7"/>
-        <v>0125</v>
+        <v>0092</v>
       </c>
       <c r="E124">
         <f t="shared" si="8"/>
-        <v>293</v>
+        <v>146</v>
       </c>
       <c r="H124" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0125",</v>
+        <v>X"0092",</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -5147,15 +5147,15 @@
       </c>
       <c r="D125" t="str">
         <f t="shared" si="7"/>
-        <v>00F4</v>
+        <v>007A</v>
       </c>
       <c r="E125">
         <f t="shared" si="8"/>
-        <v>244</v>
+        <v>122</v>
       </c>
       <c r="H125" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"00F4",</v>
+        <v>X"007A",</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -5172,15 +5172,15 @@
       </c>
       <c r="D126" t="str">
         <f t="shared" si="7"/>
-        <v>00C4</v>
+        <v>0062</v>
       </c>
       <c r="E126">
         <f t="shared" si="8"/>
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="H126" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"00C4",</v>
+        <v>X"0062",</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -5197,15 +5197,15 @@
       </c>
       <c r="D127" t="str">
         <f t="shared" si="7"/>
-        <v>0093</v>
+        <v>0049</v>
       </c>
       <c r="E127">
         <f t="shared" si="8"/>
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="H127" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0093",</v>
+        <v>X"0049",</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -5222,15 +5222,15 @@
       </c>
       <c r="D128" t="str">
         <f t="shared" si="7"/>
-        <v>0062</v>
+        <v>0031</v>
       </c>
       <c r="E128">
         <f t="shared" si="8"/>
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="H128" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0062",</v>
+        <v>X"0031",</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -5247,15 +5247,15 @@
       </c>
       <c r="D129" t="str">
         <f t="shared" si="7"/>
-        <v>0031</v>
+        <v>0018</v>
       </c>
       <c r="E129">
         <f t="shared" si="8"/>
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="H129" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0031",</v>
+        <v>X"0018",</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -5296,16 +5296,16 @@
         <v>-2.454122852291208E-2</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D194" si="12">DEC2HEX(C131*2000,4)</f>
-        <v>FFFFFFFFCF</v>
+        <f t="shared" ref="D131:D194" si="12">DEC2HEX(C131*1000,4)</f>
+        <v>FFFFFFFFE8</v>
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E194" si="13">HEX2DEC(D131)</f>
-        <v>-49</v>
+        <v>-24</v>
       </c>
       <c r="H131" s="1" t="str">
         <f t="shared" ref="H131:H194" si="14">CONCATENATE("X""",RIGHT(D131,4),""",")</f>
-        <v>X"FFCF",</v>
+        <v>X"FFE8",</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -5322,15 +5322,15 @@
       </c>
       <c r="D132" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFF9E</v>
+        <v>FFFFFFFFCF</v>
       </c>
       <c r="E132">
         <f t="shared" si="13"/>
-        <v>-98</v>
+        <v>-49</v>
       </c>
       <c r="H132" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FF9E",</v>
+        <v>X"FFCF",</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -5347,15 +5347,15 @@
       </c>
       <c r="D133" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFF6D</v>
+        <v>FFFFFFFFB7</v>
       </c>
       <c r="E133">
         <f t="shared" si="13"/>
-        <v>-147</v>
+        <v>-73</v>
       </c>
       <c r="H133" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FF6D",</v>
+        <v>X"FFB7",</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -5372,15 +5372,15 @@
       </c>
       <c r="D134" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFF3C</v>
+        <v>FFFFFFFF9E</v>
       </c>
       <c r="E134">
         <f t="shared" si="13"/>
-        <v>-196</v>
+        <v>-98</v>
       </c>
       <c r="H134" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FF3C",</v>
+        <v>X"FF9E",</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -5397,15 +5397,15 @@
       </c>
       <c r="D135" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFF0C</v>
+        <v>FFFFFFFF86</v>
       </c>
       <c r="E135">
         <f t="shared" si="13"/>
-        <v>-244</v>
+        <v>-122</v>
       </c>
       <c r="H135" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FF0C",</v>
+        <v>X"FF86",</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -5422,15 +5422,15 @@
       </c>
       <c r="D136" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFEDB</v>
+        <v>FFFFFFFF6E</v>
       </c>
       <c r="E136">
         <f t="shared" si="13"/>
-        <v>-293</v>
+        <v>-146</v>
       </c>
       <c r="H136" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FEDB",</v>
+        <v>X"FF6E",</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -5447,15 +5447,15 @@
       </c>
       <c r="D137" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFEAB</v>
+        <v>FFFFFFFF56</v>
       </c>
       <c r="E137">
         <f t="shared" si="13"/>
-        <v>-341</v>
+        <v>-170</v>
       </c>
       <c r="H137" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FEAB",</v>
+        <v>X"FF56",</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -5472,15 +5472,15 @@
       </c>
       <c r="D138" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFE7A</v>
+        <v>FFFFFFFF3D</v>
       </c>
       <c r="E138">
         <f t="shared" si="13"/>
-        <v>-390</v>
+        <v>-195</v>
       </c>
       <c r="H138" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FE7A",</v>
+        <v>X"FF3D",</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -5497,15 +5497,15 @@
       </c>
       <c r="D139" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFE4A</v>
+        <v>FFFFFFFF25</v>
       </c>
       <c r="E139">
         <f t="shared" si="13"/>
-        <v>-438</v>
+        <v>-219</v>
       </c>
       <c r="H139" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FE4A",</v>
+        <v>X"FF25",</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -5522,15 +5522,15 @@
       </c>
       <c r="D140" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFE1B</v>
+        <v>FFFFFFFF0E</v>
       </c>
       <c r="E140">
         <f t="shared" si="13"/>
-        <v>-485</v>
+        <v>-242</v>
       </c>
       <c r="H140" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FE1B",</v>
+        <v>X"FF0E",</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -5547,15 +5547,15 @@
       </c>
       <c r="D141" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFDEB</v>
+        <v>FFFFFFFEF6</v>
       </c>
       <c r="E141">
         <f t="shared" si="13"/>
-        <v>-533</v>
+        <v>-266</v>
       </c>
       <c r="H141" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FDEB",</v>
+        <v>X"FEF6",</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -5572,15 +5572,15 @@
       </c>
       <c r="D142" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFDBC</v>
+        <v>FFFFFFFEDE</v>
       </c>
       <c r="E142">
         <f t="shared" si="13"/>
-        <v>-580</v>
+        <v>-290</v>
       </c>
       <c r="H142" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FDBC",</v>
+        <v>X"FEDE",</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -5597,15 +5597,15 @@
       </c>
       <c r="D143" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFD8D</v>
+        <v>FFFFFFFEC7</v>
       </c>
       <c r="E143">
         <f t="shared" si="13"/>
-        <v>-627</v>
+        <v>-313</v>
       </c>
       <c r="H143" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FD8D",</v>
+        <v>X"FEC7",</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -5622,15 +5622,15 @@
       </c>
       <c r="D144" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFD5F</v>
+        <v>FFFFFFFEB0</v>
       </c>
       <c r="E144">
         <f t="shared" si="13"/>
-        <v>-673</v>
+        <v>-336</v>
       </c>
       <c r="H144" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FD5F",</v>
+        <v>X"FEB0",</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5647,15 +5647,15 @@
       </c>
       <c r="D145" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFD31</v>
+        <v>FFFFFFFE99</v>
       </c>
       <c r="E145">
         <f t="shared" si="13"/>
-        <v>-719</v>
+        <v>-359</v>
       </c>
       <c r="H145" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FD31",</v>
+        <v>X"FE99",</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5672,15 +5672,15 @@
       </c>
       <c r="D146" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFD03</v>
+        <v>FFFFFFFE82</v>
       </c>
       <c r="E146">
         <f t="shared" si="13"/>
-        <v>-765</v>
+        <v>-382</v>
       </c>
       <c r="H146" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FD03",</v>
+        <v>X"FE82",</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5697,15 +5697,15 @@
       </c>
       <c r="D147" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFCD6</v>
+        <v>FFFFFFFE6B</v>
       </c>
       <c r="E147">
         <f t="shared" si="13"/>
-        <v>-810</v>
+        <v>-405</v>
       </c>
       <c r="H147" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FCD6",</v>
+        <v>X"FE6B",</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5722,15 +5722,15 @@
       </c>
       <c r="D148" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFCA9</v>
+        <v>FFFFFFFE55</v>
       </c>
       <c r="E148">
         <f t="shared" si="13"/>
-        <v>-855</v>
+        <v>-427</v>
       </c>
       <c r="H148" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FCA9",</v>
+        <v>X"FE55",</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5747,15 +5747,15 @@
       </c>
       <c r="D149" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC7D</v>
+        <v>FFFFFFFE3F</v>
       </c>
       <c r="E149">
         <f t="shared" si="13"/>
-        <v>-899</v>
+        <v>-449</v>
       </c>
       <c r="H149" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC7D",</v>
+        <v>X"FE3F",</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5772,15 +5772,15 @@
       </c>
       <c r="D150" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC52</v>
+        <v>FFFFFFFE29</v>
       </c>
       <c r="E150">
         <f t="shared" si="13"/>
-        <v>-942</v>
+        <v>-471</v>
       </c>
       <c r="H150" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC52",</v>
+        <v>X"FE29",</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5797,15 +5797,15 @@
       </c>
       <c r="D151" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC27</v>
+        <v>FFFFFFFE14</v>
       </c>
       <c r="E151">
         <f t="shared" si="13"/>
-        <v>-985</v>
+        <v>-492</v>
       </c>
       <c r="H151" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC27",</v>
+        <v>X"FE14",</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5822,15 +5822,15 @@
       </c>
       <c r="D152" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFBFC</v>
+        <v>FFFFFFFDFE</v>
       </c>
       <c r="E152">
         <f t="shared" si="13"/>
-        <v>-1028</v>
+        <v>-514</v>
       </c>
       <c r="H152" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FBFC",</v>
+        <v>X"FDFE",</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5847,15 +5847,15 @@
       </c>
       <c r="D153" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFBD3</v>
+        <v>FFFFFFFDEA</v>
       </c>
       <c r="E153">
         <f t="shared" si="13"/>
-        <v>-1069</v>
+        <v>-534</v>
       </c>
       <c r="H153" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FBD3",</v>
+        <v>X"FDEA",</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5872,15 +5872,15 @@
       </c>
       <c r="D154" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFBA9</v>
+        <v>FFFFFFFDD5</v>
       </c>
       <c r="E154">
         <f t="shared" si="13"/>
-        <v>-1111</v>
+        <v>-555</v>
       </c>
       <c r="H154" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FBA9",</v>
+        <v>X"FDD5",</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5897,15 +5897,15 @@
       </c>
       <c r="D155" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFB81</v>
+        <v>FFFFFFFDC1</v>
       </c>
       <c r="E155">
         <f t="shared" si="13"/>
-        <v>-1151</v>
+        <v>-575</v>
       </c>
       <c r="H155" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FB81",</v>
+        <v>X"FDC1",</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5922,15 +5922,15 @@
       </c>
       <c r="D156" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFB59</v>
+        <v>FFFFFFFDAD</v>
       </c>
       <c r="E156">
         <f t="shared" si="13"/>
-        <v>-1191</v>
+        <v>-595</v>
       </c>
       <c r="H156" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FB59",</v>
+        <v>X"FDAD",</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5947,15 +5947,15 @@
       </c>
       <c r="D157" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFB32</v>
+        <v>FFFFFFFD99</v>
       </c>
       <c r="E157">
         <f t="shared" si="13"/>
-        <v>-1230</v>
+        <v>-615</v>
       </c>
       <c r="H157" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FB32",</v>
+        <v>X"FD99",</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5972,15 +5972,15 @@
       </c>
       <c r="D158" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFB0C</v>
+        <v>FFFFFFFD86</v>
       </c>
       <c r="E158">
         <f t="shared" si="13"/>
-        <v>-1268</v>
+        <v>-634</v>
       </c>
       <c r="H158" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FB0C",</v>
+        <v>X"FD86",</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5997,15 +5997,15 @@
       </c>
       <c r="D159" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFAE6</v>
+        <v>FFFFFFFD73</v>
       </c>
       <c r="E159">
         <f t="shared" si="13"/>
-        <v>-1306</v>
+        <v>-653</v>
       </c>
       <c r="H159" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FAE6",</v>
+        <v>X"FD73",</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -6022,15 +6022,15 @@
       </c>
       <c r="D160" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFAC1</v>
+        <v>FFFFFFFD61</v>
       </c>
       <c r="E160">
         <f t="shared" si="13"/>
-        <v>-1343</v>
+        <v>-671</v>
       </c>
       <c r="H160" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FAC1",</v>
+        <v>X"FD61",</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -6047,15 +6047,15 @@
       </c>
       <c r="D161" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFA9D</v>
+        <v>FFFFFFFD4F</v>
       </c>
       <c r="E161">
         <f t="shared" si="13"/>
-        <v>-1379</v>
+        <v>-689</v>
       </c>
       <c r="H161" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FA9D",</v>
+        <v>X"FD4F",</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -6072,15 +6072,15 @@
       </c>
       <c r="D162" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFA7A</v>
+        <v>FFFFFFFD3D</v>
       </c>
       <c r="E162">
         <f t="shared" si="13"/>
-        <v>-1414</v>
+        <v>-707</v>
       </c>
       <c r="H162" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FA7A",</v>
+        <v>X"FD3D",</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -6097,15 +6097,15 @@
       </c>
       <c r="D163" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFA58</v>
+        <v>FFFFFFFD2C</v>
       </c>
       <c r="E163">
         <f t="shared" si="13"/>
-        <v>-1448</v>
+        <v>-724</v>
       </c>
       <c r="H163" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FA58",</v>
+        <v>X"FD2C",</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -6122,15 +6122,15 @@
       </c>
       <c r="D164" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFA37</v>
+        <v>FFFFFFFD1C</v>
       </c>
       <c r="E164">
         <f t="shared" si="13"/>
-        <v>-1481</v>
+        <v>-740</v>
       </c>
       <c r="H164" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FA37",</v>
+        <v>X"FD1C",</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -6147,15 +6147,15 @@
       </c>
       <c r="D165" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFA16</v>
+        <v>FFFFFFFD0B</v>
       </c>
       <c r="E165">
         <f t="shared" si="13"/>
-        <v>-1514</v>
+        <v>-757</v>
       </c>
       <c r="H165" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FA16",</v>
+        <v>X"FD0B",</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -6172,15 +6172,15 @@
       </c>
       <c r="D166" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF9F6</v>
+        <v>FFFFFFFCFB</v>
       </c>
       <c r="E166">
         <f t="shared" si="13"/>
-        <v>-1546</v>
+        <v>-773</v>
       </c>
       <c r="H166" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F9F6",</v>
+        <v>X"FCFB",</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -6197,15 +6197,15 @@
       </c>
       <c r="D167" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF9D8</v>
+        <v>FFFFFFFCEC</v>
       </c>
       <c r="E167">
         <f t="shared" si="13"/>
-        <v>-1576</v>
+        <v>-788</v>
       </c>
       <c r="H167" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F9D8",</v>
+        <v>X"FCEC",</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -6222,15 +6222,15 @@
       </c>
       <c r="D168" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF9BA</v>
+        <v>FFFFFFFCDD</v>
       </c>
       <c r="E168">
         <f t="shared" si="13"/>
-        <v>-1606</v>
+        <v>-803</v>
       </c>
       <c r="H168" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F9BA",</v>
+        <v>X"FCDD",</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="D169" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF99D</v>
+        <v>FFFFFFFCCF</v>
       </c>
       <c r="E169">
         <f t="shared" si="13"/>
-        <v>-1635</v>
+        <v>-817</v>
       </c>
       <c r="H169" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F99D",</v>
+        <v>X"FCCF",</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -6272,15 +6272,15 @@
       </c>
       <c r="D170" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF982</v>
+        <v>FFFFFFFCC1</v>
       </c>
       <c r="E170">
         <f t="shared" si="13"/>
-        <v>-1662</v>
+        <v>-831</v>
       </c>
       <c r="H170" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F982",</v>
+        <v>X"FCC1",</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -6297,15 +6297,15 @@
       </c>
       <c r="D171" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF967</v>
+        <v>FFFFFFFCB4</v>
       </c>
       <c r="E171">
         <f t="shared" si="13"/>
-        <v>-1689</v>
+        <v>-844</v>
       </c>
       <c r="H171" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F967",</v>
+        <v>X"FCB4",</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -6322,15 +6322,15 @@
       </c>
       <c r="D172" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF94D</v>
+        <v>FFFFFFFCA7</v>
       </c>
       <c r="E172">
         <f t="shared" si="13"/>
-        <v>-1715</v>
+        <v>-857</v>
       </c>
       <c r="H172" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F94D",</v>
+        <v>X"FCA7",</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -6347,15 +6347,15 @@
       </c>
       <c r="D173" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF934</v>
+        <v>FFFFFFFC9A</v>
       </c>
       <c r="E173">
         <f t="shared" si="13"/>
-        <v>-1740</v>
+        <v>-870</v>
       </c>
       <c r="H173" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F934",</v>
+        <v>X"FC9A",</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -6372,15 +6372,15 @@
       </c>
       <c r="D174" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF91D</v>
+        <v>FFFFFFFC8F</v>
       </c>
       <c r="E174">
         <f t="shared" si="13"/>
-        <v>-1763</v>
+        <v>-881</v>
       </c>
       <c r="H174" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F91D",</v>
+        <v>X"FC8F",</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -6397,15 +6397,15 @@
       </c>
       <c r="D175" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF906</v>
+        <v>FFFFFFFC83</v>
       </c>
       <c r="E175">
         <f t="shared" si="13"/>
-        <v>-1786</v>
+        <v>-893</v>
       </c>
       <c r="H175" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F906",</v>
+        <v>X"FC83",</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -6422,15 +6422,15 @@
       </c>
       <c r="D176" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF8F1</v>
+        <v>FFFFFFFC79</v>
       </c>
       <c r="E176">
         <f t="shared" si="13"/>
-        <v>-1807</v>
+        <v>-903</v>
       </c>
       <c r="H176" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F8F1",</v>
+        <v>X"FC79",</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -6447,15 +6447,15 @@
       </c>
       <c r="D177" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF8DC</v>
+        <v>FFFFFFFC6E</v>
       </c>
       <c r="E177">
         <f t="shared" si="13"/>
-        <v>-1828</v>
+        <v>-914</v>
       </c>
       <c r="H177" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F8DC",</v>
+        <v>X"FC6E",</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -6472,15 +6472,15 @@
       </c>
       <c r="D178" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF8C9</v>
+        <v>FFFFFFFC65</v>
       </c>
       <c r="E178">
         <f t="shared" si="13"/>
-        <v>-1847</v>
+        <v>-923</v>
       </c>
       <c r="H178" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F8C9",</v>
+        <v>X"FC65",</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -6497,15 +6497,15 @@
       </c>
       <c r="D179" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF8B7</v>
+        <v>FFFFFFFC5C</v>
       </c>
       <c r="E179">
         <f t="shared" si="13"/>
-        <v>-1865</v>
+        <v>-932</v>
       </c>
       <c r="H179" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F8B7",</v>
+        <v>X"FC5C",</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -6522,15 +6522,15 @@
       </c>
       <c r="D180" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF8A5</v>
+        <v>FFFFFFFC53</v>
       </c>
       <c r="E180">
         <f t="shared" si="13"/>
-        <v>-1883</v>
+        <v>-941</v>
       </c>
       <c r="H180" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F8A5",</v>
+        <v>X"FC53",</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -6547,15 +6547,15 @@
       </c>
       <c r="D181" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF895</v>
+        <v>FFFFFFFC4B</v>
       </c>
       <c r="E181">
         <f t="shared" si="13"/>
-        <v>-1899</v>
+        <v>-949</v>
       </c>
       <c r="H181" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F895",</v>
+        <v>X"FC4B",</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -6572,15 +6572,15 @@
       </c>
       <c r="D182" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF887</v>
+        <v>FFFFFFFC44</v>
       </c>
       <c r="E182">
         <f t="shared" si="13"/>
-        <v>-1913</v>
+        <v>-956</v>
       </c>
       <c r="H182" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F887",</v>
+        <v>X"FC44",</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -6597,15 +6597,15 @@
       </c>
       <c r="D183" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF879</v>
+        <v>FFFFFFFC3D</v>
       </c>
       <c r="E183">
         <f t="shared" si="13"/>
-        <v>-1927</v>
+        <v>-963</v>
       </c>
       <c r="H183" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F879",</v>
+        <v>X"FC3D",</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -6622,15 +6622,15 @@
       </c>
       <c r="D184" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF86C</v>
+        <v>FFFFFFFC36</v>
       </c>
       <c r="E184">
         <f t="shared" si="13"/>
-        <v>-1940</v>
+        <v>-970</v>
       </c>
       <c r="H184" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F86C",</v>
+        <v>X"FC36",</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -6647,15 +6647,15 @@
       </c>
       <c r="D185" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF861</v>
+        <v>FFFFFFFC31</v>
       </c>
       <c r="E185">
         <f t="shared" si="13"/>
-        <v>-1951</v>
+        <v>-975</v>
       </c>
       <c r="H185" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F861",</v>
+        <v>X"FC31",</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -6672,15 +6672,15 @@
       </c>
       <c r="D186" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF857</v>
+        <v>FFFFFFFC2C</v>
       </c>
       <c r="E186">
         <f t="shared" si="13"/>
-        <v>-1961</v>
+        <v>-980</v>
       </c>
       <c r="H186" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F857",</v>
+        <v>X"FC2C",</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -6697,15 +6697,15 @@
       </c>
       <c r="D187" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF84E</v>
+        <v>FFFFFFFC27</v>
       </c>
       <c r="E187">
         <f t="shared" si="13"/>
-        <v>-1970</v>
+        <v>-985</v>
       </c>
       <c r="H187" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F84E",</v>
+        <v>X"FC27",</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -6722,15 +6722,15 @@
       </c>
       <c r="D188" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF846</v>
+        <v>FFFFFFFC23</v>
       </c>
       <c r="E188">
         <f t="shared" si="13"/>
-        <v>-1978</v>
+        <v>-989</v>
       </c>
       <c r="H188" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F846",</v>
+        <v>X"FC23",</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -6747,15 +6747,15 @@
       </c>
       <c r="D189" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF840</v>
+        <v>FFFFFFFC20</v>
       </c>
       <c r="E189">
         <f t="shared" si="13"/>
-        <v>-1984</v>
+        <v>-992</v>
       </c>
       <c r="H189" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F840",</v>
+        <v>X"FC20",</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -6772,15 +6772,15 @@
       </c>
       <c r="D190" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF83A</v>
+        <v>FFFFFFFC1D</v>
       </c>
       <c r="E190">
         <f t="shared" si="13"/>
-        <v>-1990</v>
+        <v>-995</v>
       </c>
       <c r="H190" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F83A",</v>
+        <v>X"FC1D",</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -6797,15 +6797,15 @@
       </c>
       <c r="D191" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF836</v>
+        <v>FFFFFFFC1B</v>
       </c>
       <c r="E191">
         <f t="shared" si="13"/>
-        <v>-1994</v>
+        <v>-997</v>
       </c>
       <c r="H191" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F836",</v>
+        <v>X"FC1B",</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -6822,15 +6822,15 @@
       </c>
       <c r="D192" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF833</v>
+        <v>FFFFFFFC1A</v>
       </c>
       <c r="E192">
         <f t="shared" si="13"/>
-        <v>-1997</v>
+        <v>-998</v>
       </c>
       <c r="H192" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F833",</v>
+        <v>X"FC1A",</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -6847,15 +6847,15 @@
       </c>
       <c r="D193" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF831</v>
+        <v>FFFFFFFC19</v>
       </c>
       <c r="E193">
         <f t="shared" si="13"/>
-        <v>-1999</v>
+        <v>-999</v>
       </c>
       <c r="H193" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F831",</v>
+        <v>X"FC19",</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -6872,15 +6872,15 @@
       </c>
       <c r="D194" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFF830</v>
+        <v>FFFFFFFC18</v>
       </c>
       <c r="E194">
         <f t="shared" si="13"/>
-        <v>-2000</v>
+        <v>-1000</v>
       </c>
       <c r="H194" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"F830",</v>
+        <v>X"FC18",</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -6896,16 +6896,16 @@
         <v>-0.99969881869620425</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" ref="D195:D257" si="17">DEC2HEX(C195*2000,4)</f>
-        <v>FFFFFFF831</v>
+        <f t="shared" ref="D195:D257" si="17">DEC2HEX(C195*1000,4)</f>
+        <v>FFFFFFFC19</v>
       </c>
       <c r="E195">
         <f t="shared" ref="E195:E257" si="18">HEX2DEC(D195)</f>
-        <v>-1999</v>
+        <v>-999</v>
       </c>
       <c r="H195" s="1" t="str">
         <f t="shared" ref="H195:H257" si="19">CONCATENATE("X""",RIGHT(D195,4),""",")</f>
-        <v>X"F831",</v>
+        <v>X"FC19",</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -6922,15 +6922,15 @@
       </c>
       <c r="D196" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF833</v>
+        <v>FFFFFFFC1A</v>
       </c>
       <c r="E196">
         <f t="shared" si="18"/>
-        <v>-1997</v>
+        <v>-998</v>
       </c>
       <c r="H196" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F833",</v>
+        <v>X"FC1A",</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -6947,15 +6947,15 @@
       </c>
       <c r="D197" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF836</v>
+        <v>FFFFFFFC1B</v>
       </c>
       <c r="E197">
         <f t="shared" si="18"/>
-        <v>-1994</v>
+        <v>-997</v>
       </c>
       <c r="H197" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F836",</v>
+        <v>X"FC1B",</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -6972,15 +6972,15 @@
       </c>
       <c r="D198" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF83A</v>
+        <v>FFFFFFFC1D</v>
       </c>
       <c r="E198">
         <f t="shared" si="18"/>
-        <v>-1990</v>
+        <v>-995</v>
       </c>
       <c r="H198" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F83A",</v>
+        <v>X"FC1D",</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -6997,15 +6997,15 @@
       </c>
       <c r="D199" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF840</v>
+        <v>FFFFFFFC20</v>
       </c>
       <c r="E199">
         <f t="shared" si="18"/>
-        <v>-1984</v>
+        <v>-992</v>
       </c>
       <c r="H199" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F840",</v>
+        <v>X"FC20",</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -7022,15 +7022,15 @@
       </c>
       <c r="D200" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF846</v>
+        <v>FFFFFFFC23</v>
       </c>
       <c r="E200">
         <f t="shared" si="18"/>
-        <v>-1978</v>
+        <v>-989</v>
       </c>
       <c r="H200" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F846",</v>
+        <v>X"FC23",</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -7047,15 +7047,15 @@
       </c>
       <c r="D201" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF84E</v>
+        <v>FFFFFFFC27</v>
       </c>
       <c r="E201">
         <f t="shared" si="18"/>
-        <v>-1970</v>
+        <v>-985</v>
       </c>
       <c r="H201" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F84E",</v>
+        <v>X"FC27",</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -7072,15 +7072,15 @@
       </c>
       <c r="D202" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF857</v>
+        <v>FFFFFFFC2C</v>
       </c>
       <c r="E202">
         <f t="shared" si="18"/>
-        <v>-1961</v>
+        <v>-980</v>
       </c>
       <c r="H202" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F857",</v>
+        <v>X"FC2C",</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -7097,15 +7097,15 @@
       </c>
       <c r="D203" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF861</v>
+        <v>FFFFFFFC31</v>
       </c>
       <c r="E203">
         <f t="shared" si="18"/>
-        <v>-1951</v>
+        <v>-975</v>
       </c>
       <c r="H203" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F861",</v>
+        <v>X"FC31",</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -7122,15 +7122,15 @@
       </c>
       <c r="D204" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF86C</v>
+        <v>FFFFFFFC36</v>
       </c>
       <c r="E204">
         <f t="shared" si="18"/>
-        <v>-1940</v>
+        <v>-970</v>
       </c>
       <c r="H204" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F86C",</v>
+        <v>X"FC36",</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -7147,15 +7147,15 @@
       </c>
       <c r="D205" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF879</v>
+        <v>FFFFFFFC3D</v>
       </c>
       <c r="E205">
         <f t="shared" si="18"/>
-        <v>-1927</v>
+        <v>-963</v>
       </c>
       <c r="H205" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F879",</v>
+        <v>X"FC3D",</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -7172,15 +7172,15 @@
       </c>
       <c r="D206" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF887</v>
+        <v>FFFFFFFC44</v>
       </c>
       <c r="E206">
         <f t="shared" si="18"/>
-        <v>-1913</v>
+        <v>-956</v>
       </c>
       <c r="H206" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F887",</v>
+        <v>X"FC44",</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -7197,15 +7197,15 @@
       </c>
       <c r="D207" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF895</v>
+        <v>FFFFFFFC4B</v>
       </c>
       <c r="E207">
         <f t="shared" si="18"/>
-        <v>-1899</v>
+        <v>-949</v>
       </c>
       <c r="H207" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F895",</v>
+        <v>X"FC4B",</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -7222,15 +7222,15 @@
       </c>
       <c r="D208" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF8A5</v>
+        <v>FFFFFFFC53</v>
       </c>
       <c r="E208">
         <f t="shared" si="18"/>
-        <v>-1883</v>
+        <v>-941</v>
       </c>
       <c r="H208" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F8A5",</v>
+        <v>X"FC53",</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -7247,15 +7247,15 @@
       </c>
       <c r="D209" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF8B7</v>
+        <v>FFFFFFFC5C</v>
       </c>
       <c r="E209">
         <f t="shared" si="18"/>
-        <v>-1865</v>
+        <v>-932</v>
       </c>
       <c r="H209" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F8B7",</v>
+        <v>X"FC5C",</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -7272,15 +7272,15 @@
       </c>
       <c r="D210" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF8C9</v>
+        <v>FFFFFFFC65</v>
       </c>
       <c r="E210">
         <f t="shared" si="18"/>
-        <v>-1847</v>
+        <v>-923</v>
       </c>
       <c r="H210" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F8C9",</v>
+        <v>X"FC65",</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -7297,15 +7297,15 @@
       </c>
       <c r="D211" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF8DC</v>
+        <v>FFFFFFFC6E</v>
       </c>
       <c r="E211">
         <f t="shared" si="18"/>
-        <v>-1828</v>
+        <v>-914</v>
       </c>
       <c r="H211" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F8DC",</v>
+        <v>X"FC6E",</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -7322,15 +7322,15 @@
       </c>
       <c r="D212" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF8F1</v>
+        <v>FFFFFFFC79</v>
       </c>
       <c r="E212">
         <f t="shared" si="18"/>
-        <v>-1807</v>
+        <v>-903</v>
       </c>
       <c r="H212" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F8F1",</v>
+        <v>X"FC79",</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -7347,15 +7347,15 @@
       </c>
       <c r="D213" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF906</v>
+        <v>FFFFFFFC83</v>
       </c>
       <c r="E213">
         <f t="shared" si="18"/>
-        <v>-1786</v>
+        <v>-893</v>
       </c>
       <c r="H213" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F906",</v>
+        <v>X"FC83",</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -7372,15 +7372,15 @@
       </c>
       <c r="D214" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF91D</v>
+        <v>FFFFFFFC8F</v>
       </c>
       <c r="E214">
         <f t="shared" si="18"/>
-        <v>-1763</v>
+        <v>-881</v>
       </c>
       <c r="H214" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F91D",</v>
+        <v>X"FC8F",</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -7397,15 +7397,15 @@
       </c>
       <c r="D215" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF934</v>
+        <v>FFFFFFFC9A</v>
       </c>
       <c r="E215">
         <f t="shared" si="18"/>
-        <v>-1740</v>
+        <v>-870</v>
       </c>
       <c r="H215" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F934",</v>
+        <v>X"FC9A",</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -7422,15 +7422,15 @@
       </c>
       <c r="D216" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF94D</v>
+        <v>FFFFFFFCA7</v>
       </c>
       <c r="E216">
         <f t="shared" si="18"/>
-        <v>-1715</v>
+        <v>-857</v>
       </c>
       <c r="H216" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F94D",</v>
+        <v>X"FCA7",</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -7447,15 +7447,15 @@
       </c>
       <c r="D217" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF967</v>
+        <v>FFFFFFFCB4</v>
       </c>
       <c r="E217">
         <f t="shared" si="18"/>
-        <v>-1689</v>
+        <v>-844</v>
       </c>
       <c r="H217" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F967",</v>
+        <v>X"FCB4",</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -7472,15 +7472,15 @@
       </c>
       <c r="D218" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF982</v>
+        <v>FFFFFFFCC1</v>
       </c>
       <c r="E218">
         <f t="shared" si="18"/>
-        <v>-1662</v>
+        <v>-831</v>
       </c>
       <c r="H218" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F982",</v>
+        <v>X"FCC1",</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -7497,15 +7497,15 @@
       </c>
       <c r="D219" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF99D</v>
+        <v>FFFFFFFCCF</v>
       </c>
       <c r="E219">
         <f t="shared" si="18"/>
-        <v>-1635</v>
+        <v>-817</v>
       </c>
       <c r="H219" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F99D",</v>
+        <v>X"FCCF",</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -7522,15 +7522,15 @@
       </c>
       <c r="D220" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF9BA</v>
+        <v>FFFFFFFCDD</v>
       </c>
       <c r="E220">
         <f t="shared" si="18"/>
-        <v>-1606</v>
+        <v>-803</v>
       </c>
       <c r="H220" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F9BA",</v>
+        <v>X"FCDD",</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -7547,15 +7547,15 @@
       </c>
       <c r="D221" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF9D8</v>
+        <v>FFFFFFFCEC</v>
       </c>
       <c r="E221">
         <f t="shared" si="18"/>
-        <v>-1576</v>
+        <v>-788</v>
       </c>
       <c r="H221" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F9D8",</v>
+        <v>X"FCEC",</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -7572,15 +7572,15 @@
       </c>
       <c r="D222" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFF9F6</v>
+        <v>FFFFFFFCFB</v>
       </c>
       <c r="E222">
         <f t="shared" si="18"/>
-        <v>-1546</v>
+        <v>-773</v>
       </c>
       <c r="H222" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"F9F6",</v>
+        <v>X"FCFB",</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -7597,15 +7597,15 @@
       </c>
       <c r="D223" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFA16</v>
+        <v>FFFFFFFD0B</v>
       </c>
       <c r="E223">
         <f t="shared" si="18"/>
-        <v>-1514</v>
+        <v>-757</v>
       </c>
       <c r="H223" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FA16",</v>
+        <v>X"FD0B",</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -7622,15 +7622,15 @@
       </c>
       <c r="D224" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFA37</v>
+        <v>FFFFFFFD1C</v>
       </c>
       <c r="E224">
         <f t="shared" si="18"/>
-        <v>-1481</v>
+        <v>-740</v>
       </c>
       <c r="H224" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FA37",</v>
+        <v>X"FD1C",</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -7647,15 +7647,15 @@
       </c>
       <c r="D225" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFA58</v>
+        <v>FFFFFFFD2C</v>
       </c>
       <c r="E225">
         <f t="shared" si="18"/>
-        <v>-1448</v>
+        <v>-724</v>
       </c>
       <c r="H225" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FA58",</v>
+        <v>X"FD2C",</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -7672,15 +7672,15 @@
       </c>
       <c r="D226" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFA7A</v>
+        <v>FFFFFFFD3D</v>
       </c>
       <c r="E226">
         <f t="shared" si="18"/>
-        <v>-1414</v>
+        <v>-707</v>
       </c>
       <c r="H226" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FA7A",</v>
+        <v>X"FD3D",</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -7697,15 +7697,15 @@
       </c>
       <c r="D227" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFA9D</v>
+        <v>FFFFFFFD4F</v>
       </c>
       <c r="E227">
         <f t="shared" si="18"/>
-        <v>-1379</v>
+        <v>-689</v>
       </c>
       <c r="H227" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FA9D",</v>
+        <v>X"FD4F",</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -7722,15 +7722,15 @@
       </c>
       <c r="D228" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFAC1</v>
+        <v>FFFFFFFD61</v>
       </c>
       <c r="E228">
         <f t="shared" si="18"/>
-        <v>-1343</v>
+        <v>-671</v>
       </c>
       <c r="H228" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FAC1",</v>
+        <v>X"FD61",</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -7747,15 +7747,15 @@
       </c>
       <c r="D229" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFAE6</v>
+        <v>FFFFFFFD73</v>
       </c>
       <c r="E229">
         <f t="shared" si="18"/>
-        <v>-1306</v>
+        <v>-653</v>
       </c>
       <c r="H229" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FAE6",</v>
+        <v>X"FD73",</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -7772,15 +7772,15 @@
       </c>
       <c r="D230" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFB0C</v>
+        <v>FFFFFFFD86</v>
       </c>
       <c r="E230">
         <f t="shared" si="18"/>
-        <v>-1268</v>
+        <v>-634</v>
       </c>
       <c r="H230" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FB0C",</v>
+        <v>X"FD86",</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -7797,15 +7797,15 @@
       </c>
       <c r="D231" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFB32</v>
+        <v>FFFFFFFD99</v>
       </c>
       <c r="E231">
         <f t="shared" si="18"/>
-        <v>-1230</v>
+        <v>-615</v>
       </c>
       <c r="H231" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FB32",</v>
+        <v>X"FD99",</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -7822,15 +7822,15 @@
       </c>
       <c r="D232" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFB59</v>
+        <v>FFFFFFFDAD</v>
       </c>
       <c r="E232">
         <f t="shared" si="18"/>
-        <v>-1191</v>
+        <v>-595</v>
       </c>
       <c r="H232" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FB59",</v>
+        <v>X"FDAD",</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -7847,15 +7847,15 @@
       </c>
       <c r="D233" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFB81</v>
+        <v>FFFFFFFDC1</v>
       </c>
       <c r="E233">
         <f t="shared" si="18"/>
-        <v>-1151</v>
+        <v>-575</v>
       </c>
       <c r="H233" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FB81",</v>
+        <v>X"FDC1",</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -7872,15 +7872,15 @@
       </c>
       <c r="D234" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFBA9</v>
+        <v>FFFFFFFDD5</v>
       </c>
       <c r="E234">
         <f t="shared" si="18"/>
-        <v>-1111</v>
+        <v>-555</v>
       </c>
       <c r="H234" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FBA9",</v>
+        <v>X"FDD5",</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -7897,15 +7897,15 @@
       </c>
       <c r="D235" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFBD3</v>
+        <v>FFFFFFFDEA</v>
       </c>
       <c r="E235">
         <f t="shared" si="18"/>
-        <v>-1069</v>
+        <v>-534</v>
       </c>
       <c r="H235" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FBD3",</v>
+        <v>X"FDEA",</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -7922,15 +7922,15 @@
       </c>
       <c r="D236" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFBFC</v>
+        <v>FFFFFFFDFE</v>
       </c>
       <c r="E236">
         <f t="shared" si="18"/>
-        <v>-1028</v>
+        <v>-514</v>
       </c>
       <c r="H236" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FBFC",</v>
+        <v>X"FDFE",</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -7947,15 +7947,15 @@
       </c>
       <c r="D237" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC27</v>
+        <v>FFFFFFFE14</v>
       </c>
       <c r="E237">
         <f t="shared" si="18"/>
-        <v>-985</v>
+        <v>-492</v>
       </c>
       <c r="H237" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC27",</v>
+        <v>X"FE14",</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -7972,15 +7972,15 @@
       </c>
       <c r="D238" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC52</v>
+        <v>FFFFFFFE29</v>
       </c>
       <c r="E238">
         <f t="shared" si="18"/>
-        <v>-942</v>
+        <v>-471</v>
       </c>
       <c r="H238" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC52",</v>
+        <v>X"FE29",</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -7997,15 +7997,15 @@
       </c>
       <c r="D239" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC7D</v>
+        <v>FFFFFFFE3F</v>
       </c>
       <c r="E239">
         <f t="shared" si="18"/>
-        <v>-899</v>
+        <v>-449</v>
       </c>
       <c r="H239" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC7D",</v>
+        <v>X"FE3F",</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -8022,15 +8022,15 @@
       </c>
       <c r="D240" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFCA9</v>
+        <v>FFFFFFFE55</v>
       </c>
       <c r="E240">
         <f t="shared" si="18"/>
-        <v>-855</v>
+        <v>-427</v>
       </c>
       <c r="H240" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FCA9",</v>
+        <v>X"FE55",</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -8047,15 +8047,15 @@
       </c>
       <c r="D241" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFCD6</v>
+        <v>FFFFFFFE6B</v>
       </c>
       <c r="E241">
         <f t="shared" si="18"/>
-        <v>-810</v>
+        <v>-405</v>
       </c>
       <c r="H241" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FCD6",</v>
+        <v>X"FE6B",</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -8072,15 +8072,15 @@
       </c>
       <c r="D242" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFD03</v>
+        <v>FFFFFFFE82</v>
       </c>
       <c r="E242">
         <f t="shared" si="18"/>
-        <v>-765</v>
+        <v>-382</v>
       </c>
       <c r="H242" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FD03",</v>
+        <v>X"FE82",</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -8097,15 +8097,15 @@
       </c>
       <c r="D243" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFD31</v>
+        <v>FFFFFFFE99</v>
       </c>
       <c r="E243">
         <f t="shared" si="18"/>
-        <v>-719</v>
+        <v>-359</v>
       </c>
       <c r="H243" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FD31",</v>
+        <v>X"FE99",</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -8122,15 +8122,15 @@
       </c>
       <c r="D244" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFD5F</v>
+        <v>FFFFFFFEB0</v>
       </c>
       <c r="E244">
         <f t="shared" si="18"/>
-        <v>-673</v>
+        <v>-336</v>
       </c>
       <c r="H244" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FD5F",</v>
+        <v>X"FEB0",</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -8147,15 +8147,15 @@
       </c>
       <c r="D245" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFD8D</v>
+        <v>FFFFFFFEC7</v>
       </c>
       <c r="E245">
         <f t="shared" si="18"/>
-        <v>-627</v>
+        <v>-313</v>
       </c>
       <c r="H245" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FD8D",</v>
+        <v>X"FEC7",</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -8172,15 +8172,15 @@
       </c>
       <c r="D246" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFDBC</v>
+        <v>FFFFFFFEDE</v>
       </c>
       <c r="E246">
         <f t="shared" si="18"/>
-        <v>-580</v>
+        <v>-290</v>
       </c>
       <c r="H246" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FDBC",</v>
+        <v>X"FEDE",</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -8197,15 +8197,15 @@
       </c>
       <c r="D247" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFDEB</v>
+        <v>FFFFFFFEF6</v>
       </c>
       <c r="E247">
         <f t="shared" si="18"/>
-        <v>-533</v>
+        <v>-266</v>
       </c>
       <c r="H247" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FDEB",</v>
+        <v>X"FEF6",</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -8222,15 +8222,15 @@
       </c>
       <c r="D248" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFE1B</v>
+        <v>FFFFFFFF0E</v>
       </c>
       <c r="E248">
         <f t="shared" si="18"/>
-        <v>-485</v>
+        <v>-242</v>
       </c>
       <c r="H248" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FE1B",</v>
+        <v>X"FF0E",</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -8247,15 +8247,15 @@
       </c>
       <c r="D249" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFE4A</v>
+        <v>FFFFFFFF25</v>
       </c>
       <c r="E249">
         <f t="shared" si="18"/>
-        <v>-438</v>
+        <v>-219</v>
       </c>
       <c r="H249" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FE4A",</v>
+        <v>X"FF25",</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -8272,15 +8272,15 @@
       </c>
       <c r="D250" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFE7A</v>
+        <v>FFFFFFFF3D</v>
       </c>
       <c r="E250">
         <f t="shared" si="18"/>
-        <v>-390</v>
+        <v>-195</v>
       </c>
       <c r="H250" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FE7A",</v>
+        <v>X"FF3D",</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -8297,15 +8297,15 @@
       </c>
       <c r="D251" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFEAB</v>
+        <v>FFFFFFFF56</v>
       </c>
       <c r="E251">
         <f t="shared" si="18"/>
-        <v>-341</v>
+        <v>-170</v>
       </c>
       <c r="H251" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FEAB",</v>
+        <v>X"FF56",</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -8322,15 +8322,15 @@
       </c>
       <c r="D252" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFEDB</v>
+        <v>FFFFFFFF6E</v>
       </c>
       <c r="E252">
         <f t="shared" si="18"/>
-        <v>-293</v>
+        <v>-146</v>
       </c>
       <c r="H252" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FEDB",</v>
+        <v>X"FF6E",</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -8347,15 +8347,15 @@
       </c>
       <c r="D253" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFF0C</v>
+        <v>FFFFFFFF86</v>
       </c>
       <c r="E253">
         <f t="shared" si="18"/>
-        <v>-244</v>
+        <v>-122</v>
       </c>
       <c r="H253" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FF0C",</v>
+        <v>X"FF86",</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -8372,15 +8372,15 @@
       </c>
       <c r="D254" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFF3C</v>
+        <v>FFFFFFFF9E</v>
       </c>
       <c r="E254">
         <f t="shared" si="18"/>
-        <v>-196</v>
+        <v>-98</v>
       </c>
       <c r="H254" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FF3C",</v>
+        <v>X"FF9E",</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -8397,15 +8397,15 @@
       </c>
       <c r="D255" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFF6D</v>
+        <v>FFFFFFFFB7</v>
       </c>
       <c r="E255">
         <f t="shared" si="18"/>
-        <v>-147</v>
+        <v>-73</v>
       </c>
       <c r="H255" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FF6D",</v>
+        <v>X"FFB7",</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -8422,15 +8422,15 @@
       </c>
       <c r="D256" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFF9E</v>
+        <v>FFFFFFFFCF</v>
       </c>
       <c r="E256">
         <f t="shared" si="18"/>
-        <v>-98</v>
+        <v>-49</v>
       </c>
       <c r="H256" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FF9E",</v>
+        <v>X"FFCF",</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -8447,15 +8447,15 @@
       </c>
       <c r="D257" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFFCF</v>
+        <v>FFFFFFFFE8</v>
       </c>
       <c r="E257">
         <f t="shared" si="18"/>
-        <v>-49</v>
+        <v>-24</v>
       </c>
       <c r="H257" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FFCF",</v>
+        <v>X"FFE8",</v>
       </c>
     </row>
   </sheetData>

--- a/project/sounds/קובץ אקסל ליצירת טבלת סינוס.xlsx
+++ b/project/sounds/קובץ אקסל ליצירת טבלת סינוס.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A065DC5D-CEA5-4991-AF94-44C176084A8B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C822E7DB-B07D-4D85-9E7E-E72D2B99473B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,769 +169,769 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>98</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>122</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>146</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>170</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>195</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>219</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>266</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>382</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>405</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>427</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>449</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>471</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>492</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>514</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>534</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>555</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>595</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>615</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>634</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>653</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>671</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>689</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>707</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>724</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>740</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>757</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>773</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>788</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>803</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>817</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>831</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>844</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>857</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>870</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>881</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>893</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>903</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>914</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>923</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>932</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>941</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>949</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>956</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>963</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>970</c:v>
-                </c:pt>
                 <c:pt idx="55">
-                  <c:v>975</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>980</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>985</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>989</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>992</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>995</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>997</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>998</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>999</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1000</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>999</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>998</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>997</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>995</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>992</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>989</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>985</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>980</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>975</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>970</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>963</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>956</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>949</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>941</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>932</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>923</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>914</c:v>
+                  <c:v>228</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>903</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>893</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>881</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>870</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>857</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>844</c:v>
+                  <c:v>211</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>831</c:v>
+                  <c:v>207</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>817</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>803</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>788</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>773</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>757</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>740</c:v>
+                  <c:v>185</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>724</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>707</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>689</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>671</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>653</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>634</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>615</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>595</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>575</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>555</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>534</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>514</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>492</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>471</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>449</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>427</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>405</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>382</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>359</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>336</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>313</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>290</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>266</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>242</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>219</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>195</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>170</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>146</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>122</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>98</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>73</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>49</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>24</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="128">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="129">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="132">
                   <c:v>-24</c:v>
                 </c:pt>
-                <c:pt idx="130">
-                  <c:v>-49</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-73</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-98</c:v>
-                </c:pt>
                 <c:pt idx="133">
-                  <c:v>-122</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>-146</c:v>
+                  <c:v>-36</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>-170</c:v>
+                  <c:v>-42</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>-195</c:v>
+                  <c:v>-48</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>-219</c:v>
+                  <c:v>-54</c:v>
                 </c:pt>
                 <c:pt idx="138">
+                  <c:v>-60</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-66</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-78</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-84</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-89</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-95</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-101</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-106</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-112</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-117</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-123</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-128</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-133</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-138</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-143</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-148</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-153</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-158</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-163</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-167</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-172</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-176</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-181</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-185</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-189</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-193</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-197</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-200</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-204</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-207</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-211</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-214</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-217</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-220</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-223</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-225</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-228</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-230</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-233</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-235</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-237</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-239</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-240</c:v>
+                </c:pt>
+                <c:pt idx="182">
                   <c:v>-242</c:v>
                 </c:pt>
-                <c:pt idx="139">
-                  <c:v>-266</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>-290</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>-313</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>-336</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>-359</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>-382</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>-405</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>-427</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>-449</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>-471</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>-492</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>-514</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>-534</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>-555</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>-575</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>-595</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>-615</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>-634</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>-653</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>-671</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>-689</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>-707</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>-724</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>-740</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>-757</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>-773</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>-788</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>-803</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>-817</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>-831</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>-844</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>-857</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>-870</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>-881</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>-893</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>-903</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>-914</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>-923</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>-932</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>-941</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>-949</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>-956</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>-963</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>-970</c:v>
-                </c:pt>
                 <c:pt idx="183">
-                  <c:v>-975</c:v>
+                  <c:v>-243</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>-980</c:v>
+                  <c:v>-245</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>-985</c:v>
+                  <c:v>-246</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>-989</c:v>
+                  <c:v>-247</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>-992</c:v>
+                  <c:v>-248</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>-995</c:v>
+                  <c:v>-248</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>-997</c:v>
+                  <c:v>-249</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>-998</c:v>
+                  <c:v>-249</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>-999</c:v>
+                  <c:v>-249</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>-1000</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>-999</c:v>
+                  <c:v>-249</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>-998</c:v>
+                  <c:v>-249</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>-997</c:v>
+                  <c:v>-249</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>-995</c:v>
+                  <c:v>-248</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>-992</c:v>
+                  <c:v>-248</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>-989</c:v>
+                  <c:v>-247</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>-985</c:v>
+                  <c:v>-246</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>-980</c:v>
+                  <c:v>-245</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>-975</c:v>
+                  <c:v>-243</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>-970</c:v>
+                  <c:v>-242</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>-963</c:v>
+                  <c:v>-240</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>-956</c:v>
+                  <c:v>-239</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>-949</c:v>
+                  <c:v>-237</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>-941</c:v>
+                  <c:v>-235</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>-932</c:v>
+                  <c:v>-233</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>-923</c:v>
+                  <c:v>-230</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>-914</c:v>
+                  <c:v>-228</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>-903</c:v>
+                  <c:v>-225</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>-893</c:v>
+                  <c:v>-223</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>-881</c:v>
+                  <c:v>-220</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>-870</c:v>
+                  <c:v>-217</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>-857</c:v>
+                  <c:v>-214</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>-844</c:v>
+                  <c:v>-211</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>-831</c:v>
+                  <c:v>-207</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>-817</c:v>
+                  <c:v>-204</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>-803</c:v>
+                  <c:v>-200</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>-788</c:v>
+                  <c:v>-197</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>-773</c:v>
+                  <c:v>-193</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>-757</c:v>
+                  <c:v>-189</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>-740</c:v>
+                  <c:v>-185</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>-724</c:v>
+                  <c:v>-181</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>-707</c:v>
+                  <c:v>-176</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>-689</c:v>
+                  <c:v>-172</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>-671</c:v>
+                  <c:v>-167</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>-653</c:v>
+                  <c:v>-163</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>-634</c:v>
+                  <c:v>-158</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>-615</c:v>
+                  <c:v>-153</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>-595</c:v>
+                  <c:v>-148</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>-575</c:v>
+                  <c:v>-143</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>-555</c:v>
+                  <c:v>-138</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>-534</c:v>
+                  <c:v>-133</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>-514</c:v>
+                  <c:v>-128</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>-492</c:v>
+                  <c:v>-123</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>-471</c:v>
+                  <c:v>-117</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>-449</c:v>
+                  <c:v>-112</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>-427</c:v>
+                  <c:v>-106</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>-405</c:v>
+                  <c:v>-101</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>-382</c:v>
+                  <c:v>-95</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>-359</c:v>
+                  <c:v>-89</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>-336</c:v>
+                  <c:v>-84</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>-313</c:v>
+                  <c:v>-78</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>-290</c:v>
+                  <c:v>-72</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>-266</c:v>
+                  <c:v>-66</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>-242</c:v>
+                  <c:v>-60</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>-219</c:v>
+                  <c:v>-54</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>-195</c:v>
+                  <c:v>-48</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>-170</c:v>
+                  <c:v>-42</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>-146</c:v>
+                  <c:v>-36</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>-122</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>-98</c:v>
+                  <c:v>-24</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>-73</c:v>
+                  <c:v>-18</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>-49</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>-24</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2027,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="str">
-        <f>DEC2HEX(C2*500,4)</f>
+        <f>DEC2HEX(C2*250,4)</f>
         <v>0000</v>
       </c>
       <c r="E2">
@@ -2096,16 +2096,16 @@
         <v>2.4541228522912288E-2</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D66" si="2">DEC2HEX(C3*1000,4)</f>
-        <v>0018</v>
+        <f t="shared" ref="D3:D66" si="2">DEC2HEX(C3*250,4)</f>
+        <v>0006</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="3">HEX2DEC(D3)</f>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H3" s="1" t="str">
         <f t="shared" ref="H3:H66" si="4">CONCATENATE("X""",RIGHT(D3,4),""",")</f>
-        <v>X"0018",</v>
+        <v>X"0006",</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2122,15 +2122,15 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" si="2"/>
-        <v>0031</v>
+        <v>000C</v>
       </c>
       <c r="E4">
         <f t="shared" si="3"/>
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0031",</v>
+        <v>X"000C",</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2147,15 +2147,15 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="2"/>
-        <v>0049</v>
+        <v>0012</v>
       </c>
       <c r="E5">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0049",</v>
+        <v>X"0012",</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2172,15 +2172,15 @@
       </c>
       <c r="D6" t="str">
         <f t="shared" si="2"/>
-        <v>0062</v>
+        <v>0018</v>
       </c>
       <c r="E6">
         <f t="shared" si="3"/>
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0062",</v>
+        <v>X"0018",</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2197,15 +2197,15 @@
       </c>
       <c r="D7" t="str">
         <f t="shared" si="2"/>
-        <v>007A</v>
+        <v>001E</v>
       </c>
       <c r="E7">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="H7" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"007A",</v>
+        <v>X"001E",</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2222,15 +2222,15 @@
       </c>
       <c r="D8" t="str">
         <f t="shared" si="2"/>
-        <v>0092</v>
+        <v>0024</v>
       </c>
       <c r="E8">
         <f t="shared" si="3"/>
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="H8" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0092",</v>
+        <v>X"0024",</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2247,15 +2247,15 @@
       </c>
       <c r="D9" t="str">
         <f t="shared" si="2"/>
-        <v>00AA</v>
+        <v>002A</v>
       </c>
       <c r="E9">
         <f t="shared" si="3"/>
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="H9" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"00AA",</v>
+        <v>X"002A",</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2272,15 +2272,15 @@
       </c>
       <c r="D10" t="str">
         <f t="shared" si="2"/>
-        <v>00C3</v>
+        <v>0030</v>
       </c>
       <c r="E10">
         <f t="shared" si="3"/>
-        <v>195</v>
+        <v>48</v>
       </c>
       <c r="H10" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"00C3",</v>
+        <v>X"0030",</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2297,15 +2297,15 @@
       </c>
       <c r="D11" t="str">
         <f t="shared" si="2"/>
-        <v>00DB</v>
+        <v>0036</v>
       </c>
       <c r="E11">
         <f t="shared" si="3"/>
-        <v>219</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"00DB",</v>
+        <v>X"0036",</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2322,15 +2322,15 @@
       </c>
       <c r="D12" t="str">
         <f t="shared" si="2"/>
-        <v>00F2</v>
+        <v>003C</v>
       </c>
       <c r="E12">
         <f t="shared" si="3"/>
-        <v>242</v>
+        <v>60</v>
       </c>
       <c r="H12" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"00F2",</v>
+        <v>X"003C",</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2347,15 +2347,15 @@
       </c>
       <c r="D13" t="str">
         <f t="shared" si="2"/>
-        <v>010A</v>
+        <v>0042</v>
       </c>
       <c r="E13">
         <f t="shared" si="3"/>
-        <v>266</v>
+        <v>66</v>
       </c>
       <c r="H13" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"010A",</v>
+        <v>X"0042",</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -2372,15 +2372,15 @@
       </c>
       <c r="D14" t="str">
         <f t="shared" si="2"/>
-        <v>0122</v>
+        <v>0048</v>
       </c>
       <c r="E14">
         <f t="shared" si="3"/>
-        <v>290</v>
+        <v>72</v>
       </c>
       <c r="H14" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0122",</v>
+        <v>X"0048",</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2397,15 +2397,15 @@
       </c>
       <c r="D15" t="str">
         <f t="shared" si="2"/>
-        <v>0139</v>
+        <v>004E</v>
       </c>
       <c r="E15">
         <f t="shared" si="3"/>
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="H15" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0139",</v>
+        <v>X"004E",</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2422,15 +2422,15 @@
       </c>
       <c r="D16" t="str">
         <f t="shared" si="2"/>
-        <v>0150</v>
+        <v>0054</v>
       </c>
       <c r="E16">
         <f t="shared" si="3"/>
-        <v>336</v>
+        <v>84</v>
       </c>
       <c r="H16" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0150",</v>
+        <v>X"0054",</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -2447,15 +2447,15 @@
       </c>
       <c r="D17" t="str">
         <f t="shared" si="2"/>
-        <v>0167</v>
+        <v>0059</v>
       </c>
       <c r="E17">
         <f t="shared" si="3"/>
-        <v>359</v>
+        <v>89</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0167",</v>
+        <v>X"0059",</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -2472,15 +2472,15 @@
       </c>
       <c r="D18" t="str">
         <f t="shared" si="2"/>
-        <v>017E</v>
+        <v>005F</v>
       </c>
       <c r="E18">
         <f t="shared" si="3"/>
-        <v>382</v>
+        <v>95</v>
       </c>
       <c r="H18" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"017E",</v>
+        <v>X"005F",</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -2497,15 +2497,15 @@
       </c>
       <c r="D19" t="str">
         <f t="shared" si="2"/>
-        <v>0195</v>
+        <v>0065</v>
       </c>
       <c r="E19">
         <f t="shared" si="3"/>
-        <v>405</v>
+        <v>101</v>
       </c>
       <c r="H19" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0195",</v>
+        <v>X"0065",</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -2522,15 +2522,15 @@
       </c>
       <c r="D20" t="str">
         <f t="shared" si="2"/>
-        <v>01AB</v>
+        <v>006A</v>
       </c>
       <c r="E20">
         <f t="shared" si="3"/>
-        <v>427</v>
+        <v>106</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"01AB",</v>
+        <v>X"006A",</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2547,15 +2547,15 @@
       </c>
       <c r="D21" t="str">
         <f t="shared" si="2"/>
-        <v>01C1</v>
+        <v>0070</v>
       </c>
       <c r="E21">
         <f t="shared" si="3"/>
-        <v>449</v>
+        <v>112</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"01C1",</v>
+        <v>X"0070",</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -2572,15 +2572,15 @@
       </c>
       <c r="D22" t="str">
         <f t="shared" si="2"/>
-        <v>01D7</v>
+        <v>0075</v>
       </c>
       <c r="E22">
         <f t="shared" si="3"/>
-        <v>471</v>
+        <v>117</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"01D7",</v>
+        <v>X"0075",</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -2597,15 +2597,15 @@
       </c>
       <c r="D23" t="str">
         <f t="shared" si="2"/>
-        <v>01EC</v>
+        <v>007B</v>
       </c>
       <c r="E23">
         <f t="shared" si="3"/>
-        <v>492</v>
+        <v>123</v>
       </c>
       <c r="H23" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"01EC",</v>
+        <v>X"007B",</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2622,15 +2622,15 @@
       </c>
       <c r="D24" t="str">
         <f t="shared" si="2"/>
-        <v>0202</v>
+        <v>0080</v>
       </c>
       <c r="E24">
         <f t="shared" si="3"/>
-        <v>514</v>
+        <v>128</v>
       </c>
       <c r="H24" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0202",</v>
+        <v>X"0080",</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2647,15 +2647,15 @@
       </c>
       <c r="D25" t="str">
         <f t="shared" si="2"/>
-        <v>0216</v>
+        <v>0085</v>
       </c>
       <c r="E25">
         <f t="shared" si="3"/>
-        <v>534</v>
+        <v>133</v>
       </c>
       <c r="H25" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0216",</v>
+        <v>X"0085",</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2672,15 +2672,15 @@
       </c>
       <c r="D26" t="str">
         <f t="shared" si="2"/>
-        <v>022B</v>
+        <v>008A</v>
       </c>
       <c r="E26">
         <f t="shared" si="3"/>
-        <v>555</v>
+        <v>138</v>
       </c>
       <c r="H26" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"022B",</v>
+        <v>X"008A",</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2697,15 +2697,15 @@
       </c>
       <c r="D27" t="str">
         <f t="shared" si="2"/>
-        <v>023F</v>
+        <v>008F</v>
       </c>
       <c r="E27">
         <f t="shared" si="3"/>
-        <v>575</v>
+        <v>143</v>
       </c>
       <c r="H27" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"023F",</v>
+        <v>X"008F",</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -2722,15 +2722,15 @@
       </c>
       <c r="D28" t="str">
         <f t="shared" si="2"/>
-        <v>0253</v>
+        <v>0094</v>
       </c>
       <c r="E28">
         <f t="shared" si="3"/>
-        <v>595</v>
+        <v>148</v>
       </c>
       <c r="H28" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0253",</v>
+        <v>X"0094",</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -2747,15 +2747,15 @@
       </c>
       <c r="D29" t="str">
         <f t="shared" si="2"/>
-        <v>0267</v>
+        <v>0099</v>
       </c>
       <c r="E29">
         <f t="shared" si="3"/>
-        <v>615</v>
+        <v>153</v>
       </c>
       <c r="H29" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0267",</v>
+        <v>X"0099",</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2772,15 +2772,15 @@
       </c>
       <c r="D30" t="str">
         <f t="shared" si="2"/>
-        <v>027A</v>
+        <v>009E</v>
       </c>
       <c r="E30">
         <f t="shared" si="3"/>
-        <v>634</v>
+        <v>158</v>
       </c>
       <c r="H30" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"027A",</v>
+        <v>X"009E",</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -2797,15 +2797,15 @@
       </c>
       <c r="D31" t="str">
         <f t="shared" si="2"/>
-        <v>028D</v>
+        <v>00A3</v>
       </c>
       <c r="E31">
         <f t="shared" si="3"/>
-        <v>653</v>
+        <v>163</v>
       </c>
       <c r="H31" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"028D",</v>
+        <v>X"00A3",</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -2822,15 +2822,15 @@
       </c>
       <c r="D32" t="str">
         <f t="shared" si="2"/>
-        <v>029F</v>
+        <v>00A7</v>
       </c>
       <c r="E32">
         <f t="shared" si="3"/>
-        <v>671</v>
+        <v>167</v>
       </c>
       <c r="H32" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"029F",</v>
+        <v>X"00A7",</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2847,15 +2847,15 @@
       </c>
       <c r="D33" t="str">
         <f t="shared" si="2"/>
-        <v>02B1</v>
+        <v>00AC</v>
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
-        <v>689</v>
+        <v>172</v>
       </c>
       <c r="H33" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"02B1",</v>
+        <v>X"00AC",</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2872,15 +2872,15 @@
       </c>
       <c r="D34" t="str">
         <f t="shared" si="2"/>
-        <v>02C3</v>
+        <v>00B0</v>
       </c>
       <c r="E34">
         <f t="shared" si="3"/>
-        <v>707</v>
+        <v>176</v>
       </c>
       <c r="H34" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"02C3",</v>
+        <v>X"00B0",</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2897,15 +2897,15 @@
       </c>
       <c r="D35" t="str">
         <f t="shared" si="2"/>
-        <v>02D4</v>
+        <v>00B5</v>
       </c>
       <c r="E35">
         <f t="shared" si="3"/>
-        <v>724</v>
+        <v>181</v>
       </c>
       <c r="H35" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"02D4",</v>
+        <v>X"00B5",</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2922,15 +2922,15 @@
       </c>
       <c r="D36" t="str">
         <f t="shared" si="2"/>
-        <v>02E4</v>
+        <v>00B9</v>
       </c>
       <c r="E36">
         <f t="shared" si="3"/>
-        <v>740</v>
+        <v>185</v>
       </c>
       <c r="H36" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"02E4",</v>
+        <v>X"00B9",</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2947,15 +2947,15 @@
       </c>
       <c r="D37" t="str">
         <f t="shared" si="2"/>
-        <v>02F5</v>
+        <v>00BD</v>
       </c>
       <c r="E37">
         <f t="shared" si="3"/>
-        <v>757</v>
+        <v>189</v>
       </c>
       <c r="H37" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"02F5",</v>
+        <v>X"00BD",</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2972,15 +2972,15 @@
       </c>
       <c r="D38" t="str">
         <f t="shared" si="2"/>
-        <v>0305</v>
+        <v>00C1</v>
       </c>
       <c r="E38">
         <f t="shared" si="3"/>
-        <v>773</v>
+        <v>193</v>
       </c>
       <c r="H38" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0305",</v>
+        <v>X"00C1",</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2997,15 +2997,15 @@
       </c>
       <c r="D39" t="str">
         <f t="shared" si="2"/>
-        <v>0314</v>
+        <v>00C5</v>
       </c>
       <c r="E39">
         <f t="shared" si="3"/>
-        <v>788</v>
+        <v>197</v>
       </c>
       <c r="H39" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0314",</v>
+        <v>X"00C5",</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3022,15 +3022,15 @@
       </c>
       <c r="D40" t="str">
         <f t="shared" si="2"/>
-        <v>0323</v>
+        <v>00C8</v>
       </c>
       <c r="E40">
         <f t="shared" si="3"/>
-        <v>803</v>
+        <v>200</v>
       </c>
       <c r="H40" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0323",</v>
+        <v>X"00C8",</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -3047,15 +3047,15 @@
       </c>
       <c r="D41" t="str">
         <f t="shared" si="2"/>
-        <v>0331</v>
+        <v>00CC</v>
       </c>
       <c r="E41">
         <f t="shared" si="3"/>
-        <v>817</v>
+        <v>204</v>
       </c>
       <c r="H41" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0331",</v>
+        <v>X"00CC",</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -3072,15 +3072,15 @@
       </c>
       <c r="D42" t="str">
         <f t="shared" si="2"/>
-        <v>033F</v>
+        <v>00CF</v>
       </c>
       <c r="E42">
         <f t="shared" si="3"/>
-        <v>831</v>
+        <v>207</v>
       </c>
       <c r="H42" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"033F",</v>
+        <v>X"00CF",</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -3097,15 +3097,15 @@
       </c>
       <c r="D43" t="str">
         <f t="shared" si="2"/>
-        <v>034C</v>
+        <v>00D3</v>
       </c>
       <c r="E43">
         <f t="shared" si="3"/>
-        <v>844</v>
+        <v>211</v>
       </c>
       <c r="H43" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"034C",</v>
+        <v>X"00D3",</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -3122,15 +3122,15 @@
       </c>
       <c r="D44" t="str">
         <f t="shared" si="2"/>
-        <v>0359</v>
+        <v>00D6</v>
       </c>
       <c r="E44">
         <f t="shared" si="3"/>
-        <v>857</v>
+        <v>214</v>
       </c>
       <c r="H44" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0359",</v>
+        <v>X"00D6",</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -3147,15 +3147,15 @@
       </c>
       <c r="D45" t="str">
         <f t="shared" si="2"/>
-        <v>0366</v>
+        <v>00D9</v>
       </c>
       <c r="E45">
         <f t="shared" si="3"/>
-        <v>870</v>
+        <v>217</v>
       </c>
       <c r="H45" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0366",</v>
+        <v>X"00D9",</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -3172,15 +3172,15 @@
       </c>
       <c r="D46" t="str">
         <f t="shared" si="2"/>
-        <v>0371</v>
+        <v>00DC</v>
       </c>
       <c r="E46">
         <f t="shared" si="3"/>
-        <v>881</v>
+        <v>220</v>
       </c>
       <c r="H46" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0371",</v>
+        <v>X"00DC",</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3197,15 +3197,15 @@
       </c>
       <c r="D47" t="str">
         <f t="shared" si="2"/>
-        <v>037D</v>
+        <v>00DF</v>
       </c>
       <c r="E47">
         <f t="shared" si="3"/>
-        <v>893</v>
+        <v>223</v>
       </c>
       <c r="H47" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"037D",</v>
+        <v>X"00DF",</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -3222,15 +3222,15 @@
       </c>
       <c r="D48" t="str">
         <f t="shared" si="2"/>
-        <v>0387</v>
+        <v>00E1</v>
       </c>
       <c r="E48">
         <f t="shared" si="3"/>
-        <v>903</v>
+        <v>225</v>
       </c>
       <c r="H48" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0387",</v>
+        <v>X"00E1",</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -3247,15 +3247,15 @@
       </c>
       <c r="D49" t="str">
         <f t="shared" si="2"/>
-        <v>0392</v>
+        <v>00E4</v>
       </c>
       <c r="E49">
         <f t="shared" si="3"/>
-        <v>914</v>
+        <v>228</v>
       </c>
       <c r="H49" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"0392",</v>
+        <v>X"00E4",</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -3272,15 +3272,15 @@
       </c>
       <c r="D50" t="str">
         <f t="shared" si="2"/>
-        <v>039B</v>
+        <v>00E6</v>
       </c>
       <c r="E50">
         <f t="shared" si="3"/>
-        <v>923</v>
+        <v>230</v>
       </c>
       <c r="H50" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"039B",</v>
+        <v>X"00E6",</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -3297,15 +3297,15 @@
       </c>
       <c r="D51" t="str">
         <f t="shared" si="2"/>
-        <v>03A4</v>
+        <v>00E9</v>
       </c>
       <c r="E51">
         <f t="shared" si="3"/>
-        <v>932</v>
+        <v>233</v>
       </c>
       <c r="H51" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"03A4",</v>
+        <v>X"00E9",</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3322,15 +3322,15 @@
       </c>
       <c r="D52" t="str">
         <f t="shared" si="2"/>
-        <v>03AD</v>
+        <v>00EB</v>
       </c>
       <c r="E52">
         <f t="shared" si="3"/>
-        <v>941</v>
+        <v>235</v>
       </c>
       <c r="H52" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"03AD",</v>
+        <v>X"00EB",</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -3347,15 +3347,15 @@
       </c>
       <c r="D53" t="str">
         <f t="shared" si="2"/>
-        <v>03B5</v>
+        <v>00ED</v>
       </c>
       <c r="E53">
         <f t="shared" si="3"/>
-        <v>949</v>
+        <v>237</v>
       </c>
       <c r="H53" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"03B5",</v>
+        <v>X"00ED",</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3372,15 +3372,15 @@
       </c>
       <c r="D54" t="str">
         <f t="shared" si="2"/>
-        <v>03BC</v>
+        <v>00EF</v>
       </c>
       <c r="E54">
         <f t="shared" si="3"/>
-        <v>956</v>
+        <v>239</v>
       </c>
       <c r="H54" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"03BC",</v>
+        <v>X"00EF",</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -3397,15 +3397,15 @@
       </c>
       <c r="D55" t="str">
         <f t="shared" si="2"/>
-        <v>03C3</v>
+        <v>00F0</v>
       </c>
       <c r="E55">
         <f t="shared" si="3"/>
-        <v>963</v>
+        <v>240</v>
       </c>
       <c r="H55" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"03C3",</v>
+        <v>X"00F0",</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -3422,15 +3422,15 @@
       </c>
       <c r="D56" t="str">
         <f t="shared" si="2"/>
-        <v>03CA</v>
+        <v>00F2</v>
       </c>
       <c r="E56">
         <f t="shared" si="3"/>
-        <v>970</v>
+        <v>242</v>
       </c>
       <c r="H56" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"03CA",</v>
+        <v>X"00F2",</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3447,15 +3447,15 @@
       </c>
       <c r="D57" t="str">
         <f t="shared" si="2"/>
-        <v>03CF</v>
+        <v>00F3</v>
       </c>
       <c r="E57">
         <f t="shared" si="3"/>
-        <v>975</v>
+        <v>243</v>
       </c>
       <c r="H57" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"03CF",</v>
+        <v>X"00F3",</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -3472,15 +3472,15 @@
       </c>
       <c r="D58" t="str">
         <f t="shared" si="2"/>
-        <v>03D4</v>
+        <v>00F5</v>
       </c>
       <c r="E58">
         <f t="shared" si="3"/>
-        <v>980</v>
+        <v>245</v>
       </c>
       <c r="H58" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"03D4",</v>
+        <v>X"00F5",</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -3497,15 +3497,15 @@
       </c>
       <c r="D59" t="str">
         <f t="shared" si="2"/>
-        <v>03D9</v>
+        <v>00F6</v>
       </c>
       <c r="E59">
         <f t="shared" si="3"/>
-        <v>985</v>
+        <v>246</v>
       </c>
       <c r="H59" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"03D9",</v>
+        <v>X"00F6",</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -3522,15 +3522,15 @@
       </c>
       <c r="D60" t="str">
         <f t="shared" si="2"/>
-        <v>03DD</v>
+        <v>00F7</v>
       </c>
       <c r="E60">
         <f t="shared" si="3"/>
-        <v>989</v>
+        <v>247</v>
       </c>
       <c r="H60" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"03DD",</v>
+        <v>X"00F7",</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -3547,15 +3547,15 @@
       </c>
       <c r="D61" t="str">
         <f t="shared" si="2"/>
-        <v>03E0</v>
+        <v>00F8</v>
       </c>
       <c r="E61">
         <f t="shared" si="3"/>
-        <v>992</v>
+        <v>248</v>
       </c>
       <c r="H61" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"03E0",</v>
+        <v>X"00F8",</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3572,15 +3572,15 @@
       </c>
       <c r="D62" t="str">
         <f t="shared" si="2"/>
-        <v>03E3</v>
+        <v>00F8</v>
       </c>
       <c r="E62">
         <f t="shared" si="3"/>
-        <v>995</v>
+        <v>248</v>
       </c>
       <c r="H62" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"03E3",</v>
+        <v>X"00F8",</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -3597,15 +3597,15 @@
       </c>
       <c r="D63" t="str">
         <f t="shared" si="2"/>
-        <v>03E5</v>
+        <v>00F9</v>
       </c>
       <c r="E63">
         <f t="shared" si="3"/>
-        <v>997</v>
+        <v>249</v>
       </c>
       <c r="H63" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"03E5",</v>
+        <v>X"00F9",</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -3622,15 +3622,15 @@
       </c>
       <c r="D64" t="str">
         <f t="shared" si="2"/>
-        <v>03E6</v>
+        <v>00F9</v>
       </c>
       <c r="E64">
         <f t="shared" si="3"/>
-        <v>998</v>
+        <v>249</v>
       </c>
       <c r="H64" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"03E6",</v>
+        <v>X"00F9",</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -3647,15 +3647,15 @@
       </c>
       <c r="D65" t="str">
         <f t="shared" si="2"/>
-        <v>03E7</v>
+        <v>00F9</v>
       </c>
       <c r="E65">
         <f t="shared" si="3"/>
-        <v>999</v>
+        <v>249</v>
       </c>
       <c r="H65" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"03E7",</v>
+        <v>X"00F9",</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3672,15 +3672,15 @@
       </c>
       <c r="D66" t="str">
         <f t="shared" si="2"/>
-        <v>03E8</v>
+        <v>00FA</v>
       </c>
       <c r="E66">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="H66" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>X"03E8",</v>
+        <v>X"00FA",</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3696,16 +3696,16 @@
         <v>0.99969881869620425</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D130" si="7">DEC2HEX(C67*1000,4)</f>
-        <v>03E7</v>
+        <f t="shared" ref="D67:D130" si="7">DEC2HEX(C67*250,4)</f>
+        <v>00F9</v>
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" si="8">HEX2DEC(D67)</f>
-        <v>999</v>
+        <v>249</v>
       </c>
       <c r="H67" s="1" t="str">
         <f t="shared" ref="H67:H130" si="9">CONCATENATE("X""",RIGHT(D67,4),""",")</f>
-        <v>X"03E7",</v>
+        <v>X"00F9",</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -3722,15 +3722,15 @@
       </c>
       <c r="D68" t="str">
         <f t="shared" si="7"/>
-        <v>03E6</v>
+        <v>00F9</v>
       </c>
       <c r="E68">
         <f t="shared" si="8"/>
-        <v>998</v>
+        <v>249</v>
       </c>
       <c r="H68" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"03E6",</v>
+        <v>X"00F9",</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3747,15 +3747,15 @@
       </c>
       <c r="D69" t="str">
         <f t="shared" si="7"/>
-        <v>03E5</v>
+        <v>00F9</v>
       </c>
       <c r="E69">
         <f t="shared" si="8"/>
-        <v>997</v>
+        <v>249</v>
       </c>
       <c r="H69" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"03E5",</v>
+        <v>X"00F9",</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -3772,15 +3772,15 @@
       </c>
       <c r="D70" t="str">
         <f t="shared" si="7"/>
-        <v>03E3</v>
+        <v>00F8</v>
       </c>
       <c r="E70">
         <f t="shared" si="8"/>
-        <v>995</v>
+        <v>248</v>
       </c>
       <c r="H70" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"03E3",</v>
+        <v>X"00F8",</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -3797,15 +3797,15 @@
       </c>
       <c r="D71" t="str">
         <f t="shared" si="7"/>
-        <v>03E0</v>
+        <v>00F8</v>
       </c>
       <c r="E71">
         <f t="shared" si="8"/>
-        <v>992</v>
+        <v>248</v>
       </c>
       <c r="H71" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"03E0",</v>
+        <v>X"00F8",</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -3822,15 +3822,15 @@
       </c>
       <c r="D72" t="str">
         <f t="shared" si="7"/>
-        <v>03DD</v>
+        <v>00F7</v>
       </c>
       <c r="E72">
         <f t="shared" si="8"/>
-        <v>989</v>
+        <v>247</v>
       </c>
       <c r="H72" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"03DD",</v>
+        <v>X"00F7",</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="D73" t="str">
         <f t="shared" si="7"/>
-        <v>03D9</v>
+        <v>00F6</v>
       </c>
       <c r="E73">
         <f t="shared" si="8"/>
-        <v>985</v>
+        <v>246</v>
       </c>
       <c r="H73" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"03D9",</v>
+        <v>X"00F6",</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -3872,15 +3872,15 @@
       </c>
       <c r="D74" t="str">
         <f t="shared" si="7"/>
-        <v>03D4</v>
+        <v>00F5</v>
       </c>
       <c r="E74">
         <f t="shared" si="8"/>
-        <v>980</v>
+        <v>245</v>
       </c>
       <c r="H74" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"03D4",</v>
+        <v>X"00F5",</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -3897,15 +3897,15 @@
       </c>
       <c r="D75" t="str">
         <f t="shared" si="7"/>
-        <v>03CF</v>
+        <v>00F3</v>
       </c>
       <c r="E75">
         <f t="shared" si="8"/>
-        <v>975</v>
+        <v>243</v>
       </c>
       <c r="H75" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"03CF",</v>
+        <v>X"00F3",</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3922,15 +3922,15 @@
       </c>
       <c r="D76" t="str">
         <f t="shared" si="7"/>
-        <v>03CA</v>
+        <v>00F2</v>
       </c>
       <c r="E76">
         <f t="shared" si="8"/>
-        <v>970</v>
+        <v>242</v>
       </c>
       <c r="H76" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"03CA",</v>
+        <v>X"00F2",</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3947,15 +3947,15 @@
       </c>
       <c r="D77" t="str">
         <f t="shared" si="7"/>
-        <v>03C3</v>
+        <v>00F0</v>
       </c>
       <c r="E77">
         <f t="shared" si="8"/>
-        <v>963</v>
+        <v>240</v>
       </c>
       <c r="H77" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"03C3",</v>
+        <v>X"00F0",</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -3972,15 +3972,15 @@
       </c>
       <c r="D78" t="str">
         <f t="shared" si="7"/>
-        <v>03BC</v>
+        <v>00EF</v>
       </c>
       <c r="E78">
         <f t="shared" si="8"/>
-        <v>956</v>
+        <v>239</v>
       </c>
       <c r="H78" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"03BC",</v>
+        <v>X"00EF",</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -3997,15 +3997,15 @@
       </c>
       <c r="D79" t="str">
         <f t="shared" si="7"/>
-        <v>03B5</v>
+        <v>00ED</v>
       </c>
       <c r="E79">
         <f t="shared" si="8"/>
-        <v>949</v>
+        <v>237</v>
       </c>
       <c r="H79" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"03B5",</v>
+        <v>X"00ED",</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -4022,15 +4022,15 @@
       </c>
       <c r="D80" t="str">
         <f t="shared" si="7"/>
-        <v>03AD</v>
+        <v>00EB</v>
       </c>
       <c r="E80">
         <f t="shared" si="8"/>
-        <v>941</v>
+        <v>235</v>
       </c>
       <c r="H80" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"03AD",</v>
+        <v>X"00EB",</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -4047,15 +4047,15 @@
       </c>
       <c r="D81" t="str">
         <f t="shared" si="7"/>
-        <v>03A4</v>
+        <v>00E9</v>
       </c>
       <c r="E81">
         <f t="shared" si="8"/>
-        <v>932</v>
+        <v>233</v>
       </c>
       <c r="H81" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"03A4",</v>
+        <v>X"00E9",</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -4072,15 +4072,15 @@
       </c>
       <c r="D82" t="str">
         <f t="shared" si="7"/>
-        <v>039B</v>
+        <v>00E6</v>
       </c>
       <c r="E82">
         <f t="shared" si="8"/>
-        <v>923</v>
+        <v>230</v>
       </c>
       <c r="H82" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"039B",</v>
+        <v>X"00E6",</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -4097,15 +4097,15 @@
       </c>
       <c r="D83" t="str">
         <f t="shared" si="7"/>
-        <v>0392</v>
+        <v>00E4</v>
       </c>
       <c r="E83">
         <f t="shared" si="8"/>
-        <v>914</v>
+        <v>228</v>
       </c>
       <c r="H83" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0392",</v>
+        <v>X"00E4",</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -4122,15 +4122,15 @@
       </c>
       <c r="D84" t="str">
         <f t="shared" si="7"/>
-        <v>0387</v>
+        <v>00E1</v>
       </c>
       <c r="E84">
         <f t="shared" si="8"/>
-        <v>903</v>
+        <v>225</v>
       </c>
       <c r="H84" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0387",</v>
+        <v>X"00E1",</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -4147,15 +4147,15 @@
       </c>
       <c r="D85" t="str">
         <f t="shared" si="7"/>
-        <v>037D</v>
+        <v>00DF</v>
       </c>
       <c r="E85">
         <f t="shared" si="8"/>
-        <v>893</v>
+        <v>223</v>
       </c>
       <c r="H85" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"037D",</v>
+        <v>X"00DF",</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -4172,15 +4172,15 @@
       </c>
       <c r="D86" t="str">
         <f t="shared" si="7"/>
-        <v>0371</v>
+        <v>00DC</v>
       </c>
       <c r="E86">
         <f t="shared" si="8"/>
-        <v>881</v>
+        <v>220</v>
       </c>
       <c r="H86" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0371",</v>
+        <v>X"00DC",</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -4197,15 +4197,15 @@
       </c>
       <c r="D87" t="str">
         <f t="shared" si="7"/>
-        <v>0366</v>
+        <v>00D9</v>
       </c>
       <c r="E87">
         <f t="shared" si="8"/>
-        <v>870</v>
+        <v>217</v>
       </c>
       <c r="H87" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0366",</v>
+        <v>X"00D9",</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -4222,15 +4222,15 @@
       </c>
       <c r="D88" t="str">
         <f t="shared" si="7"/>
-        <v>0359</v>
+        <v>00D6</v>
       </c>
       <c r="E88">
         <f t="shared" si="8"/>
-        <v>857</v>
+        <v>214</v>
       </c>
       <c r="H88" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0359",</v>
+        <v>X"00D6",</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -4247,15 +4247,15 @@
       </c>
       <c r="D89" t="str">
         <f t="shared" si="7"/>
-        <v>034C</v>
+        <v>00D3</v>
       </c>
       <c r="E89">
         <f t="shared" si="8"/>
-        <v>844</v>
+        <v>211</v>
       </c>
       <c r="H89" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"034C",</v>
+        <v>X"00D3",</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -4272,15 +4272,15 @@
       </c>
       <c r="D90" t="str">
         <f t="shared" si="7"/>
-        <v>033F</v>
+        <v>00CF</v>
       </c>
       <c r="E90">
         <f t="shared" si="8"/>
-        <v>831</v>
+        <v>207</v>
       </c>
       <c r="H90" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"033F",</v>
+        <v>X"00CF",</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -4297,15 +4297,15 @@
       </c>
       <c r="D91" t="str">
         <f t="shared" si="7"/>
-        <v>0331</v>
+        <v>00CC</v>
       </c>
       <c r="E91">
         <f t="shared" si="8"/>
-        <v>817</v>
+        <v>204</v>
       </c>
       <c r="H91" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0331",</v>
+        <v>X"00CC",</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -4322,15 +4322,15 @@
       </c>
       <c r="D92" t="str">
         <f t="shared" si="7"/>
-        <v>0323</v>
+        <v>00C8</v>
       </c>
       <c r="E92">
         <f t="shared" si="8"/>
-        <v>803</v>
+        <v>200</v>
       </c>
       <c r="H92" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0323",</v>
+        <v>X"00C8",</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -4347,15 +4347,15 @@
       </c>
       <c r="D93" t="str">
         <f t="shared" si="7"/>
-        <v>0314</v>
+        <v>00C5</v>
       </c>
       <c r="E93">
         <f t="shared" si="8"/>
-        <v>788</v>
+        <v>197</v>
       </c>
       <c r="H93" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0314",</v>
+        <v>X"00C5",</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -4372,15 +4372,15 @@
       </c>
       <c r="D94" t="str">
         <f t="shared" si="7"/>
-        <v>0305</v>
+        <v>00C1</v>
       </c>
       <c r="E94">
         <f t="shared" si="8"/>
-        <v>773</v>
+        <v>193</v>
       </c>
       <c r="H94" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0305",</v>
+        <v>X"00C1",</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -4397,15 +4397,15 @@
       </c>
       <c r="D95" t="str">
         <f t="shared" si="7"/>
-        <v>02F5</v>
+        <v>00BD</v>
       </c>
       <c r="E95">
         <f t="shared" si="8"/>
-        <v>757</v>
+        <v>189</v>
       </c>
       <c r="H95" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"02F5",</v>
+        <v>X"00BD",</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -4422,15 +4422,15 @@
       </c>
       <c r="D96" t="str">
         <f t="shared" si="7"/>
-        <v>02E4</v>
+        <v>00B9</v>
       </c>
       <c r="E96">
         <f t="shared" si="8"/>
-        <v>740</v>
+        <v>185</v>
       </c>
       <c r="H96" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"02E4",</v>
+        <v>X"00B9",</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -4447,15 +4447,15 @@
       </c>
       <c r="D97" t="str">
         <f t="shared" si="7"/>
-        <v>02D4</v>
+        <v>00B5</v>
       </c>
       <c r="E97">
         <f t="shared" si="8"/>
-        <v>724</v>
+        <v>181</v>
       </c>
       <c r="H97" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"02D4",</v>
+        <v>X"00B5",</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -4472,15 +4472,15 @@
       </c>
       <c r="D98" t="str">
         <f t="shared" si="7"/>
-        <v>02C3</v>
+        <v>00B0</v>
       </c>
       <c r="E98">
         <f t="shared" si="8"/>
-        <v>707</v>
+        <v>176</v>
       </c>
       <c r="H98" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"02C3",</v>
+        <v>X"00B0",</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -4497,15 +4497,15 @@
       </c>
       <c r="D99" t="str">
         <f t="shared" si="7"/>
-        <v>02B1</v>
+        <v>00AC</v>
       </c>
       <c r="E99">
         <f t="shared" si="8"/>
-        <v>689</v>
+        <v>172</v>
       </c>
       <c r="H99" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"02B1",</v>
+        <v>X"00AC",</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -4522,15 +4522,15 @@
       </c>
       <c r="D100" t="str">
         <f t="shared" si="7"/>
-        <v>029F</v>
+        <v>00A7</v>
       </c>
       <c r="E100">
         <f t="shared" si="8"/>
-        <v>671</v>
+        <v>167</v>
       </c>
       <c r="H100" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"029F",</v>
+        <v>X"00A7",</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -4547,15 +4547,15 @@
       </c>
       <c r="D101" t="str">
         <f t="shared" si="7"/>
-        <v>028D</v>
+        <v>00A3</v>
       </c>
       <c r="E101">
         <f t="shared" si="8"/>
-        <v>653</v>
+        <v>163</v>
       </c>
       <c r="H101" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"028D",</v>
+        <v>X"00A3",</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -4572,15 +4572,15 @@
       </c>
       <c r="D102" t="str">
         <f t="shared" si="7"/>
-        <v>027A</v>
+        <v>009E</v>
       </c>
       <c r="E102">
         <f t="shared" si="8"/>
-        <v>634</v>
+        <v>158</v>
       </c>
       <c r="H102" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"027A",</v>
+        <v>X"009E",</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -4597,15 +4597,15 @@
       </c>
       <c r="D103" t="str">
         <f t="shared" si="7"/>
-        <v>0267</v>
+        <v>0099</v>
       </c>
       <c r="E103">
         <f t="shared" si="8"/>
-        <v>615</v>
+        <v>153</v>
       </c>
       <c r="H103" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0267",</v>
+        <v>X"0099",</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -4622,15 +4622,15 @@
       </c>
       <c r="D104" t="str">
         <f t="shared" si="7"/>
-        <v>0253</v>
+        <v>0094</v>
       </c>
       <c r="E104">
         <f t="shared" si="8"/>
-        <v>595</v>
+        <v>148</v>
       </c>
       <c r="H104" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0253",</v>
+        <v>X"0094",</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -4647,15 +4647,15 @@
       </c>
       <c r="D105" t="str">
         <f t="shared" si="7"/>
-        <v>023F</v>
+        <v>008F</v>
       </c>
       <c r="E105">
         <f t="shared" si="8"/>
-        <v>575</v>
+        <v>143</v>
       </c>
       <c r="H105" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"023F",</v>
+        <v>X"008F",</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -4672,15 +4672,15 @@
       </c>
       <c r="D106" t="str">
         <f t="shared" si="7"/>
-        <v>022B</v>
+        <v>008A</v>
       </c>
       <c r="E106">
         <f t="shared" si="8"/>
-        <v>555</v>
+        <v>138</v>
       </c>
       <c r="H106" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"022B",</v>
+        <v>X"008A",</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -4697,15 +4697,15 @@
       </c>
       <c r="D107" t="str">
         <f t="shared" si="7"/>
-        <v>0216</v>
+        <v>0085</v>
       </c>
       <c r="E107">
         <f t="shared" si="8"/>
-        <v>534</v>
+        <v>133</v>
       </c>
       <c r="H107" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0216",</v>
+        <v>X"0085",</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -4722,15 +4722,15 @@
       </c>
       <c r="D108" t="str">
         <f t="shared" si="7"/>
-        <v>0202</v>
+        <v>0080</v>
       </c>
       <c r="E108">
         <f t="shared" si="8"/>
-        <v>514</v>
+        <v>128</v>
       </c>
       <c r="H108" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0202",</v>
+        <v>X"0080",</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -4747,15 +4747,15 @@
       </c>
       <c r="D109" t="str">
         <f t="shared" si="7"/>
-        <v>01EC</v>
+        <v>007B</v>
       </c>
       <c r="E109">
         <f t="shared" si="8"/>
-        <v>492</v>
+        <v>123</v>
       </c>
       <c r="H109" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"01EC",</v>
+        <v>X"007B",</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4772,15 +4772,15 @@
       </c>
       <c r="D110" t="str">
         <f t="shared" si="7"/>
-        <v>01D7</v>
+        <v>0075</v>
       </c>
       <c r="E110">
         <f t="shared" si="8"/>
-        <v>471</v>
+        <v>117</v>
       </c>
       <c r="H110" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"01D7",</v>
+        <v>X"0075",</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -4797,15 +4797,15 @@
       </c>
       <c r="D111" t="str">
         <f t="shared" si="7"/>
-        <v>01C1</v>
+        <v>0070</v>
       </c>
       <c r="E111">
         <f t="shared" si="8"/>
-        <v>449</v>
+        <v>112</v>
       </c>
       <c r="H111" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"01C1",</v>
+        <v>X"0070",</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -4822,15 +4822,15 @@
       </c>
       <c r="D112" t="str">
         <f t="shared" si="7"/>
-        <v>01AB</v>
+        <v>006A</v>
       </c>
       <c r="E112">
         <f t="shared" si="8"/>
-        <v>427</v>
+        <v>106</v>
       </c>
       <c r="H112" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"01AB",</v>
+        <v>X"006A",</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -4847,15 +4847,15 @@
       </c>
       <c r="D113" t="str">
         <f t="shared" si="7"/>
-        <v>0195</v>
+        <v>0065</v>
       </c>
       <c r="E113">
         <f t="shared" si="8"/>
-        <v>405</v>
+        <v>101</v>
       </c>
       <c r="H113" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0195",</v>
+        <v>X"0065",</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -4872,15 +4872,15 @@
       </c>
       <c r="D114" t="str">
         <f t="shared" si="7"/>
-        <v>017E</v>
+        <v>005F</v>
       </c>
       <c r="E114">
         <f t="shared" si="8"/>
-        <v>382</v>
+        <v>95</v>
       </c>
       <c r="H114" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"017E",</v>
+        <v>X"005F",</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -4897,15 +4897,15 @@
       </c>
       <c r="D115" t="str">
         <f t="shared" si="7"/>
-        <v>0167</v>
+        <v>0059</v>
       </c>
       <c r="E115">
         <f t="shared" si="8"/>
-        <v>359</v>
+        <v>89</v>
       </c>
       <c r="H115" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0167",</v>
+        <v>X"0059",</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -4922,15 +4922,15 @@
       </c>
       <c r="D116" t="str">
         <f t="shared" si="7"/>
-        <v>0150</v>
+        <v>0054</v>
       </c>
       <c r="E116">
         <f t="shared" si="8"/>
-        <v>336</v>
+        <v>84</v>
       </c>
       <c r="H116" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0150",</v>
+        <v>X"0054",</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
@@ -4947,15 +4947,15 @@
       </c>
       <c r="D117" t="str">
         <f t="shared" si="7"/>
-        <v>0139</v>
+        <v>004E</v>
       </c>
       <c r="E117">
         <f t="shared" si="8"/>
-        <v>313</v>
+        <v>78</v>
       </c>
       <c r="H117" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0139",</v>
+        <v>X"004E",</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -4972,15 +4972,15 @@
       </c>
       <c r="D118" t="str">
         <f t="shared" si="7"/>
-        <v>0122</v>
+        <v>0048</v>
       </c>
       <c r="E118">
         <f t="shared" si="8"/>
-        <v>290</v>
+        <v>72</v>
       </c>
       <c r="H118" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0122",</v>
+        <v>X"0048",</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
@@ -4997,15 +4997,15 @@
       </c>
       <c r="D119" t="str">
         <f t="shared" si="7"/>
-        <v>010A</v>
+        <v>0042</v>
       </c>
       <c r="E119">
         <f t="shared" si="8"/>
-        <v>266</v>
+        <v>66</v>
       </c>
       <c r="H119" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"010A",</v>
+        <v>X"0042",</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -5022,15 +5022,15 @@
       </c>
       <c r="D120" t="str">
         <f t="shared" si="7"/>
-        <v>00F2</v>
+        <v>003C</v>
       </c>
       <c r="E120">
         <f t="shared" si="8"/>
-        <v>242</v>
+        <v>60</v>
       </c>
       <c r="H120" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"00F2",</v>
+        <v>X"003C",</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -5047,15 +5047,15 @@
       </c>
       <c r="D121" t="str">
         <f t="shared" si="7"/>
-        <v>00DB</v>
+        <v>0036</v>
       </c>
       <c r="E121">
         <f t="shared" si="8"/>
-        <v>219</v>
+        <v>54</v>
       </c>
       <c r="H121" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"00DB",</v>
+        <v>X"0036",</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -5072,15 +5072,15 @@
       </c>
       <c r="D122" t="str">
         <f t="shared" si="7"/>
-        <v>00C3</v>
+        <v>0030</v>
       </c>
       <c r="E122">
         <f t="shared" si="8"/>
-        <v>195</v>
+        <v>48</v>
       </c>
       <c r="H122" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"00C3",</v>
+        <v>X"0030",</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
@@ -5097,15 +5097,15 @@
       </c>
       <c r="D123" t="str">
         <f t="shared" si="7"/>
-        <v>00AA</v>
+        <v>002A</v>
       </c>
       <c r="E123">
         <f t="shared" si="8"/>
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="H123" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"00AA",</v>
+        <v>X"002A",</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -5122,15 +5122,15 @@
       </c>
       <c r="D124" t="str">
         <f t="shared" si="7"/>
-        <v>0092</v>
+        <v>0024</v>
       </c>
       <c r="E124">
         <f t="shared" si="8"/>
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="H124" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0092",</v>
+        <v>X"0024",</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -5147,15 +5147,15 @@
       </c>
       <c r="D125" t="str">
         <f t="shared" si="7"/>
-        <v>007A</v>
+        <v>001E</v>
       </c>
       <c r="E125">
         <f t="shared" si="8"/>
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="H125" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"007A",</v>
+        <v>X"001E",</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -5172,15 +5172,15 @@
       </c>
       <c r="D126" t="str">
         <f t="shared" si="7"/>
-        <v>0062</v>
+        <v>0018</v>
       </c>
       <c r="E126">
         <f t="shared" si="8"/>
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="H126" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0062",</v>
+        <v>X"0018",</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -5197,15 +5197,15 @@
       </c>
       <c r="D127" t="str">
         <f t="shared" si="7"/>
-        <v>0049</v>
+        <v>0012</v>
       </c>
       <c r="E127">
         <f t="shared" si="8"/>
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="H127" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0049",</v>
+        <v>X"0012",</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -5222,15 +5222,15 @@
       </c>
       <c r="D128" t="str">
         <f t="shared" si="7"/>
-        <v>0031</v>
+        <v>000C</v>
       </c>
       <c r="E128">
         <f t="shared" si="8"/>
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="H128" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0031",</v>
+        <v>X"000C",</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -5247,15 +5247,15 @@
       </c>
       <c r="D129" t="str">
         <f t="shared" si="7"/>
-        <v>0018</v>
+        <v>0006</v>
       </c>
       <c r="E129">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H129" s="1" t="str">
         <f t="shared" si="9"/>
-        <v>X"0018",</v>
+        <v>X"0006",</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -5296,16 +5296,16 @@
         <v>-2.454122852291208E-2</v>
       </c>
       <c r="D131" t="str">
-        <f t="shared" ref="D131:D194" si="12">DEC2HEX(C131*1000,4)</f>
-        <v>FFFFFFFFE8</v>
+        <f t="shared" ref="D131:D194" si="12">DEC2HEX(C131*250,4)</f>
+        <v>FFFFFFFFFA</v>
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E194" si="13">HEX2DEC(D131)</f>
-        <v>-24</v>
+        <v>-6</v>
       </c>
       <c r="H131" s="1" t="str">
         <f t="shared" ref="H131:H194" si="14">CONCATENATE("X""",RIGHT(D131,4),""",")</f>
-        <v>X"FFE8",</v>
+        <v>X"FFFA",</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -5322,15 +5322,15 @@
       </c>
       <c r="D132" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFFCF</v>
+        <v>FFFFFFFFF4</v>
       </c>
       <c r="E132">
         <f t="shared" si="13"/>
-        <v>-49</v>
+        <v>-12</v>
       </c>
       <c r="H132" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FFCF",</v>
+        <v>X"FFF4",</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -5347,15 +5347,15 @@
       </c>
       <c r="D133" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFFB7</v>
+        <v>FFFFFFFFEE</v>
       </c>
       <c r="E133">
         <f t="shared" si="13"/>
-        <v>-73</v>
+        <v>-18</v>
       </c>
       <c r="H133" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FFB7",</v>
+        <v>X"FFEE",</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -5372,15 +5372,15 @@
       </c>
       <c r="D134" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFF9E</v>
+        <v>FFFFFFFFE8</v>
       </c>
       <c r="E134">
         <f t="shared" si="13"/>
-        <v>-98</v>
+        <v>-24</v>
       </c>
       <c r="H134" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FF9E",</v>
+        <v>X"FFE8",</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -5397,15 +5397,15 @@
       </c>
       <c r="D135" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFF86</v>
+        <v>FFFFFFFFE2</v>
       </c>
       <c r="E135">
         <f t="shared" si="13"/>
-        <v>-122</v>
+        <v>-30</v>
       </c>
       <c r="H135" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FF86",</v>
+        <v>X"FFE2",</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -5422,15 +5422,15 @@
       </c>
       <c r="D136" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFF6E</v>
+        <v>FFFFFFFFDC</v>
       </c>
       <c r="E136">
         <f t="shared" si="13"/>
-        <v>-146</v>
+        <v>-36</v>
       </c>
       <c r="H136" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FF6E",</v>
+        <v>X"FFDC",</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -5447,15 +5447,15 @@
       </c>
       <c r="D137" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFF56</v>
+        <v>FFFFFFFFD6</v>
       </c>
       <c r="E137">
         <f t="shared" si="13"/>
-        <v>-170</v>
+        <v>-42</v>
       </c>
       <c r="H137" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FF56",</v>
+        <v>X"FFD6",</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -5472,15 +5472,15 @@
       </c>
       <c r="D138" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFF3D</v>
+        <v>FFFFFFFFD0</v>
       </c>
       <c r="E138">
         <f t="shared" si="13"/>
-        <v>-195</v>
+        <v>-48</v>
       </c>
       <c r="H138" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FF3D",</v>
+        <v>X"FFD0",</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -5497,15 +5497,15 @@
       </c>
       <c r="D139" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFF25</v>
+        <v>FFFFFFFFCA</v>
       </c>
       <c r="E139">
         <f t="shared" si="13"/>
-        <v>-219</v>
+        <v>-54</v>
       </c>
       <c r="H139" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FF25",</v>
+        <v>X"FFCA",</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -5522,15 +5522,15 @@
       </c>
       <c r="D140" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFF0E</v>
+        <v>FFFFFFFFC4</v>
       </c>
       <c r="E140">
         <f t="shared" si="13"/>
-        <v>-242</v>
+        <v>-60</v>
       </c>
       <c r="H140" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FF0E",</v>
+        <v>X"FFC4",</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -5547,15 +5547,15 @@
       </c>
       <c r="D141" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFEF6</v>
+        <v>FFFFFFFFBE</v>
       </c>
       <c r="E141">
         <f t="shared" si="13"/>
-        <v>-266</v>
+        <v>-66</v>
       </c>
       <c r="H141" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FEF6",</v>
+        <v>X"FFBE",</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -5572,15 +5572,15 @@
       </c>
       <c r="D142" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFEDE</v>
+        <v>FFFFFFFFB8</v>
       </c>
       <c r="E142">
         <f t="shared" si="13"/>
-        <v>-290</v>
+        <v>-72</v>
       </c>
       <c r="H142" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FEDE",</v>
+        <v>X"FFB8",</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -5597,15 +5597,15 @@
       </c>
       <c r="D143" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFEC7</v>
+        <v>FFFFFFFFB2</v>
       </c>
       <c r="E143">
         <f t="shared" si="13"/>
-        <v>-313</v>
+        <v>-78</v>
       </c>
       <c r="H143" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FEC7",</v>
+        <v>X"FFB2",</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -5622,15 +5622,15 @@
       </c>
       <c r="D144" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFEB0</v>
+        <v>FFFFFFFFAC</v>
       </c>
       <c r="E144">
         <f t="shared" si="13"/>
-        <v>-336</v>
+        <v>-84</v>
       </c>
       <c r="H144" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FEB0",</v>
+        <v>X"FFAC",</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -5647,15 +5647,15 @@
       </c>
       <c r="D145" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFE99</v>
+        <v>FFFFFFFFA7</v>
       </c>
       <c r="E145">
         <f t="shared" si="13"/>
-        <v>-359</v>
+        <v>-89</v>
       </c>
       <c r="H145" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FE99",</v>
+        <v>X"FFA7",</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -5672,15 +5672,15 @@
       </c>
       <c r="D146" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFE82</v>
+        <v>FFFFFFFFA1</v>
       </c>
       <c r="E146">
         <f t="shared" si="13"/>
-        <v>-382</v>
+        <v>-95</v>
       </c>
       <c r="H146" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FE82",</v>
+        <v>X"FFA1",</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -5697,15 +5697,15 @@
       </c>
       <c r="D147" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFE6B</v>
+        <v>FFFFFFFF9B</v>
       </c>
       <c r="E147">
         <f t="shared" si="13"/>
-        <v>-405</v>
+        <v>-101</v>
       </c>
       <c r="H147" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FE6B",</v>
+        <v>X"FF9B",</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -5722,15 +5722,15 @@
       </c>
       <c r="D148" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFE55</v>
+        <v>FFFFFFFF96</v>
       </c>
       <c r="E148">
         <f t="shared" si="13"/>
-        <v>-427</v>
+        <v>-106</v>
       </c>
       <c r="H148" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FE55",</v>
+        <v>X"FF96",</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
@@ -5747,15 +5747,15 @@
       </c>
       <c r="D149" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFE3F</v>
+        <v>FFFFFFFF90</v>
       </c>
       <c r="E149">
         <f t="shared" si="13"/>
-        <v>-449</v>
+        <v>-112</v>
       </c>
       <c r="H149" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FE3F",</v>
+        <v>X"FF90",</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5772,15 +5772,15 @@
       </c>
       <c r="D150" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFE29</v>
+        <v>FFFFFFFF8B</v>
       </c>
       <c r="E150">
         <f t="shared" si="13"/>
-        <v>-471</v>
+        <v>-117</v>
       </c>
       <c r="H150" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FE29",</v>
+        <v>X"FF8B",</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -5797,15 +5797,15 @@
       </c>
       <c r="D151" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFE14</v>
+        <v>FFFFFFFF85</v>
       </c>
       <c r="E151">
         <f t="shared" si="13"/>
-        <v>-492</v>
+        <v>-123</v>
       </c>
       <c r="H151" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FE14",</v>
+        <v>X"FF85",</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -5822,15 +5822,15 @@
       </c>
       <c r="D152" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFDFE</v>
+        <v>FFFFFFFF80</v>
       </c>
       <c r="E152">
         <f t="shared" si="13"/>
-        <v>-514</v>
+        <v>-128</v>
       </c>
       <c r="H152" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FDFE",</v>
+        <v>X"FF80",</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -5847,15 +5847,15 @@
       </c>
       <c r="D153" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFDEA</v>
+        <v>FFFFFFFF7B</v>
       </c>
       <c r="E153">
         <f t="shared" si="13"/>
-        <v>-534</v>
+        <v>-133</v>
       </c>
       <c r="H153" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FDEA",</v>
+        <v>X"FF7B",</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -5872,15 +5872,15 @@
       </c>
       <c r="D154" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFDD5</v>
+        <v>FFFFFFFF76</v>
       </c>
       <c r="E154">
         <f t="shared" si="13"/>
-        <v>-555</v>
+        <v>-138</v>
       </c>
       <c r="H154" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FDD5",</v>
+        <v>X"FF76",</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5897,15 +5897,15 @@
       </c>
       <c r="D155" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFDC1</v>
+        <v>FFFFFFFF71</v>
       </c>
       <c r="E155">
         <f t="shared" si="13"/>
-        <v>-575</v>
+        <v>-143</v>
       </c>
       <c r="H155" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FDC1",</v>
+        <v>X"FF71",</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5922,15 +5922,15 @@
       </c>
       <c r="D156" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFDAD</v>
+        <v>FFFFFFFF6C</v>
       </c>
       <c r="E156">
         <f t="shared" si="13"/>
-        <v>-595</v>
+        <v>-148</v>
       </c>
       <c r="H156" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FDAD",</v>
+        <v>X"FF6C",</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -5947,15 +5947,15 @@
       </c>
       <c r="D157" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFD99</v>
+        <v>FFFFFFFF67</v>
       </c>
       <c r="E157">
         <f t="shared" si="13"/>
-        <v>-615</v>
+        <v>-153</v>
       </c>
       <c r="H157" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FD99",</v>
+        <v>X"FF67",</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -5972,15 +5972,15 @@
       </c>
       <c r="D158" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFD86</v>
+        <v>FFFFFFFF62</v>
       </c>
       <c r="E158">
         <f t="shared" si="13"/>
-        <v>-634</v>
+        <v>-158</v>
       </c>
       <c r="H158" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FD86",</v>
+        <v>X"FF62",</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5997,15 +5997,15 @@
       </c>
       <c r="D159" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFD73</v>
+        <v>FFFFFFFF5D</v>
       </c>
       <c r="E159">
         <f t="shared" si="13"/>
-        <v>-653</v>
+        <v>-163</v>
       </c>
       <c r="H159" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FD73",</v>
+        <v>X"FF5D",</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -6022,15 +6022,15 @@
       </c>
       <c r="D160" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFD61</v>
+        <v>FFFFFFFF59</v>
       </c>
       <c r="E160">
         <f t="shared" si="13"/>
-        <v>-671</v>
+        <v>-167</v>
       </c>
       <c r="H160" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FD61",</v>
+        <v>X"FF59",</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -6047,15 +6047,15 @@
       </c>
       <c r="D161" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFD4F</v>
+        <v>FFFFFFFF54</v>
       </c>
       <c r="E161">
         <f t="shared" si="13"/>
-        <v>-689</v>
+        <v>-172</v>
       </c>
       <c r="H161" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FD4F",</v>
+        <v>X"FF54",</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -6072,15 +6072,15 @@
       </c>
       <c r="D162" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFD3D</v>
+        <v>FFFFFFFF50</v>
       </c>
       <c r="E162">
         <f t="shared" si="13"/>
-        <v>-707</v>
+        <v>-176</v>
       </c>
       <c r="H162" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FD3D",</v>
+        <v>X"FF50",</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -6097,15 +6097,15 @@
       </c>
       <c r="D163" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFD2C</v>
+        <v>FFFFFFFF4B</v>
       </c>
       <c r="E163">
         <f t="shared" si="13"/>
-        <v>-724</v>
+        <v>-181</v>
       </c>
       <c r="H163" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FD2C",</v>
+        <v>X"FF4B",</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
@@ -6122,15 +6122,15 @@
       </c>
       <c r="D164" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFD1C</v>
+        <v>FFFFFFFF47</v>
       </c>
       <c r="E164">
         <f t="shared" si="13"/>
-        <v>-740</v>
+        <v>-185</v>
       </c>
       <c r="H164" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FD1C",</v>
+        <v>X"FF47",</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -6147,15 +6147,15 @@
       </c>
       <c r="D165" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFD0B</v>
+        <v>FFFFFFFF43</v>
       </c>
       <c r="E165">
         <f t="shared" si="13"/>
-        <v>-757</v>
+        <v>-189</v>
       </c>
       <c r="H165" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FD0B",</v>
+        <v>X"FF43",</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -6172,15 +6172,15 @@
       </c>
       <c r="D166" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFCFB</v>
+        <v>FFFFFFFF3F</v>
       </c>
       <c r="E166">
         <f t="shared" si="13"/>
-        <v>-773</v>
+        <v>-193</v>
       </c>
       <c r="H166" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FCFB",</v>
+        <v>X"FF3F",</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -6197,15 +6197,15 @@
       </c>
       <c r="D167" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFCEC</v>
+        <v>FFFFFFFF3B</v>
       </c>
       <c r="E167">
         <f t="shared" si="13"/>
-        <v>-788</v>
+        <v>-197</v>
       </c>
       <c r="H167" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FCEC",</v>
+        <v>X"FF3B",</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -6222,15 +6222,15 @@
       </c>
       <c r="D168" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFCDD</v>
+        <v>FFFFFFFF38</v>
       </c>
       <c r="E168">
         <f t="shared" si="13"/>
-        <v>-803</v>
+        <v>-200</v>
       </c>
       <c r="H168" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FCDD",</v>
+        <v>X"FF38",</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -6247,15 +6247,15 @@
       </c>
       <c r="D169" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFCCF</v>
+        <v>FFFFFFFF34</v>
       </c>
       <c r="E169">
         <f t="shared" si="13"/>
-        <v>-817</v>
+        <v>-204</v>
       </c>
       <c r="H169" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FCCF",</v>
+        <v>X"FF34",</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -6272,15 +6272,15 @@
       </c>
       <c r="D170" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFCC1</v>
+        <v>FFFFFFFF31</v>
       </c>
       <c r="E170">
         <f t="shared" si="13"/>
-        <v>-831</v>
+        <v>-207</v>
       </c>
       <c r="H170" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FCC1",</v>
+        <v>X"FF31",</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -6297,15 +6297,15 @@
       </c>
       <c r="D171" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFCB4</v>
+        <v>FFFFFFFF2D</v>
       </c>
       <c r="E171">
         <f t="shared" si="13"/>
-        <v>-844</v>
+        <v>-211</v>
       </c>
       <c r="H171" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FCB4",</v>
+        <v>X"FF2D",</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -6322,15 +6322,15 @@
       </c>
       <c r="D172" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFCA7</v>
+        <v>FFFFFFFF2A</v>
       </c>
       <c r="E172">
         <f t="shared" si="13"/>
-        <v>-857</v>
+        <v>-214</v>
       </c>
       <c r="H172" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FCA7",</v>
+        <v>X"FF2A",</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -6347,15 +6347,15 @@
       </c>
       <c r="D173" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC9A</v>
+        <v>FFFFFFFF27</v>
       </c>
       <c r="E173">
         <f t="shared" si="13"/>
-        <v>-870</v>
+        <v>-217</v>
       </c>
       <c r="H173" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC9A",</v>
+        <v>X"FF27",</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -6372,15 +6372,15 @@
       </c>
       <c r="D174" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC8F</v>
+        <v>FFFFFFFF24</v>
       </c>
       <c r="E174">
         <f t="shared" si="13"/>
-        <v>-881</v>
+        <v>-220</v>
       </c>
       <c r="H174" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC8F",</v>
+        <v>X"FF24",</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -6397,15 +6397,15 @@
       </c>
       <c r="D175" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC83</v>
+        <v>FFFFFFFF21</v>
       </c>
       <c r="E175">
         <f t="shared" si="13"/>
-        <v>-893</v>
+        <v>-223</v>
       </c>
       <c r="H175" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC83",</v>
+        <v>X"FF21",</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -6422,15 +6422,15 @@
       </c>
       <c r="D176" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC79</v>
+        <v>FFFFFFFF1F</v>
       </c>
       <c r="E176">
         <f t="shared" si="13"/>
-        <v>-903</v>
+        <v>-225</v>
       </c>
       <c r="H176" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC79",</v>
+        <v>X"FF1F",</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -6447,15 +6447,15 @@
       </c>
       <c r="D177" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC6E</v>
+        <v>FFFFFFFF1C</v>
       </c>
       <c r="E177">
         <f t="shared" si="13"/>
-        <v>-914</v>
+        <v>-228</v>
       </c>
       <c r="H177" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC6E",</v>
+        <v>X"FF1C",</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
@@ -6472,15 +6472,15 @@
       </c>
       <c r="D178" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC65</v>
+        <v>FFFFFFFF1A</v>
       </c>
       <c r="E178">
         <f t="shared" si="13"/>
-        <v>-923</v>
+        <v>-230</v>
       </c>
       <c r="H178" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC65",</v>
+        <v>X"FF1A",</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
@@ -6497,15 +6497,15 @@
       </c>
       <c r="D179" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC5C</v>
+        <v>FFFFFFFF17</v>
       </c>
       <c r="E179">
         <f t="shared" si="13"/>
-        <v>-932</v>
+        <v>-233</v>
       </c>
       <c r="H179" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC5C",</v>
+        <v>X"FF17",</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -6522,15 +6522,15 @@
       </c>
       <c r="D180" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC53</v>
+        <v>FFFFFFFF15</v>
       </c>
       <c r="E180">
         <f t="shared" si="13"/>
-        <v>-941</v>
+        <v>-235</v>
       </c>
       <c r="H180" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC53",</v>
+        <v>X"FF15",</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
@@ -6547,15 +6547,15 @@
       </c>
       <c r="D181" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC4B</v>
+        <v>FFFFFFFF13</v>
       </c>
       <c r="E181">
         <f t="shared" si="13"/>
-        <v>-949</v>
+        <v>-237</v>
       </c>
       <c r="H181" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC4B",</v>
+        <v>X"FF13",</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
@@ -6572,15 +6572,15 @@
       </c>
       <c r="D182" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC44</v>
+        <v>FFFFFFFF11</v>
       </c>
       <c r="E182">
         <f t="shared" si="13"/>
-        <v>-956</v>
+        <v>-239</v>
       </c>
       <c r="H182" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC44",</v>
+        <v>X"FF11",</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
@@ -6597,15 +6597,15 @@
       </c>
       <c r="D183" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC3D</v>
+        <v>FFFFFFFF10</v>
       </c>
       <c r="E183">
         <f t="shared" si="13"/>
-        <v>-963</v>
+        <v>-240</v>
       </c>
       <c r="H183" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC3D",</v>
+        <v>X"FF10",</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -6622,15 +6622,15 @@
       </c>
       <c r="D184" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC36</v>
+        <v>FFFFFFFF0E</v>
       </c>
       <c r="E184">
         <f t="shared" si="13"/>
-        <v>-970</v>
+        <v>-242</v>
       </c>
       <c r="H184" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC36",</v>
+        <v>X"FF0E",</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -6647,15 +6647,15 @@
       </c>
       <c r="D185" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC31</v>
+        <v>FFFFFFFF0D</v>
       </c>
       <c r="E185">
         <f t="shared" si="13"/>
-        <v>-975</v>
+        <v>-243</v>
       </c>
       <c r="H185" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC31",</v>
+        <v>X"FF0D",</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
@@ -6672,15 +6672,15 @@
       </c>
       <c r="D186" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC2C</v>
+        <v>FFFFFFFF0B</v>
       </c>
       <c r="E186">
         <f t="shared" si="13"/>
-        <v>-980</v>
+        <v>-245</v>
       </c>
       <c r="H186" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC2C",</v>
+        <v>X"FF0B",</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
@@ -6697,15 +6697,15 @@
       </c>
       <c r="D187" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC27</v>
+        <v>FFFFFFFF0A</v>
       </c>
       <c r="E187">
         <f t="shared" si="13"/>
-        <v>-985</v>
+        <v>-246</v>
       </c>
       <c r="H187" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC27",</v>
+        <v>X"FF0A",</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
@@ -6722,15 +6722,15 @@
       </c>
       <c r="D188" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC23</v>
+        <v>FFFFFFFF09</v>
       </c>
       <c r="E188">
         <f t="shared" si="13"/>
-        <v>-989</v>
+        <v>-247</v>
       </c>
       <c r="H188" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC23",</v>
+        <v>X"FF09",</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
@@ -6747,15 +6747,15 @@
       </c>
       <c r="D189" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC20</v>
+        <v>FFFFFFFF08</v>
       </c>
       <c r="E189">
         <f t="shared" si="13"/>
-        <v>-992</v>
+        <v>-248</v>
       </c>
       <c r="H189" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC20",</v>
+        <v>X"FF08",</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
@@ -6772,15 +6772,15 @@
       </c>
       <c r="D190" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC1D</v>
+        <v>FFFFFFFF08</v>
       </c>
       <c r="E190">
         <f t="shared" si="13"/>
-        <v>-995</v>
+        <v>-248</v>
       </c>
       <c r="H190" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC1D",</v>
+        <v>X"FF08",</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
@@ -6797,15 +6797,15 @@
       </c>
       <c r="D191" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC1B</v>
+        <v>FFFFFFFF07</v>
       </c>
       <c r="E191">
         <f t="shared" si="13"/>
-        <v>-997</v>
+        <v>-249</v>
       </c>
       <c r="H191" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC1B",</v>
+        <v>X"FF07",</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
@@ -6822,15 +6822,15 @@
       </c>
       <c r="D192" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC1A</v>
+        <v>FFFFFFFF07</v>
       </c>
       <c r="E192">
         <f t="shared" si="13"/>
-        <v>-998</v>
+        <v>-249</v>
       </c>
       <c r="H192" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC1A",</v>
+        <v>X"FF07",</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -6847,15 +6847,15 @@
       </c>
       <c r="D193" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC19</v>
+        <v>FFFFFFFF07</v>
       </c>
       <c r="E193">
         <f t="shared" si="13"/>
-        <v>-999</v>
+        <v>-249</v>
       </c>
       <c r="H193" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC19",</v>
+        <v>X"FF07",</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
@@ -6872,15 +6872,15 @@
       </c>
       <c r="D194" t="str">
         <f t="shared" si="12"/>
-        <v>FFFFFFFC18</v>
+        <v>FFFFFFFF06</v>
       </c>
       <c r="E194">
         <f t="shared" si="13"/>
-        <v>-1000</v>
+        <v>-250</v>
       </c>
       <c r="H194" s="1" t="str">
         <f t="shared" si="14"/>
-        <v>X"FC18",</v>
+        <v>X"FF06",</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
@@ -6896,16 +6896,16 @@
         <v>-0.99969881869620425</v>
       </c>
       <c r="D195" t="str">
-        <f t="shared" ref="D195:D257" si="17">DEC2HEX(C195*1000,4)</f>
-        <v>FFFFFFFC19</v>
+        <f t="shared" ref="D195:D257" si="17">DEC2HEX(C195*250,4)</f>
+        <v>FFFFFFFF07</v>
       </c>
       <c r="E195">
         <f t="shared" ref="E195:E257" si="18">HEX2DEC(D195)</f>
-        <v>-999</v>
+        <v>-249</v>
       </c>
       <c r="H195" s="1" t="str">
         <f t="shared" ref="H195:H257" si="19">CONCATENATE("X""",RIGHT(D195,4),""",")</f>
-        <v>X"FC19",</v>
+        <v>X"FF07",</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
@@ -6922,15 +6922,15 @@
       </c>
       <c r="D196" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC1A</v>
+        <v>FFFFFFFF07</v>
       </c>
       <c r="E196">
         <f t="shared" si="18"/>
-        <v>-998</v>
+        <v>-249</v>
       </c>
       <c r="H196" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC1A",</v>
+        <v>X"FF07",</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
@@ -6947,15 +6947,15 @@
       </c>
       <c r="D197" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC1B</v>
+        <v>FFFFFFFF07</v>
       </c>
       <c r="E197">
         <f t="shared" si="18"/>
-        <v>-997</v>
+        <v>-249</v>
       </c>
       <c r="H197" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC1B",</v>
+        <v>X"FF07",</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
@@ -6972,15 +6972,15 @@
       </c>
       <c r="D198" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC1D</v>
+        <v>FFFFFFFF08</v>
       </c>
       <c r="E198">
         <f t="shared" si="18"/>
-        <v>-995</v>
+        <v>-248</v>
       </c>
       <c r="H198" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC1D",</v>
+        <v>X"FF08",</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -6997,15 +6997,15 @@
       </c>
       <c r="D199" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC20</v>
+        <v>FFFFFFFF08</v>
       </c>
       <c r="E199">
         <f t="shared" si="18"/>
-        <v>-992</v>
+        <v>-248</v>
       </c>
       <c r="H199" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC20",</v>
+        <v>X"FF08",</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
@@ -7022,15 +7022,15 @@
       </c>
       <c r="D200" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC23</v>
+        <v>FFFFFFFF09</v>
       </c>
       <c r="E200">
         <f t="shared" si="18"/>
-        <v>-989</v>
+        <v>-247</v>
       </c>
       <c r="H200" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC23",</v>
+        <v>X"FF09",</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
@@ -7047,15 +7047,15 @@
       </c>
       <c r="D201" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC27</v>
+        <v>FFFFFFFF0A</v>
       </c>
       <c r="E201">
         <f t="shared" si="18"/>
-        <v>-985</v>
+        <v>-246</v>
       </c>
       <c r="H201" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC27",</v>
+        <v>X"FF0A",</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
@@ -7072,15 +7072,15 @@
       </c>
       <c r="D202" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC2C</v>
+        <v>FFFFFFFF0B</v>
       </c>
       <c r="E202">
         <f t="shared" si="18"/>
-        <v>-980</v>
+        <v>-245</v>
       </c>
       <c r="H202" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC2C",</v>
+        <v>X"FF0B",</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
@@ -7097,15 +7097,15 @@
       </c>
       <c r="D203" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC31</v>
+        <v>FFFFFFFF0D</v>
       </c>
       <c r="E203">
         <f t="shared" si="18"/>
-        <v>-975</v>
+        <v>-243</v>
       </c>
       <c r="H203" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC31",</v>
+        <v>X"FF0D",</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
@@ -7122,15 +7122,15 @@
       </c>
       <c r="D204" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC36</v>
+        <v>FFFFFFFF0E</v>
       </c>
       <c r="E204">
         <f t="shared" si="18"/>
-        <v>-970</v>
+        <v>-242</v>
       </c>
       <c r="H204" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC36",</v>
+        <v>X"FF0E",</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -7147,15 +7147,15 @@
       </c>
       <c r="D205" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC3D</v>
+        <v>FFFFFFFF10</v>
       </c>
       <c r="E205">
         <f t="shared" si="18"/>
-        <v>-963</v>
+        <v>-240</v>
       </c>
       <c r="H205" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC3D",</v>
+        <v>X"FF10",</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
@@ -7172,15 +7172,15 @@
       </c>
       <c r="D206" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC44</v>
+        <v>FFFFFFFF11</v>
       </c>
       <c r="E206">
         <f t="shared" si="18"/>
-        <v>-956</v>
+        <v>-239</v>
       </c>
       <c r="H206" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC44",</v>
+        <v>X"FF11",</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -7197,15 +7197,15 @@
       </c>
       <c r="D207" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC4B</v>
+        <v>FFFFFFFF13</v>
       </c>
       <c r="E207">
         <f t="shared" si="18"/>
-        <v>-949</v>
+        <v>-237</v>
       </c>
       <c r="H207" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC4B",</v>
+        <v>X"FF13",</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -7222,15 +7222,15 @@
       </c>
       <c r="D208" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC53</v>
+        <v>FFFFFFFF15</v>
       </c>
       <c r="E208">
         <f t="shared" si="18"/>
-        <v>-941</v>
+        <v>-235</v>
       </c>
       <c r="H208" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC53",</v>
+        <v>X"FF15",</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -7247,15 +7247,15 @@
       </c>
       <c r="D209" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC5C</v>
+        <v>FFFFFFFF17</v>
       </c>
       <c r="E209">
         <f t="shared" si="18"/>
-        <v>-932</v>
+        <v>-233</v>
       </c>
       <c r="H209" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC5C",</v>
+        <v>X"FF17",</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -7272,15 +7272,15 @@
       </c>
       <c r="D210" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC65</v>
+        <v>FFFFFFFF1A</v>
       </c>
       <c r="E210">
         <f t="shared" si="18"/>
-        <v>-923</v>
+        <v>-230</v>
       </c>
       <c r="H210" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC65",</v>
+        <v>X"FF1A",</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -7297,15 +7297,15 @@
       </c>
       <c r="D211" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC6E</v>
+        <v>FFFFFFFF1C</v>
       </c>
       <c r="E211">
         <f t="shared" si="18"/>
-        <v>-914</v>
+        <v>-228</v>
       </c>
       <c r="H211" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC6E",</v>
+        <v>X"FF1C",</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
@@ -7322,15 +7322,15 @@
       </c>
       <c r="D212" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC79</v>
+        <v>FFFFFFFF1F</v>
       </c>
       <c r="E212">
         <f t="shared" si="18"/>
-        <v>-903</v>
+        <v>-225</v>
       </c>
       <c r="H212" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC79",</v>
+        <v>X"FF1F",</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
@@ -7347,15 +7347,15 @@
       </c>
       <c r="D213" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC83</v>
+        <v>FFFFFFFF21</v>
       </c>
       <c r="E213">
         <f t="shared" si="18"/>
-        <v>-893</v>
+        <v>-223</v>
       </c>
       <c r="H213" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC83",</v>
+        <v>X"FF21",</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
@@ -7372,15 +7372,15 @@
       </c>
       <c r="D214" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC8F</v>
+        <v>FFFFFFFF24</v>
       </c>
       <c r="E214">
         <f t="shared" si="18"/>
-        <v>-881</v>
+        <v>-220</v>
       </c>
       <c r="H214" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC8F",</v>
+        <v>X"FF24",</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
@@ -7397,15 +7397,15 @@
       </c>
       <c r="D215" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFC9A</v>
+        <v>FFFFFFFF27</v>
       </c>
       <c r="E215">
         <f t="shared" si="18"/>
-        <v>-870</v>
+        <v>-217</v>
       </c>
       <c r="H215" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FC9A",</v>
+        <v>X"FF27",</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
@@ -7422,15 +7422,15 @@
       </c>
       <c r="D216" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFCA7</v>
+        <v>FFFFFFFF2A</v>
       </c>
       <c r="E216">
         <f t="shared" si="18"/>
-        <v>-857</v>
+        <v>-214</v>
       </c>
       <c r="H216" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FCA7",</v>
+        <v>X"FF2A",</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
@@ -7447,15 +7447,15 @@
       </c>
       <c r="D217" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFCB4</v>
+        <v>FFFFFFFF2D</v>
       </c>
       <c r="E217">
         <f t="shared" si="18"/>
-        <v>-844</v>
+        <v>-211</v>
       </c>
       <c r="H217" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FCB4",</v>
+        <v>X"FF2D",</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
@@ -7472,15 +7472,15 @@
       </c>
       <c r="D218" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFCC1</v>
+        <v>FFFFFFFF31</v>
       </c>
       <c r="E218">
         <f t="shared" si="18"/>
-        <v>-831</v>
+        <v>-207</v>
       </c>
       <c r="H218" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FCC1",</v>
+        <v>X"FF31",</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
@@ -7497,15 +7497,15 @@
       </c>
       <c r="D219" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFCCF</v>
+        <v>FFFFFFFF34</v>
       </c>
       <c r="E219">
         <f t="shared" si="18"/>
-        <v>-817</v>
+        <v>-204</v>
       </c>
       <c r="H219" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FCCF",</v>
+        <v>X"FF34",</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
@@ -7522,15 +7522,15 @@
       </c>
       <c r="D220" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFCDD</v>
+        <v>FFFFFFFF38</v>
       </c>
       <c r="E220">
         <f t="shared" si="18"/>
-        <v>-803</v>
+        <v>-200</v>
       </c>
       <c r="H220" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FCDD",</v>
+        <v>X"FF38",</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
@@ -7547,15 +7547,15 @@
       </c>
       <c r="D221" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFCEC</v>
+        <v>FFFFFFFF3B</v>
       </c>
       <c r="E221">
         <f t="shared" si="18"/>
-        <v>-788</v>
+        <v>-197</v>
       </c>
       <c r="H221" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FCEC",</v>
+        <v>X"FF3B",</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
@@ -7572,15 +7572,15 @@
       </c>
       <c r="D222" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFCFB</v>
+        <v>FFFFFFFF3F</v>
       </c>
       <c r="E222">
         <f t="shared" si="18"/>
-        <v>-773</v>
+        <v>-193</v>
       </c>
       <c r="H222" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FCFB",</v>
+        <v>X"FF3F",</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -7597,15 +7597,15 @@
       </c>
       <c r="D223" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFD0B</v>
+        <v>FFFFFFFF43</v>
       </c>
       <c r="E223">
         <f t="shared" si="18"/>
-        <v>-757</v>
+        <v>-189</v>
       </c>
       <c r="H223" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FD0B",</v>
+        <v>X"FF43",</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -7622,15 +7622,15 @@
       </c>
       <c r="D224" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFD1C</v>
+        <v>FFFFFFFF47</v>
       </c>
       <c r="E224">
         <f t="shared" si="18"/>
-        <v>-740</v>
+        <v>-185</v>
       </c>
       <c r="H224" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FD1C",</v>
+        <v>X"FF47",</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -7647,15 +7647,15 @@
       </c>
       <c r="D225" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFD2C</v>
+        <v>FFFFFFFF4B</v>
       </c>
       <c r="E225">
         <f t="shared" si="18"/>
-        <v>-724</v>
+        <v>-181</v>
       </c>
       <c r="H225" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FD2C",</v>
+        <v>X"FF4B",</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -7672,15 +7672,15 @@
       </c>
       <c r="D226" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFD3D</v>
+        <v>FFFFFFFF50</v>
       </c>
       <c r="E226">
         <f t="shared" si="18"/>
-        <v>-707</v>
+        <v>-176</v>
       </c>
       <c r="H226" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FD3D",</v>
+        <v>X"FF50",</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -7697,15 +7697,15 @@
       </c>
       <c r="D227" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFD4F</v>
+        <v>FFFFFFFF54</v>
       </c>
       <c r="E227">
         <f t="shared" si="18"/>
-        <v>-689</v>
+        <v>-172</v>
       </c>
       <c r="H227" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FD4F",</v>
+        <v>X"FF54",</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
@@ -7722,15 +7722,15 @@
       </c>
       <c r="D228" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFD61</v>
+        <v>FFFFFFFF59</v>
       </c>
       <c r="E228">
         <f t="shared" si="18"/>
-        <v>-671</v>
+        <v>-167</v>
       </c>
       <c r="H228" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FD61",</v>
+        <v>X"FF59",</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
@@ -7747,15 +7747,15 @@
       </c>
       <c r="D229" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFD73</v>
+        <v>FFFFFFFF5D</v>
       </c>
       <c r="E229">
         <f t="shared" si="18"/>
-        <v>-653</v>
+        <v>-163</v>
       </c>
       <c r="H229" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FD73",</v>
+        <v>X"FF5D",</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
@@ -7772,15 +7772,15 @@
       </c>
       <c r="D230" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFD86</v>
+        <v>FFFFFFFF62</v>
       </c>
       <c r="E230">
         <f t="shared" si="18"/>
-        <v>-634</v>
+        <v>-158</v>
       </c>
       <c r="H230" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FD86",</v>
+        <v>X"FF62",</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
@@ -7797,15 +7797,15 @@
       </c>
       <c r="D231" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFD99</v>
+        <v>FFFFFFFF67</v>
       </c>
       <c r="E231">
         <f t="shared" si="18"/>
-        <v>-615</v>
+        <v>-153</v>
       </c>
       <c r="H231" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FD99",</v>
+        <v>X"FF67",</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -7822,15 +7822,15 @@
       </c>
       <c r="D232" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFDAD</v>
+        <v>FFFFFFFF6C</v>
       </c>
       <c r="E232">
         <f t="shared" si="18"/>
-        <v>-595</v>
+        <v>-148</v>
       </c>
       <c r="H232" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FDAD",</v>
+        <v>X"FF6C",</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
@@ -7847,15 +7847,15 @@
       </c>
       <c r="D233" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFDC1</v>
+        <v>FFFFFFFF71</v>
       </c>
       <c r="E233">
         <f t="shared" si="18"/>
-        <v>-575</v>
+        <v>-143</v>
       </c>
       <c r="H233" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FDC1",</v>
+        <v>X"FF71",</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
@@ -7872,15 +7872,15 @@
       </c>
       <c r="D234" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFDD5</v>
+        <v>FFFFFFFF76</v>
       </c>
       <c r="E234">
         <f t="shared" si="18"/>
-        <v>-555</v>
+        <v>-138</v>
       </c>
       <c r="H234" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FDD5",</v>
+        <v>X"FF76",</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
@@ -7897,15 +7897,15 @@
       </c>
       <c r="D235" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFDEA</v>
+        <v>FFFFFFFF7B</v>
       </c>
       <c r="E235">
         <f t="shared" si="18"/>
-        <v>-534</v>
+        <v>-133</v>
       </c>
       <c r="H235" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FDEA",</v>
+        <v>X"FF7B",</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
@@ -7922,15 +7922,15 @@
       </c>
       <c r="D236" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFDFE</v>
+        <v>FFFFFFFF80</v>
       </c>
       <c r="E236">
         <f t="shared" si="18"/>
-        <v>-514</v>
+        <v>-128</v>
       </c>
       <c r="H236" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FDFE",</v>
+        <v>X"FF80",</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
@@ -7947,15 +7947,15 @@
       </c>
       <c r="D237" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFE14</v>
+        <v>FFFFFFFF85</v>
       </c>
       <c r="E237">
         <f t="shared" si="18"/>
-        <v>-492</v>
+        <v>-123</v>
       </c>
       <c r="H237" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FE14",</v>
+        <v>X"FF85",</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
@@ -7972,15 +7972,15 @@
       </c>
       <c r="D238" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFE29</v>
+        <v>FFFFFFFF8B</v>
       </c>
       <c r="E238">
         <f t="shared" si="18"/>
-        <v>-471</v>
+        <v>-117</v>
       </c>
       <c r="H238" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FE29",</v>
+        <v>X"FF8B",</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
@@ -7997,15 +7997,15 @@
       </c>
       <c r="D239" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFE3F</v>
+        <v>FFFFFFFF90</v>
       </c>
       <c r="E239">
         <f t="shared" si="18"/>
-        <v>-449</v>
+        <v>-112</v>
       </c>
       <c r="H239" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FE3F",</v>
+        <v>X"FF90",</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
@@ -8022,15 +8022,15 @@
       </c>
       <c r="D240" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFE55</v>
+        <v>FFFFFFFF96</v>
       </c>
       <c r="E240">
         <f t="shared" si="18"/>
-        <v>-427</v>
+        <v>-106</v>
       </c>
       <c r="H240" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FE55",</v>
+        <v>X"FF96",</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -8047,15 +8047,15 @@
       </c>
       <c r="D241" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFE6B</v>
+        <v>FFFFFFFF9B</v>
       </c>
       <c r="E241">
         <f t="shared" si="18"/>
-        <v>-405</v>
+        <v>-101</v>
       </c>
       <c r="H241" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FE6B",</v>
+        <v>X"FF9B",</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -8072,15 +8072,15 @@
       </c>
       <c r="D242" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFE82</v>
+        <v>FFFFFFFFA1</v>
       </c>
       <c r="E242">
         <f t="shared" si="18"/>
-        <v>-382</v>
+        <v>-95</v>
       </c>
       <c r="H242" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FE82",</v>
+        <v>X"FFA1",</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -8097,15 +8097,15 @@
       </c>
       <c r="D243" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFE99</v>
+        <v>FFFFFFFFA7</v>
       </c>
       <c r="E243">
         <f t="shared" si="18"/>
-        <v>-359</v>
+        <v>-89</v>
       </c>
       <c r="H243" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FE99",</v>
+        <v>X"FFA7",</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -8122,15 +8122,15 @@
       </c>
       <c r="D244" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFEB0</v>
+        <v>FFFFFFFFAC</v>
       </c>
       <c r="E244">
         <f t="shared" si="18"/>
-        <v>-336</v>
+        <v>-84</v>
       </c>
       <c r="H244" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FEB0",</v>
+        <v>X"FFAC",</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -8147,15 +8147,15 @@
       </c>
       <c r="D245" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFEC7</v>
+        <v>FFFFFFFFB2</v>
       </c>
       <c r="E245">
         <f t="shared" si="18"/>
-        <v>-313</v>
+        <v>-78</v>
       </c>
       <c r="H245" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FEC7",</v>
+        <v>X"FFB2",</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
@@ -8172,15 +8172,15 @@
       </c>
       <c r="D246" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFEDE</v>
+        <v>FFFFFFFFB8</v>
       </c>
       <c r="E246">
         <f t="shared" si="18"/>
-        <v>-290</v>
+        <v>-72</v>
       </c>
       <c r="H246" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FEDE",</v>
+        <v>X"FFB8",</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -8197,15 +8197,15 @@
       </c>
       <c r="D247" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFEF6</v>
+        <v>FFFFFFFFBE</v>
       </c>
       <c r="E247">
         <f t="shared" si="18"/>
-        <v>-266</v>
+        <v>-66</v>
       </c>
       <c r="H247" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FEF6",</v>
+        <v>X"FFBE",</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -8222,15 +8222,15 @@
       </c>
       <c r="D248" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFF0E</v>
+        <v>FFFFFFFFC4</v>
       </c>
       <c r="E248">
         <f t="shared" si="18"/>
-        <v>-242</v>
+        <v>-60</v>
       </c>
       <c r="H248" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FF0E",</v>
+        <v>X"FFC4",</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -8247,15 +8247,15 @@
       </c>
       <c r="D249" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFF25</v>
+        <v>FFFFFFFFCA</v>
       </c>
       <c r="E249">
         <f t="shared" si="18"/>
-        <v>-219</v>
+        <v>-54</v>
       </c>
       <c r="H249" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FF25",</v>
+        <v>X"FFCA",</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -8272,15 +8272,15 @@
       </c>
       <c r="D250" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFF3D</v>
+        <v>FFFFFFFFD0</v>
       </c>
       <c r="E250">
         <f t="shared" si="18"/>
-        <v>-195</v>
+        <v>-48</v>
       </c>
       <c r="H250" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FF3D",</v>
+        <v>X"FFD0",</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -8297,15 +8297,15 @@
       </c>
       <c r="D251" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFF56</v>
+        <v>FFFFFFFFD6</v>
       </c>
       <c r="E251">
         <f t="shared" si="18"/>
-        <v>-170</v>
+        <v>-42</v>
       </c>
       <c r="H251" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FF56",</v>
+        <v>X"FFD6",</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -8322,15 +8322,15 @@
       </c>
       <c r="D252" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFF6E</v>
+        <v>FFFFFFFFDC</v>
       </c>
       <c r="E252">
         <f t="shared" si="18"/>
-        <v>-146</v>
+        <v>-36</v>
       </c>
       <c r="H252" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FF6E",</v>
+        <v>X"FFDC",</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -8347,15 +8347,15 @@
       </c>
       <c r="D253" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFF86</v>
+        <v>FFFFFFFFE2</v>
       </c>
       <c r="E253">
         <f t="shared" si="18"/>
-        <v>-122</v>
+        <v>-30</v>
       </c>
       <c r="H253" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FF86",</v>
+        <v>X"FFE2",</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -8372,15 +8372,15 @@
       </c>
       <c r="D254" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFF9E</v>
+        <v>FFFFFFFFE8</v>
       </c>
       <c r="E254">
         <f t="shared" si="18"/>
-        <v>-98</v>
+        <v>-24</v>
       </c>
       <c r="H254" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FF9E",</v>
+        <v>X"FFE8",</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
@@ -8397,15 +8397,15 @@
       </c>
       <c r="D255" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFFB7</v>
+        <v>FFFFFFFFEE</v>
       </c>
       <c r="E255">
         <f t="shared" si="18"/>
-        <v>-73</v>
+        <v>-18</v>
       </c>
       <c r="H255" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FFB7",</v>
+        <v>X"FFEE",</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
@@ -8422,15 +8422,15 @@
       </c>
       <c r="D256" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFFCF</v>
+        <v>FFFFFFFFF4</v>
       </c>
       <c r="E256">
         <f t="shared" si="18"/>
-        <v>-49</v>
+        <v>-12</v>
       </c>
       <c r="H256" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FFCF",</v>
+        <v>X"FFF4",</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -8447,15 +8447,15 @@
       </c>
       <c r="D257" t="str">
         <f t="shared" si="17"/>
-        <v>FFFFFFFFE8</v>
+        <v>FFFFFFFFFA</v>
       </c>
       <c r="E257">
         <f t="shared" si="18"/>
-        <v>-24</v>
+        <v>-6</v>
       </c>
       <c r="H257" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>X"FFE8",</v>
+        <v>X"FFFA",</v>
       </c>
     </row>
   </sheetData>
@@ -8464,6 +8464,22 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" rightToLeft="1" xr2:uid="{00000000-0003-0000-0000-000001000000}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>גיליון1!E2:E257</xm:f>
+              <xm:sqref>Q16</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
         <x14:sparklineGroup displayEmptyCellsAs="gap" rightToLeft="1" xr2:uid="{00000000-0003-0000-0000-000000000000}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
@@ -8500,22 +8516,6 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" rightToLeft="1" xr2:uid="{00000000-0003-0000-0000-000001000000}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>גיליון1!E2:E257</xm:f>
-              <xm:sqref>Q16</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
       </x14:sparklineGroups>
     </ext>
   </extLst>
